--- a/3_分析/2_摩根-好博数据分析/好博体育/平台数据/平台数据.xlsx
+++ b/3_分析/2_摩根-好博数据分析/好博体育/平台数据/平台数据.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V49"/>
+  <dimension ref="A1:V51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,7 @@
         <v>3169</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>8051806.890000001</v>
       </c>
       <c r="F2" t="n">
         <v>4902</v>
@@ -631,7 +631,7 @@
         <v>2826</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>6471990.689999999</v>
       </c>
       <c r="F3" t="n">
         <v>4800</v>
@@ -701,7 +701,7 @@
         <v>2829</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>8469722.42</v>
       </c>
       <c r="F4" t="n">
         <v>5137</v>
@@ -771,7 +771,7 @@
         <v>2905</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>8369439.359999999</v>
       </c>
       <c r="F5" t="n">
         <v>4889</v>
@@ -841,7 +841,7 @@
         <v>2721</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>8017311.930000001</v>
       </c>
       <c r="F6" t="n">
         <v>4764</v>
@@ -911,7 +911,7 @@
         <v>2789</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>8867745.109999999</v>
       </c>
       <c r="F7" t="n">
         <v>4693</v>
@@ -981,7 +981,7 @@
         <v>2777</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>8991101</v>
       </c>
       <c r="F8" t="n">
         <v>4639</v>
@@ -1051,7 +1051,7 @@
         <v>2802</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>9185424.360000001</v>
       </c>
       <c r="F9" t="n">
         <v>4544</v>
@@ -1121,7 +1121,7 @@
         <v>2924</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>8652154.93</v>
       </c>
       <c r="F10" t="n">
         <v>4742</v>
@@ -1191,7 +1191,7 @@
         <v>2963</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>9377667.620000001</v>
       </c>
       <c r="F11" t="n">
         <v>5165</v>
@@ -1218,7 +1218,7 @@
         <v>864</v>
       </c>
       <c r="N11" t="n">
-        <v>2861998.1</v>
+        <v>2862286.1</v>
       </c>
       <c r="O11" t="n">
         <v>1519</v>
@@ -1261,7 +1261,7 @@
         <v>3098</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>10672622.35</v>
       </c>
       <c r="F12" t="n">
         <v>5182</v>
@@ -1331,7 +1331,7 @@
         <v>2934</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>8979444.059999999</v>
       </c>
       <c r="F13" t="n">
         <v>4933</v>
@@ -1401,7 +1401,7 @@
         <v>2888</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>9265915.34</v>
       </c>
       <c r="F14" t="n">
         <v>4786</v>
@@ -1471,7 +1471,7 @@
         <v>2906</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>9433270.539999999</v>
       </c>
       <c r="F15" t="n">
         <v>4932</v>
@@ -1541,7 +1541,7 @@
         <v>2993</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>9457418.02</v>
       </c>
       <c r="F16" t="n">
         <v>4840</v>
@@ -1611,7 +1611,7 @@
         <v>3040</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>8914622.810000001</v>
       </c>
       <c r="F17" t="n">
         <v>4936</v>
@@ -1681,7 +1681,7 @@
         <v>3154</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>9477530.1</v>
       </c>
       <c r="F18" t="n">
         <v>5397</v>
@@ -1751,22 +1751,22 @@
         <v>3066</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>9198719.120000001</v>
       </c>
       <c r="F19" t="n">
         <v>5140</v>
       </c>
       <c r="G19" t="n">
-        <v>49278570.39</v>
+        <v>49301013.68000001</v>
       </c>
       <c r="H19" t="n">
-        <v>1230237</v>
+        <v>1230352</v>
       </c>
       <c r="I19" t="n">
         <v>3043</v>
       </c>
       <c r="J19" t="n">
-        <v>13070441.93</v>
+        <v>13073165.93</v>
       </c>
       <c r="K19" t="n">
         <v>1079</v>
@@ -1775,10 +1775,10 @@
         <v>3967825.61</v>
       </c>
       <c r="M19" t="n">
-        <v>918</v>
+        <v>934</v>
       </c>
       <c r="N19" t="n">
-        <v>2455203.98</v>
+        <v>2514602.26</v>
       </c>
       <c r="O19" t="n">
         <v>1596</v>
@@ -1808,2100 +1808,2240 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="D20" t="n">
-        <v>2967</v>
+        <v>2834</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>7706243.380000001</v>
       </c>
       <c r="F20" t="n">
-        <v>4597</v>
+        <v>4926</v>
       </c>
       <c r="G20" t="n">
-        <v>37785041.94</v>
+        <v>39362423.53</v>
       </c>
       <c r="H20" t="n">
-        <v>1455879</v>
+        <v>1222513</v>
       </c>
       <c r="I20" t="n">
-        <v>2370</v>
+        <v>2626</v>
       </c>
       <c r="J20" t="n">
-        <v>5538221.63</v>
+        <v>7941258.709999999</v>
       </c>
       <c r="K20" t="n">
-        <v>1328</v>
+        <v>1181</v>
       </c>
       <c r="L20" t="n">
-        <v>3412998.73</v>
+        <v>3490967.79</v>
       </c>
       <c r="M20" t="n">
-        <v>644</v>
+        <v>876</v>
       </c>
       <c r="N20" t="n">
-        <v>1383137.78</v>
+        <v>1990955.42</v>
       </c>
       <c r="O20" t="n">
-        <v>1679</v>
+        <v>1527</v>
       </c>
       <c r="P20" t="n">
-        <v>4161886.08</v>
+        <v>4655759.74</v>
       </c>
       <c r="Q20" t="n">
-        <v>547</v>
+        <v>628</v>
       </c>
       <c r="R20" t="n">
-        <v>1902132.05</v>
+        <v>1771450.93</v>
       </c>
       <c r="S20" t="n">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="T20" t="n">
-        <v>644964.6</v>
+        <v>927588.13</v>
       </c>
       <c r="U20" t="n">
-        <v>1275</v>
+        <v>1295</v>
       </c>
       <c r="V20" t="n">
-        <v>20088856.17</v>
+        <v>16985028.22</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>453</v>
+        <v>326</v>
       </c>
       <c r="D21" t="n">
-        <v>2979</v>
+        <v>2954</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>10003597.69</v>
       </c>
       <c r="F21" t="n">
-        <v>4721</v>
+        <v>4778</v>
       </c>
       <c r="G21" t="n">
-        <v>50662133.8</v>
+        <v>51635191.57000001</v>
       </c>
       <c r="H21" t="n">
-        <v>1434491</v>
+        <v>1233064</v>
       </c>
       <c r="I21" t="n">
-        <v>2639</v>
+        <v>2451</v>
       </c>
       <c r="J21" t="n">
-        <v>8064759.029999999</v>
+        <v>6798352.28</v>
       </c>
       <c r="K21" t="n">
-        <v>1239</v>
+        <v>1260</v>
       </c>
       <c r="L21" t="n">
-        <v>3294313.16</v>
+        <v>3785148.91</v>
       </c>
       <c r="M21" t="n">
-        <v>650</v>
+        <v>830</v>
       </c>
       <c r="N21" t="n">
-        <v>1311906.3</v>
+        <v>2254286.96</v>
       </c>
       <c r="O21" t="n">
-        <v>1670</v>
+        <v>1494</v>
       </c>
       <c r="P21" t="n">
-        <v>3852527.03</v>
+        <v>5185708.74</v>
       </c>
       <c r="Q21" t="n">
-        <v>542</v>
+        <v>571</v>
       </c>
       <c r="R21" t="n">
-        <v>1294490.98</v>
+        <v>1245910.47</v>
       </c>
       <c r="S21" t="n">
-        <v>288</v>
+        <v>246</v>
       </c>
       <c r="T21" t="n">
-        <v>542360.6</v>
+        <v>726467.3</v>
       </c>
       <c r="U21" t="n">
-        <v>1197</v>
+        <v>1274</v>
       </c>
       <c r="V21" t="n">
-        <v>31862106.4</v>
+        <v>28789279.55</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="D22" t="n">
-        <v>2804</v>
+        <v>2967</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>8745061.789999999</v>
       </c>
       <c r="F22" t="n">
-        <v>4581</v>
+        <v>4597</v>
       </c>
       <c r="G22" t="n">
-        <v>48182983.93</v>
+        <v>37785041.94</v>
       </c>
       <c r="H22" t="n">
-        <v>1464026</v>
+        <v>1455879</v>
       </c>
       <c r="I22" t="n">
-        <v>2376</v>
+        <v>2370</v>
       </c>
       <c r="J22" t="n">
-        <v>6208711.97</v>
+        <v>5538221.63</v>
       </c>
       <c r="K22" t="n">
-        <v>1267</v>
+        <v>1328</v>
       </c>
       <c r="L22" t="n">
-        <v>3412022.75</v>
+        <v>3412998.73</v>
       </c>
       <c r="M22" t="n">
-        <v>676</v>
+        <v>644</v>
       </c>
       <c r="N22" t="n">
-        <v>1491987.35</v>
+        <v>1383137.78</v>
       </c>
       <c r="O22" t="n">
-        <v>1652</v>
+        <v>1679</v>
       </c>
       <c r="P22" t="n">
-        <v>4984581.39</v>
+        <v>4161886.08</v>
       </c>
       <c r="Q22" t="n">
-        <v>527</v>
+        <v>547</v>
       </c>
       <c r="R22" t="n">
-        <v>1445159.79</v>
+        <v>1902132.05</v>
       </c>
       <c r="S22" t="n">
-        <v>325</v>
+        <v>240</v>
       </c>
       <c r="T22" t="n">
-        <v>714032.65</v>
+        <v>644964.6</v>
       </c>
       <c r="U22" t="n">
-        <v>1156</v>
+        <v>1275</v>
       </c>
       <c r="V22" t="n">
-        <v>29024400.73</v>
+        <v>20088856.17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C23" t="n">
-        <v>349</v>
+        <v>453</v>
       </c>
       <c r="D23" t="n">
-        <v>2622</v>
+        <v>2979</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>8614113.84</v>
       </c>
       <c r="F23" t="n">
-        <v>4368</v>
+        <v>4721</v>
       </c>
       <c r="G23" t="n">
-        <v>49085188.82</v>
+        <v>50662133.8</v>
       </c>
       <c r="H23" t="n">
-        <v>1302873</v>
+        <v>1434491</v>
       </c>
       <c r="I23" t="n">
-        <v>2189</v>
+        <v>2639</v>
       </c>
       <c r="J23" t="n">
-        <v>5747500.75</v>
+        <v>8064759.029999999</v>
       </c>
       <c r="K23" t="n">
-        <v>1381</v>
+        <v>1239</v>
       </c>
       <c r="L23" t="n">
-        <v>4657369.89</v>
+        <v>3294313.16</v>
       </c>
       <c r="M23" t="n">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="N23" t="n">
-        <v>1400731.94</v>
+        <v>1311906.3</v>
       </c>
       <c r="O23" t="n">
-        <v>1517</v>
+        <v>1670</v>
       </c>
       <c r="P23" t="n">
-        <v>3839850.69</v>
+        <v>3852527.03</v>
       </c>
       <c r="Q23" t="n">
-        <v>496</v>
+        <v>542</v>
       </c>
       <c r="R23" t="n">
-        <v>1400840.76</v>
+        <v>1294490.98</v>
       </c>
       <c r="S23" t="n">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="T23" t="n">
-        <v>553525.36</v>
+        <v>542360.6</v>
       </c>
       <c r="U23" t="n">
-        <v>1106</v>
+        <v>1197</v>
       </c>
       <c r="V23" t="n">
-        <v>28790633.23</v>
+        <v>31862106.4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>432</v>
+        <v>350</v>
       </c>
       <c r="D24" t="n">
-        <v>3031</v>
+        <v>2804</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>6972978.1</v>
       </c>
       <c r="F24" t="n">
-        <v>4939</v>
+        <v>4581</v>
       </c>
       <c r="G24" t="n">
-        <v>47055569.84</v>
+        <v>48182983.93</v>
       </c>
       <c r="H24" t="n">
-        <v>1310257</v>
+        <v>1464026</v>
       </c>
       <c r="I24" t="n">
-        <v>3221</v>
+        <v>2376</v>
       </c>
       <c r="J24" t="n">
-        <v>11710552.69</v>
+        <v>6208711.97</v>
       </c>
       <c r="K24" t="n">
-        <v>1421</v>
+        <v>1267</v>
       </c>
       <c r="L24" t="n">
-        <v>4480025.2</v>
+        <v>3412022.75</v>
       </c>
       <c r="M24" t="n">
-        <v>714</v>
+        <v>676</v>
       </c>
       <c r="N24" t="n">
-        <v>2079972.81</v>
+        <v>1491987.35</v>
       </c>
       <c r="O24" t="n">
-        <v>1727</v>
+        <v>1652</v>
       </c>
       <c r="P24" t="n">
-        <v>3810342.77</v>
+        <v>4984581.39</v>
       </c>
       <c r="Q24" t="n">
-        <v>554</v>
+        <v>527</v>
       </c>
       <c r="R24" t="n">
-        <v>1459258.66</v>
+        <v>1445159.79</v>
       </c>
       <c r="S24" t="n">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="T24" t="n">
-        <v>523649.86</v>
+        <v>714032.65</v>
       </c>
       <c r="U24" t="n">
-        <v>1307</v>
+        <v>1156</v>
       </c>
       <c r="V24" t="n">
-        <v>21457800.95</v>
+        <v>29024400.73</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C25" t="n">
-        <v>439</v>
+        <v>349</v>
       </c>
       <c r="D25" t="n">
-        <v>2901</v>
+        <v>2622</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>8003215.4</v>
       </c>
       <c r="F25" t="n">
-        <v>4863</v>
+        <v>4368</v>
       </c>
       <c r="G25" t="n">
-        <v>67999768.01000001</v>
+        <v>49085188.82</v>
       </c>
       <c r="H25" t="n">
-        <v>1273026</v>
+        <v>1302873</v>
       </c>
       <c r="I25" t="n">
-        <v>3028</v>
+        <v>2189</v>
       </c>
       <c r="J25" t="n">
-        <v>12217412.29</v>
+        <v>5747500.75</v>
       </c>
       <c r="K25" t="n">
-        <v>1184</v>
+        <v>1381</v>
       </c>
       <c r="L25" t="n">
-        <v>3980025.48</v>
+        <v>4657369.89</v>
       </c>
       <c r="M25" t="n">
-        <v>772</v>
+        <v>664</v>
       </c>
       <c r="N25" t="n">
-        <v>2273411.53</v>
+        <v>1400731.94</v>
       </c>
       <c r="O25" t="n">
-        <v>1608</v>
+        <v>1517</v>
       </c>
       <c r="P25" t="n">
-        <v>4079216.52</v>
+        <v>3839850.69</v>
       </c>
       <c r="Q25" t="n">
-        <v>555</v>
+        <v>496</v>
       </c>
       <c r="R25" t="n">
-        <v>1371808.85</v>
+        <v>1400840.76</v>
       </c>
       <c r="S25" t="n">
-        <v>346</v>
+        <v>278</v>
       </c>
       <c r="T25" t="n">
-        <v>448603.43</v>
+        <v>553525.36</v>
       </c>
       <c r="U25" t="n">
-        <v>1239</v>
+        <v>1106</v>
       </c>
       <c r="V25" t="n">
-        <v>42554761.41</v>
+        <v>28790633.23</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C26" t="n">
-        <v>381</v>
+        <v>432</v>
       </c>
       <c r="D26" t="n">
-        <v>2855</v>
+        <v>3031</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>9944754.640000001</v>
       </c>
       <c r="F26" t="n">
-        <v>4754</v>
+        <v>4939</v>
       </c>
       <c r="G26" t="n">
-        <v>40252204.51</v>
+        <v>47055569.84</v>
       </c>
       <c r="H26" t="n">
-        <v>1344341</v>
+        <v>1310257</v>
       </c>
       <c r="I26" t="n">
-        <v>2413</v>
+        <v>3221</v>
       </c>
       <c r="J26" t="n">
-        <v>7395276.14</v>
+        <v>11710552.69</v>
       </c>
       <c r="K26" t="n">
-        <v>1313</v>
+        <v>1421</v>
       </c>
       <c r="L26" t="n">
-        <v>3650375.36</v>
+        <v>4480025.2</v>
       </c>
       <c r="M26" t="n">
-        <v>891</v>
+        <v>714</v>
       </c>
       <c r="N26" t="n">
-        <v>2472368.05</v>
+        <v>2079972.81</v>
       </c>
       <c r="O26" t="n">
-        <v>1551</v>
+        <v>1727</v>
       </c>
       <c r="P26" t="n">
-        <v>5086127.66</v>
+        <v>3810342.77</v>
       </c>
       <c r="Q26" t="n">
-        <v>612</v>
+        <v>554</v>
       </c>
       <c r="R26" t="n">
-        <v>1324660.61</v>
+        <v>1459258.66</v>
       </c>
       <c r="S26" t="n">
-        <v>309</v>
+        <v>345</v>
       </c>
       <c r="T26" t="n">
-        <v>386321.07</v>
+        <v>523649.86</v>
       </c>
       <c r="U26" t="n">
-        <v>1342</v>
+        <v>1307</v>
       </c>
       <c r="V26" t="n">
-        <v>19650527.92</v>
+        <v>21457800.95</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C27" t="n">
-        <v>384</v>
+        <v>439</v>
       </c>
       <c r="D27" t="n">
-        <v>2853</v>
+        <v>2901</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>8702542.48</v>
       </c>
       <c r="F27" t="n">
-        <v>4641</v>
+        <v>4863</v>
       </c>
       <c r="G27" t="n">
-        <v>44775426.43</v>
+        <v>67999768.01000001</v>
       </c>
       <c r="H27" t="n">
-        <v>1371233</v>
+        <v>1273026</v>
       </c>
       <c r="I27" t="n">
-        <v>2441</v>
+        <v>3028</v>
       </c>
       <c r="J27" t="n">
-        <v>7056765.74</v>
+        <v>12217412.29</v>
       </c>
       <c r="K27" t="n">
-        <v>1220</v>
+        <v>1184</v>
       </c>
       <c r="L27" t="n">
-        <v>3209716.69</v>
+        <v>3980025.48</v>
       </c>
       <c r="M27" t="n">
-        <v>821</v>
+        <v>772</v>
       </c>
       <c r="N27" t="n">
-        <v>2200379.07</v>
+        <v>2273411.53</v>
       </c>
       <c r="O27" t="n">
-        <v>1534</v>
+        <v>1608</v>
       </c>
       <c r="P27" t="n">
-        <v>4173764.55</v>
+        <v>4079216.52</v>
       </c>
       <c r="Q27" t="n">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="R27" t="n">
-        <v>1257066.18</v>
+        <v>1371808.85</v>
       </c>
       <c r="S27" t="n">
-        <v>305</v>
+        <v>346</v>
       </c>
       <c r="T27" t="n">
-        <v>551972.4300000001</v>
+        <v>448603.43</v>
       </c>
       <c r="U27" t="n">
-        <v>1281</v>
+        <v>1239</v>
       </c>
       <c r="V27" t="n">
-        <v>26181709.67</v>
+        <v>42554761.41</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>418</v>
+        <v>381</v>
       </c>
       <c r="D28" t="n">
-        <v>2958</v>
+        <v>2855</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>9948340.49</v>
       </c>
       <c r="F28" t="n">
-        <v>4700</v>
+        <v>4754</v>
       </c>
       <c r="G28" t="n">
-        <v>43788898.11</v>
+        <v>40252204.51</v>
       </c>
       <c r="H28" t="n">
-        <v>1256021</v>
+        <v>1344341</v>
       </c>
       <c r="I28" t="n">
-        <v>2738</v>
+        <v>2413</v>
       </c>
       <c r="J28" t="n">
-        <v>8988132.08</v>
+        <v>7395276.14</v>
       </c>
       <c r="K28" t="n">
-        <v>1273</v>
+        <v>1313</v>
       </c>
       <c r="L28" t="n">
-        <v>3726411.11</v>
+        <v>3650375.36</v>
       </c>
       <c r="M28" t="n">
-        <v>792</v>
+        <v>891</v>
       </c>
       <c r="N28" t="n">
-        <v>2017665.9</v>
+        <v>2472368.05</v>
       </c>
       <c r="O28" t="n">
-        <v>1493</v>
+        <v>1551</v>
       </c>
       <c r="P28" t="n">
-        <v>4405449.14</v>
+        <v>5086127.66</v>
       </c>
       <c r="Q28" t="n">
-        <v>536</v>
+        <v>612</v>
       </c>
       <c r="R28" t="n">
-        <v>1219392.84</v>
+        <v>1324660.61</v>
       </c>
       <c r="S28" t="n">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="T28" t="n">
-        <v>512824.43</v>
+        <v>386321.07</v>
       </c>
       <c r="U28" t="n">
-        <v>1227</v>
+        <v>1342</v>
       </c>
       <c r="V28" t="n">
-        <v>22628313.81</v>
+        <v>19650527.92</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="D29" t="n">
-        <v>2918</v>
+        <v>2853</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>8306694.470000001</v>
       </c>
       <c r="F29" t="n">
-        <v>4751</v>
+        <v>4641</v>
       </c>
       <c r="G29" t="n">
-        <v>35176842.38</v>
+        <v>44775426.43</v>
       </c>
       <c r="H29" t="n">
-        <v>1439707</v>
+        <v>1371233</v>
       </c>
       <c r="I29" t="n">
-        <v>2485</v>
+        <v>2441</v>
       </c>
       <c r="J29" t="n">
-        <v>7954252.75</v>
+        <v>7056765.74</v>
       </c>
       <c r="K29" t="n">
-        <v>1413</v>
+        <v>1220</v>
       </c>
       <c r="L29" t="n">
-        <v>4099669.29</v>
+        <v>3209716.69</v>
       </c>
       <c r="M29" t="n">
-        <v>871</v>
+        <v>821</v>
       </c>
       <c r="N29" t="n">
-        <v>1994841.02</v>
+        <v>2200379.07</v>
       </c>
       <c r="O29" t="n">
-        <v>1599</v>
+        <v>1534</v>
       </c>
       <c r="P29" t="n">
-        <v>4765252.66</v>
+        <v>4173764.55</v>
       </c>
       <c r="Q29" t="n">
-        <v>564</v>
+        <v>591</v>
       </c>
       <c r="R29" t="n">
-        <v>1354783.86</v>
+        <v>1257066.18</v>
       </c>
       <c r="S29" t="n">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="T29" t="n">
-        <v>598896.66</v>
+        <v>551972.4300000001</v>
       </c>
       <c r="U29" t="n">
-        <v>1292</v>
+        <v>1281</v>
       </c>
       <c r="V29" t="n">
-        <v>14255459.14</v>
+        <v>26181709.67</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C30" t="n">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="D30" t="n">
-        <v>3036</v>
+        <v>2958</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>9106641.82</v>
       </c>
       <c r="F30" t="n">
-        <v>4713</v>
+        <v>4700</v>
       </c>
       <c r="G30" t="n">
-        <v>42250635.16</v>
+        <v>43788898.11</v>
       </c>
       <c r="H30" t="n">
-        <v>1456140</v>
+        <v>1256021</v>
       </c>
       <c r="I30" t="n">
-        <v>2627</v>
+        <v>2738</v>
       </c>
       <c r="J30" t="n">
-        <v>8463726.210000001</v>
+        <v>8988132.08</v>
       </c>
       <c r="K30" t="n">
-        <v>1376</v>
+        <v>1273</v>
       </c>
       <c r="L30" t="n">
-        <v>4034655.15</v>
+        <v>3726411.11</v>
       </c>
       <c r="M30" t="n">
-        <v>881</v>
+        <v>792</v>
       </c>
       <c r="N30" t="n">
-        <v>2437635.22</v>
+        <v>2017665.9</v>
       </c>
       <c r="O30" t="n">
-        <v>1547</v>
+        <v>1493</v>
       </c>
       <c r="P30" t="n">
-        <v>4493126.310000001</v>
+        <v>4405449.14</v>
       </c>
       <c r="Q30" t="n">
-        <v>580</v>
+        <v>536</v>
       </c>
       <c r="R30" t="n">
-        <v>1250653.53</v>
+        <v>1219392.84</v>
       </c>
       <c r="S30" t="n">
-        <v>268</v>
+        <v>322</v>
       </c>
       <c r="T30" t="n">
-        <v>513404.86</v>
+        <v>512824.43</v>
       </c>
       <c r="U30" t="n">
-        <v>1222</v>
+        <v>1227</v>
       </c>
       <c r="V30" t="n">
-        <v>20868985.18</v>
+        <v>22628313.81</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C31" t="n">
-        <v>456</v>
+        <v>403</v>
       </c>
       <c r="D31" t="n">
-        <v>3163</v>
+        <v>2918</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>7740950.439999999</v>
       </c>
       <c r="F31" t="n">
-        <v>5174</v>
+        <v>4751</v>
       </c>
       <c r="G31" t="n">
-        <v>42345411.16</v>
+        <v>35176842.38</v>
       </c>
       <c r="H31" t="n">
-        <v>1408519</v>
+        <v>1439707</v>
       </c>
       <c r="I31" t="n">
-        <v>3514</v>
+        <v>2485</v>
       </c>
       <c r="J31" t="n">
-        <v>12940787.25</v>
+        <v>7954252.75</v>
       </c>
       <c r="K31" t="n">
-        <v>1443</v>
+        <v>1413</v>
       </c>
       <c r="L31" t="n">
-        <v>4423044.46</v>
+        <v>4099669.29</v>
       </c>
       <c r="M31" t="n">
-        <v>845</v>
+        <v>871</v>
       </c>
       <c r="N31" t="n">
-        <v>2517061.15</v>
+        <v>1994841.02</v>
       </c>
       <c r="O31" t="n">
-        <v>1725</v>
+        <v>1599</v>
       </c>
       <c r="P31" t="n">
-        <v>3795563.26</v>
+        <v>4765252.66</v>
       </c>
       <c r="Q31" t="n">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="R31" t="n">
-        <v>1211529.96</v>
+        <v>1354783.86</v>
       </c>
       <c r="S31" t="n">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="T31" t="n">
-        <v>470267.77</v>
+        <v>598896.66</v>
       </c>
       <c r="U31" t="n">
-        <v>1352</v>
+        <v>1292</v>
       </c>
       <c r="V31" t="n">
-        <v>16929838.51</v>
+        <v>14255459.14</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C32" t="n">
-        <v>452</v>
+        <v>426</v>
       </c>
       <c r="D32" t="n">
-        <v>3117</v>
+        <v>3036</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>8909226.42</v>
       </c>
       <c r="F32" t="n">
-        <v>4979</v>
+        <v>4713</v>
       </c>
       <c r="G32" t="n">
-        <v>39495074.87</v>
+        <v>42250635.16</v>
       </c>
       <c r="H32" t="n">
-        <v>1296083</v>
+        <v>1456140</v>
       </c>
       <c r="I32" t="n">
-        <v>3096</v>
+        <v>2627</v>
       </c>
       <c r="J32" t="n">
-        <v>10439914.2</v>
+        <v>8463726.210000001</v>
       </c>
       <c r="K32" t="n">
-        <v>1007</v>
+        <v>1376</v>
       </c>
       <c r="L32" t="n">
-        <v>2773273.78</v>
+        <v>4034655.15</v>
       </c>
       <c r="M32" t="n">
-        <v>794</v>
+        <v>881</v>
       </c>
       <c r="N32" t="n">
-        <v>2617961.23</v>
+        <v>2437635.22</v>
       </c>
       <c r="O32" t="n">
-        <v>1645</v>
+        <v>1547</v>
       </c>
       <c r="P32" t="n">
-        <v>4424816.97</v>
+        <v>4493126.310000001</v>
       </c>
       <c r="Q32" t="n">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="R32" t="n">
-        <v>1433265.22</v>
+        <v>1250653.53</v>
       </c>
       <c r="S32" t="n">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="T32" t="n">
-        <v>429606.96</v>
+        <v>513404.86</v>
       </c>
       <c r="U32" t="n">
-        <v>1162</v>
+        <v>1222</v>
       </c>
       <c r="V32" t="n">
-        <v>16944516.11</v>
+        <v>20868985.18</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C33" t="n">
-        <v>376</v>
+        <v>456</v>
       </c>
       <c r="D33" t="n">
-        <v>2859</v>
+        <v>3163</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>9096263.450000001</v>
       </c>
       <c r="F33" t="n">
-        <v>4737</v>
+        <v>5174</v>
       </c>
       <c r="G33" t="n">
-        <v>41538214.86</v>
+        <v>42345411.16</v>
       </c>
       <c r="H33" t="n">
-        <v>1389235</v>
+        <v>1408519</v>
       </c>
       <c r="I33" t="n">
-        <v>2602</v>
+        <v>3514</v>
       </c>
       <c r="J33" t="n">
-        <v>7587476.4</v>
+        <v>12940787.25</v>
       </c>
       <c r="K33" t="n">
-        <v>1246</v>
+        <v>1443</v>
       </c>
       <c r="L33" t="n">
-        <v>3597073.21</v>
+        <v>4423044.46</v>
       </c>
       <c r="M33" t="n">
-        <v>809</v>
+        <v>845</v>
       </c>
       <c r="N33" t="n">
-        <v>2249014.13</v>
+        <v>2517061.15</v>
       </c>
       <c r="O33" t="n">
-        <v>1546</v>
+        <v>1725</v>
       </c>
       <c r="P33" t="n">
-        <v>5921735.439999999</v>
+        <v>3795563.26</v>
       </c>
       <c r="Q33" t="n">
-        <v>520</v>
+        <v>599</v>
       </c>
       <c r="R33" t="n">
-        <v>1855070.54</v>
+        <v>1211529.96</v>
       </c>
       <c r="S33" t="n">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="T33" t="n">
-        <v>609520.0600000001</v>
+        <v>470267.77</v>
       </c>
       <c r="U33" t="n">
-        <v>1309</v>
+        <v>1352</v>
       </c>
       <c r="V33" t="n">
-        <v>18898098.28</v>
+        <v>16929838.51</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C34" t="n">
-        <v>379</v>
+        <v>452</v>
       </c>
       <c r="D34" t="n">
-        <v>2832</v>
+        <v>3117</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>9290678.15</v>
       </c>
       <c r="F34" t="n">
-        <v>4704</v>
+        <v>4979</v>
       </c>
       <c r="G34" t="n">
-        <v>42454169.55</v>
+        <v>39495074.87</v>
       </c>
       <c r="H34" t="n">
-        <v>1296726</v>
+        <v>1296083</v>
       </c>
       <c r="I34" t="n">
-        <v>2642</v>
+        <v>3096</v>
       </c>
       <c r="J34" t="n">
-        <v>7308377.16</v>
+        <v>10439914.2</v>
       </c>
       <c r="K34" t="n">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="L34" t="n">
-        <v>2703408.52</v>
+        <v>2773273.78</v>
       </c>
       <c r="M34" t="n">
-        <v>778</v>
+        <v>794</v>
       </c>
       <c r="N34" t="n">
-        <v>1615850.74</v>
+        <v>2617961.23</v>
       </c>
       <c r="O34" t="n">
-        <v>1536</v>
+        <v>1645</v>
       </c>
       <c r="P34" t="n">
-        <v>3566320.66</v>
+        <v>4424816.97</v>
       </c>
       <c r="Q34" t="n">
-        <v>541</v>
+        <v>596</v>
       </c>
       <c r="R34" t="n">
-        <v>3003927.74</v>
+        <v>1433265.22</v>
       </c>
       <c r="S34" t="n">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="T34" t="n">
-        <v>567425.1899999999</v>
+        <v>429606.96</v>
       </c>
       <c r="U34" t="n">
-        <v>1238</v>
+        <v>1162</v>
       </c>
       <c r="V34" t="n">
-        <v>22967413.64</v>
+        <v>16944516.11</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>416</v>
+        <v>376</v>
       </c>
       <c r="D35" t="n">
-        <v>3074</v>
+        <v>2859</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>8379346.359999999</v>
       </c>
       <c r="F35" t="n">
-        <v>4976</v>
+        <v>4737</v>
       </c>
       <c r="G35" t="n">
-        <v>51688211.24</v>
+        <v>41538214.86</v>
       </c>
       <c r="H35" t="n">
-        <v>1407966</v>
+        <v>1389235</v>
       </c>
       <c r="I35" t="n">
-        <v>2817</v>
+        <v>2602</v>
       </c>
       <c r="J35" t="n">
-        <v>8033459.41</v>
+        <v>7587476.4</v>
       </c>
       <c r="K35" t="n">
-        <v>1468</v>
+        <v>1246</v>
       </c>
       <c r="L35" t="n">
-        <v>4049942.55</v>
+        <v>3597073.21</v>
       </c>
       <c r="M35" t="n">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="N35" t="n">
-        <v>2021429.23</v>
+        <v>2249014.13</v>
       </c>
       <c r="O35" t="n">
-        <v>1635</v>
+        <v>1546</v>
       </c>
       <c r="P35" t="n">
-        <v>4675228.27</v>
+        <v>5921735.439999999</v>
       </c>
       <c r="Q35" t="n">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="R35" t="n">
-        <v>3128824.35</v>
+        <v>1855070.54</v>
       </c>
       <c r="S35" t="n">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="T35" t="n">
-        <v>615731.21</v>
+        <v>609520.0600000001</v>
       </c>
       <c r="U35" t="n">
-        <v>1286</v>
+        <v>1309</v>
       </c>
       <c r="V35" t="n">
-        <v>28256868.32</v>
+        <v>18898098.28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C36" t="n">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="D36" t="n">
-        <v>2962</v>
+        <v>2832</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>7319298.699999999</v>
       </c>
       <c r="F36" t="n">
-        <v>4865</v>
+        <v>4704</v>
       </c>
       <c r="G36" t="n">
-        <v>47443009.66</v>
+        <v>42454169.55</v>
       </c>
       <c r="H36" t="n">
-        <v>1370631</v>
+        <v>1296726</v>
       </c>
       <c r="I36" t="n">
-        <v>2696</v>
+        <v>2642</v>
       </c>
       <c r="J36" t="n">
-        <v>8495590.439999999</v>
+        <v>7308377.16</v>
       </c>
       <c r="K36" t="n">
-        <v>1333</v>
+        <v>1015</v>
       </c>
       <c r="L36" t="n">
-        <v>3663887.99</v>
+        <v>2703408.52</v>
       </c>
       <c r="M36" t="n">
-        <v>835</v>
+        <v>778</v>
       </c>
       <c r="N36" t="n">
-        <v>2022285.91</v>
+        <v>1615850.74</v>
       </c>
       <c r="O36" t="n">
-        <v>1610</v>
+        <v>1536</v>
       </c>
       <c r="P36" t="n">
-        <v>3987230.38</v>
+        <v>3566320.66</v>
       </c>
       <c r="Q36" t="n">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="R36" t="n">
-        <v>2377786.26</v>
+        <v>3003927.74</v>
       </c>
       <c r="S36" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="T36" t="n">
-        <v>580577.76</v>
+        <v>567425.1899999999</v>
       </c>
       <c r="U36" t="n">
-        <v>1233</v>
+        <v>1238</v>
       </c>
       <c r="V36" t="n">
-        <v>25124492.22</v>
+        <v>22967413.64</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C37" t="n">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="D37" t="n">
-        <v>3060</v>
+        <v>3074</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>9934980.559999999</v>
       </c>
       <c r="F37" t="n">
-        <v>4971</v>
+        <v>4976</v>
       </c>
       <c r="G37" t="n">
-        <v>63104551.11</v>
+        <v>51688211.24</v>
       </c>
       <c r="H37" t="n">
-        <v>1365425</v>
+        <v>1407966</v>
       </c>
       <c r="I37" t="n">
-        <v>2863</v>
+        <v>2817</v>
       </c>
       <c r="J37" t="n">
-        <v>10340536.11</v>
+        <v>8033459.41</v>
       </c>
       <c r="K37" t="n">
-        <v>900</v>
+        <v>1468</v>
       </c>
       <c r="L37" t="n">
-        <v>2068150.43</v>
+        <v>4049942.55</v>
       </c>
       <c r="M37" t="n">
-        <v>788</v>
+        <v>816</v>
       </c>
       <c r="N37" t="n">
-        <v>2257059.76</v>
+        <v>2021429.23</v>
       </c>
       <c r="O37" t="n">
-        <v>1574</v>
+        <v>1635</v>
       </c>
       <c r="P37" t="n">
-        <v>6498198.09</v>
+        <v>4675228.27</v>
       </c>
       <c r="Q37" t="n">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="R37" t="n">
-        <v>1835230.92</v>
+        <v>3128824.35</v>
       </c>
       <c r="S37" t="n">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="T37" t="n">
-        <v>572338.59</v>
+        <v>615731.21</v>
       </c>
       <c r="U37" t="n">
-        <v>1311</v>
+        <v>1286</v>
       </c>
       <c r="V37" t="n">
-        <v>39325091.11</v>
+        <v>28256868.32</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C38" t="n">
-        <v>405</v>
+        <v>374</v>
       </c>
       <c r="D38" t="n">
-        <v>3034</v>
+        <v>2962</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>8037552.939999999</v>
       </c>
       <c r="F38" t="n">
-        <v>5165</v>
+        <v>4865</v>
       </c>
       <c r="G38" t="n">
-        <v>84186793.55</v>
+        <v>47443009.66</v>
       </c>
       <c r="H38" t="n">
-        <v>1327567</v>
+        <v>1370631</v>
       </c>
       <c r="I38" t="n">
-        <v>3514</v>
+        <v>2696</v>
       </c>
       <c r="J38" t="n">
-        <v>13228899.27</v>
+        <v>8495590.439999999</v>
       </c>
       <c r="K38" t="n">
-        <v>1356</v>
+        <v>1333</v>
       </c>
       <c r="L38" t="n">
-        <v>3849636.1</v>
+        <v>3663887.99</v>
       </c>
       <c r="M38" t="n">
         <v>835</v>
       </c>
       <c r="N38" t="n">
-        <v>2344933.95</v>
+        <v>2022285.91</v>
       </c>
       <c r="O38" t="n">
-        <v>1681</v>
+        <v>1610</v>
       </c>
       <c r="P38" t="n">
-        <v>6324413.82</v>
+        <v>3987230.38</v>
       </c>
       <c r="Q38" t="n">
-        <v>572</v>
+        <v>534</v>
       </c>
       <c r="R38" t="n">
-        <v>1860081.16</v>
+        <v>2377786.26</v>
       </c>
       <c r="S38" t="n">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="T38" t="n">
-        <v>506666.89</v>
+        <v>580577.76</v>
       </c>
       <c r="U38" t="n">
-        <v>1390</v>
+        <v>1233</v>
       </c>
       <c r="V38" t="n">
-        <v>55709296.36</v>
+        <v>25124492.22</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C39" t="n">
-        <v>468</v>
+        <v>389</v>
       </c>
       <c r="D39" t="n">
-        <v>3180</v>
+        <v>3060</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>7786716.59</v>
       </c>
       <c r="F39" t="n">
-        <v>5204</v>
+        <v>4971</v>
       </c>
       <c r="G39" t="n">
-        <v>67075896.16999999</v>
+        <v>63104551.11</v>
       </c>
       <c r="H39" t="n">
-        <v>1320064</v>
+        <v>1365425</v>
       </c>
       <c r="I39" t="n">
-        <v>3249</v>
+        <v>2863</v>
       </c>
       <c r="J39" t="n">
-        <v>12547112.6</v>
+        <v>10340536.11</v>
       </c>
       <c r="K39" t="n">
-        <v>1484</v>
+        <v>900</v>
       </c>
       <c r="L39" t="n">
-        <v>4746614.72</v>
+        <v>2068150.43</v>
       </c>
       <c r="M39" t="n">
-        <v>854</v>
+        <v>788</v>
       </c>
       <c r="N39" t="n">
-        <v>2507676.87</v>
+        <v>2257059.76</v>
       </c>
       <c r="O39" t="n">
-        <v>1635</v>
+        <v>1574</v>
       </c>
       <c r="P39" t="n">
-        <v>4521265.82</v>
+        <v>6498198.09</v>
       </c>
       <c r="Q39" t="n">
-        <v>585</v>
+        <v>530</v>
       </c>
       <c r="R39" t="n">
-        <v>2755636.68</v>
+        <v>1835230.92</v>
       </c>
       <c r="S39" t="n">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="T39" t="n">
-        <v>564973.9299999999</v>
+        <v>572338.59</v>
       </c>
       <c r="U39" t="n">
-        <v>1264</v>
+        <v>1311</v>
       </c>
       <c r="V39" t="n">
-        <v>38241335.65</v>
+        <v>39325091.11</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C40" t="n">
-        <v>373</v>
+        <v>405</v>
       </c>
       <c r="D40" t="n">
-        <v>3037</v>
+        <v>3034</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>11834332.58</v>
       </c>
       <c r="F40" t="n">
-        <v>5027</v>
+        <v>5165</v>
       </c>
       <c r="G40" t="n">
-        <v>63773024.59999999</v>
+        <v>84186793.55</v>
       </c>
       <c r="H40" t="n">
-        <v>1258823</v>
+        <v>1327567</v>
       </c>
       <c r="I40" t="n">
-        <v>2875</v>
+        <v>3514</v>
       </c>
       <c r="J40" t="n">
-        <v>6920266.189999999</v>
+        <v>13228899.27</v>
       </c>
       <c r="K40" t="n">
-        <v>1542</v>
+        <v>1356</v>
       </c>
       <c r="L40" t="n">
-        <v>3696443.29</v>
+        <v>3849636.1</v>
       </c>
       <c r="M40" t="n">
-        <v>933</v>
+        <v>835</v>
       </c>
       <c r="N40" t="n">
-        <v>2690307.8</v>
+        <v>2344933.95</v>
       </c>
       <c r="O40" t="n">
-        <v>1515</v>
+        <v>1681</v>
       </c>
       <c r="P40" t="n">
-        <v>4582515.05</v>
+        <v>6324413.82</v>
       </c>
       <c r="Q40" t="n">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="R40" t="n">
-        <v>1797997.75</v>
+        <v>1860081.16</v>
       </c>
       <c r="S40" t="n">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="T40" t="n">
-        <v>528334.64</v>
+        <v>506666.89</v>
       </c>
       <c r="U40" t="n">
-        <v>1381</v>
+        <v>1390</v>
       </c>
       <c r="V40" t="n">
-        <v>43178121.18</v>
+        <v>55709296.36</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C41" t="n">
-        <v>436</v>
+        <v>468</v>
       </c>
       <c r="D41" t="n">
-        <v>3078</v>
+        <v>3180</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>10011995.57</v>
       </c>
       <c r="F41" t="n">
-        <v>4915</v>
+        <v>5204</v>
       </c>
       <c r="G41" t="n">
-        <v>58020559.12</v>
+        <v>67075896.16999999</v>
       </c>
       <c r="H41" t="n">
-        <v>1314541</v>
+        <v>1320064</v>
       </c>
       <c r="I41" t="n">
-        <v>2689</v>
+        <v>3249</v>
       </c>
       <c r="J41" t="n">
-        <v>6449122.89</v>
+        <v>12547112.6</v>
       </c>
       <c r="K41" t="n">
-        <v>1359</v>
+        <v>1484</v>
       </c>
       <c r="L41" t="n">
-        <v>2945070.06</v>
+        <v>4746614.72</v>
       </c>
       <c r="M41" t="n">
-        <v>905</v>
+        <v>854</v>
       </c>
       <c r="N41" t="n">
-        <v>2115821.36</v>
+        <v>2507676.87</v>
       </c>
       <c r="O41" t="n">
-        <v>1599</v>
+        <v>1635</v>
       </c>
       <c r="P41" t="n">
-        <v>5060796.92</v>
+        <v>4521265.82</v>
       </c>
       <c r="Q41" t="n">
-        <v>613</v>
+        <v>585</v>
       </c>
       <c r="R41" t="n">
-        <v>2296501.35</v>
+        <v>2755636.68</v>
       </c>
       <c r="S41" t="n">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="T41" t="n">
-        <v>691604.65</v>
+        <v>564973.9299999999</v>
       </c>
       <c r="U41" t="n">
-        <v>1373</v>
+        <v>1264</v>
       </c>
       <c r="V41" t="n">
-        <v>37118843.69</v>
+        <v>38241335.65</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>419</v>
+        <v>373</v>
       </c>
       <c r="D42" t="n">
-        <v>3260</v>
+        <v>3037</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>9666580.58</v>
       </c>
       <c r="F42" t="n">
-        <v>5079</v>
+        <v>5027</v>
       </c>
       <c r="G42" t="n">
-        <v>60706390.65</v>
+        <v>63773024.59999999</v>
       </c>
       <c r="H42" t="n">
-        <v>1374941</v>
+        <v>1258823</v>
       </c>
       <c r="I42" t="n">
-        <v>2762</v>
+        <v>2875</v>
       </c>
       <c r="J42" t="n">
-        <v>6005497.56</v>
+        <v>6920266.189999999</v>
       </c>
       <c r="K42" t="n">
-        <v>1567</v>
+        <v>1542</v>
       </c>
       <c r="L42" t="n">
-        <v>4041871.38</v>
+        <v>3696443.29</v>
       </c>
       <c r="M42" t="n">
-        <v>825</v>
+        <v>933</v>
       </c>
       <c r="N42" t="n">
-        <v>1933829.4</v>
+        <v>2690307.8</v>
       </c>
       <c r="O42" t="n">
-        <v>1591</v>
+        <v>1515</v>
       </c>
       <c r="P42" t="n">
-        <v>4499424.26</v>
+        <v>4582515.05</v>
       </c>
       <c r="Q42" t="n">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="R42" t="n">
-        <v>2019173</v>
+        <v>1797997.75</v>
       </c>
       <c r="S42" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="T42" t="n">
-        <v>633415.98</v>
+        <v>528334.64</v>
       </c>
       <c r="U42" t="n">
-        <v>1352</v>
+        <v>1381</v>
       </c>
       <c r="V42" t="n">
-        <v>40733408.17</v>
+        <v>43178121.18</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>406</v>
+        <v>436</v>
       </c>
       <c r="D43" t="n">
-        <v>3127</v>
+        <v>3078</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>7868649.09</v>
       </c>
       <c r="F43" t="n">
-        <v>5013</v>
+        <v>4915</v>
       </c>
       <c r="G43" t="n">
-        <v>48808909.8</v>
+        <v>58020559.12</v>
       </c>
       <c r="H43" t="n">
-        <v>1450129</v>
+        <v>1314541</v>
       </c>
       <c r="I43" t="n">
-        <v>2633</v>
+        <v>2689</v>
       </c>
       <c r="J43" t="n">
-        <v>6394646.83</v>
+        <v>6449122.89</v>
       </c>
       <c r="K43" t="n">
-        <v>1446</v>
+        <v>1359</v>
       </c>
       <c r="L43" t="n">
-        <v>3879082.44</v>
+        <v>2945070.06</v>
       </c>
       <c r="M43" t="n">
-        <v>840</v>
+        <v>905</v>
       </c>
       <c r="N43" t="n">
-        <v>2102847.62</v>
+        <v>2115821.36</v>
       </c>
       <c r="O43" t="n">
-        <v>1529</v>
+        <v>1599</v>
       </c>
       <c r="P43" t="n">
-        <v>4369770.680000001</v>
+        <v>5060796.92</v>
       </c>
       <c r="Q43" t="n">
-        <v>593</v>
+        <v>613</v>
       </c>
       <c r="R43" t="n">
-        <v>1973424.36</v>
+        <v>2296501.35</v>
       </c>
       <c r="S43" t="n">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="T43" t="n">
-        <v>555135.74</v>
+        <v>691604.65</v>
       </c>
       <c r="U43" t="n">
-        <v>1382</v>
+        <v>1373</v>
       </c>
       <c r="V43" t="n">
-        <v>27975234.63</v>
+        <v>37118843.69</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="D44" t="n">
-        <v>3232</v>
+        <v>3260</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>8684887.08</v>
       </c>
       <c r="F44" t="n">
-        <v>5190</v>
+        <v>5079</v>
       </c>
       <c r="G44" t="n">
-        <v>108233776.14</v>
+        <v>60706390.65</v>
       </c>
       <c r="H44" t="n">
-        <v>1351029</v>
+        <v>1374941</v>
       </c>
       <c r="I44" t="n">
-        <v>2978</v>
+        <v>2762</v>
       </c>
       <c r="J44" t="n">
-        <v>7332714.75</v>
+        <v>6005497.56</v>
       </c>
       <c r="K44" t="n">
-        <v>1434</v>
+        <v>1567</v>
       </c>
       <c r="L44" t="n">
-        <v>3953901.8</v>
+        <v>4041871.38</v>
       </c>
       <c r="M44" t="n">
-        <v>864</v>
+        <v>825</v>
       </c>
       <c r="N44" t="n">
-        <v>2534806.82</v>
+        <v>1933829.4</v>
       </c>
       <c r="O44" t="n">
-        <v>1558</v>
+        <v>1591</v>
       </c>
       <c r="P44" t="n">
-        <v>5474438.59</v>
+        <v>4499424.26</v>
       </c>
       <c r="Q44" t="n">
-        <v>622</v>
+        <v>578</v>
       </c>
       <c r="R44" t="n">
-        <v>2458061.04</v>
+        <v>2019173</v>
       </c>
       <c r="S44" t="n">
-        <v>223</v>
+        <v>269</v>
       </c>
       <c r="T44" t="n">
-        <v>582592.58</v>
+        <v>633415.98</v>
       </c>
       <c r="U44" t="n">
-        <v>1319</v>
+        <v>1352</v>
       </c>
       <c r="V44" t="n">
-        <v>85037260.66</v>
+        <v>40733408.17</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-04-26</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="D45" t="n">
-        <v>3360</v>
+        <v>3127</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>8272329.27</v>
       </c>
       <c r="F45" t="n">
-        <v>5550</v>
+        <v>5013</v>
       </c>
       <c r="G45" t="n">
-        <v>46785359.01</v>
+        <v>48808909.8</v>
       </c>
       <c r="H45" t="n">
-        <v>1285830</v>
+        <v>1450129</v>
       </c>
       <c r="I45" t="n">
-        <v>3600</v>
+        <v>2633</v>
       </c>
       <c r="J45" t="n">
-        <v>8368247.07</v>
+        <v>6394646.83</v>
       </c>
       <c r="K45" t="n">
-        <v>1704</v>
+        <v>1446</v>
       </c>
       <c r="L45" t="n">
-        <v>4624330.84</v>
+        <v>3879082.44</v>
       </c>
       <c r="M45" t="n">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="N45" t="n">
-        <v>2320333.67</v>
+        <v>2102847.62</v>
       </c>
       <c r="O45" t="n">
-        <v>1709</v>
+        <v>1529</v>
       </c>
       <c r="P45" t="n">
-        <v>5902476.35</v>
+        <v>4369770.680000001</v>
       </c>
       <c r="Q45" t="n">
-        <v>662</v>
+        <v>593</v>
       </c>
       <c r="R45" t="n">
-        <v>1961320.11</v>
+        <v>1973424.36</v>
       </c>
       <c r="S45" t="n">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="T45" t="n">
-        <v>695415.38</v>
+        <v>555135.74</v>
       </c>
       <c r="U45" t="n">
-        <v>1517</v>
+        <v>1382</v>
       </c>
       <c r="V45" t="n">
-        <v>22219205.19</v>
+        <v>27975234.63</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="D46" t="n">
-        <v>3295</v>
+        <v>3232</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>9037888.720000001</v>
       </c>
       <c r="F46" t="n">
-        <v>5409</v>
+        <v>5190</v>
       </c>
       <c r="G46" t="n">
-        <v>75055378.37</v>
+        <v>108233776.14</v>
       </c>
       <c r="H46" t="n">
-        <v>1290998</v>
+        <v>1351029</v>
       </c>
       <c r="I46" t="n">
-        <v>3375</v>
+        <v>2978</v>
       </c>
       <c r="J46" t="n">
-        <v>9659510.379999999</v>
+        <v>7332714.75</v>
       </c>
       <c r="K46" t="n">
-        <v>1606</v>
+        <v>1434</v>
       </c>
       <c r="L46" t="n">
-        <v>5032134.04</v>
+        <v>3953901.8</v>
       </c>
       <c r="M46" t="n">
-        <v>852</v>
+        <v>864</v>
       </c>
       <c r="N46" t="n">
-        <v>2800597.96</v>
+        <v>2534806.82</v>
       </c>
       <c r="O46" t="n">
-        <v>1546</v>
+        <v>1558</v>
       </c>
       <c r="P46" t="n">
-        <v>6066965.5</v>
+        <v>5474438.59</v>
       </c>
       <c r="Q46" t="n">
-        <v>595</v>
+        <v>622</v>
       </c>
       <c r="R46" t="n">
-        <v>1714927.12</v>
+        <v>2458061.04</v>
       </c>
       <c r="S46" t="n">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="T46" t="n">
-        <v>901043.52</v>
+        <v>582592.58</v>
       </c>
       <c r="U46" t="n">
-        <v>1367</v>
+        <v>1319</v>
       </c>
       <c r="V46" t="n">
-        <v>48442996.15000001</v>
+        <v>85037260.66</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C47" t="n">
-        <v>322</v>
+        <v>401</v>
       </c>
       <c r="D47" t="n">
-        <v>3145</v>
+        <v>3360</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>8342993.950000001</v>
       </c>
       <c r="F47" t="n">
-        <v>5052</v>
+        <v>5550</v>
       </c>
       <c r="G47" t="n">
-        <v>63121962.7</v>
+        <v>46785359.01</v>
       </c>
       <c r="H47" t="n">
-        <v>1197709</v>
+        <v>1285830</v>
       </c>
       <c r="I47" t="n">
-        <v>2689</v>
+        <v>3600</v>
       </c>
       <c r="J47" t="n">
-        <v>7180364.5</v>
+        <v>8368247.07</v>
       </c>
       <c r="K47" t="n">
-        <v>1577</v>
+        <v>1704</v>
       </c>
       <c r="L47" t="n">
-        <v>4655541.19</v>
+        <v>4624330.84</v>
       </c>
       <c r="M47" t="n">
-        <v>827</v>
+        <v>841</v>
       </c>
       <c r="N47" t="n">
-        <v>1862349.81</v>
+        <v>2320333.67</v>
       </c>
       <c r="O47" t="n">
-        <v>1545</v>
+        <v>1709</v>
       </c>
       <c r="P47" t="n">
-        <v>4004480.01</v>
+        <v>5902476.35</v>
       </c>
       <c r="Q47" t="n">
-        <v>574</v>
+        <v>662</v>
       </c>
       <c r="R47" t="n">
-        <v>2679082.91</v>
+        <v>1961320.11</v>
       </c>
       <c r="S47" t="n">
-        <v>298</v>
+        <v>260</v>
       </c>
       <c r="T47" t="n">
-        <v>926680.67</v>
+        <v>695415.38</v>
       </c>
       <c r="U47" t="n">
-        <v>1425</v>
+        <v>1517</v>
       </c>
       <c r="V47" t="n">
-        <v>40845720.43</v>
+        <v>22219205.19</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C48" t="n">
-        <v>352</v>
+        <v>444</v>
       </c>
       <c r="D48" t="n">
-        <v>3069</v>
+        <v>3295</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>9816691.710000001</v>
       </c>
       <c r="F48" t="n">
-        <v>4971</v>
+        <v>5409</v>
       </c>
       <c r="G48" t="n">
-        <v>63268853.19</v>
+        <v>75055378.37</v>
       </c>
       <c r="H48" t="n">
-        <v>1237451</v>
+        <v>1290998</v>
       </c>
       <c r="I48" t="n">
-        <v>2683</v>
+        <v>3375</v>
       </c>
       <c r="J48" t="n">
-        <v>6062109.31</v>
+        <v>9659510.379999999</v>
       </c>
       <c r="K48" t="n">
-        <v>1610</v>
+        <v>1606</v>
       </c>
       <c r="L48" t="n">
-        <v>4189778.45</v>
+        <v>5032134.04</v>
       </c>
       <c r="M48" t="n">
-        <v>788</v>
+        <v>852</v>
       </c>
       <c r="N48" t="n">
-        <v>1749048.36</v>
+        <v>2800597.96</v>
       </c>
       <c r="O48" t="n">
-        <v>1464</v>
+        <v>1546</v>
       </c>
       <c r="P48" t="n">
-        <v>4254741.33</v>
+        <v>6066965.5</v>
       </c>
       <c r="Q48" t="n">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="R48" t="n">
-        <v>2597890.23</v>
+        <v>1714927.12</v>
       </c>
       <c r="S48" t="n">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="T48" t="n">
-        <v>694063.73</v>
+        <v>901043.52</v>
       </c>
       <c r="U48" t="n">
-        <v>1307</v>
+        <v>1367</v>
       </c>
       <c r="V48" t="n">
-        <v>43369193.88</v>
+        <v>48442996.15000001</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t>2025-04-28</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="n">
+        <v>322</v>
+      </c>
+      <c r="D49" t="n">
+        <v>3145</v>
+      </c>
+      <c r="E49" t="n">
+        <v>9112789.050000001</v>
+      </c>
+      <c r="F49" t="n">
+        <v>5052</v>
+      </c>
+      <c r="G49" t="n">
+        <v>63121962.7</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1197709</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2689</v>
+      </c>
+      <c r="J49" t="n">
+        <v>7180364.5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1577</v>
+      </c>
+      <c r="L49" t="n">
+        <v>4655541.19</v>
+      </c>
+      <c r="M49" t="n">
+        <v>827</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1862349.81</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1545</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4004480.01</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>574</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2679082.91</v>
+      </c>
+      <c r="S49" t="n">
+        <v>298</v>
+      </c>
+      <c r="T49" t="n">
+        <v>926680.67</v>
+      </c>
+      <c r="U49" t="n">
+        <v>1425</v>
+      </c>
+      <c r="V49" t="n">
+        <v>40845720.43</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-04-29</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>2</v>
+      </c>
+      <c r="C50" t="n">
+        <v>352</v>
+      </c>
+      <c r="D50" t="n">
+        <v>3069</v>
+      </c>
+      <c r="E50" t="n">
+        <v>8691423.280000001</v>
+      </c>
+      <c r="F50" t="n">
+        <v>4971</v>
+      </c>
+      <c r="G50" t="n">
+        <v>63268853.19</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1237451</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2683</v>
+      </c>
+      <c r="J50" t="n">
+        <v>6062109.31</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1610</v>
+      </c>
+      <c r="L50" t="n">
+        <v>4189778.45</v>
+      </c>
+      <c r="M50" t="n">
+        <v>788</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1749048.36</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1464</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4254741.33</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>591</v>
+      </c>
+      <c r="R50" t="n">
+        <v>2597890.23</v>
+      </c>
+      <c r="S50" t="n">
+        <v>249</v>
+      </c>
+      <c r="T50" t="n">
+        <v>694063.73</v>
+      </c>
+      <c r="U50" t="n">
+        <v>1307</v>
+      </c>
+      <c r="V50" t="n">
+        <v>43369193.88</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
           <t>2025-04-30</t>
         </is>
       </c>
-      <c r="B49" t="n">
+      <c r="B51" t="n">
         <v>3</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C51" t="n">
         <v>294</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D51" t="n">
         <v>2880</v>
       </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
+      <c r="E51" t="n">
+        <v>7064509.43</v>
+      </c>
+      <c r="F51" t="n">
         <v>4880</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G51" t="n">
         <v>47410985.92</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H51" t="n">
         <v>1265717</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I51" t="n">
         <v>2664</v>
       </c>
-      <c r="J49" t="n">
+      <c r="J51" t="n">
         <v>5331646.86</v>
       </c>
-      <c r="K49" t="n">
+      <c r="K51" t="n">
         <v>1516</v>
       </c>
-      <c r="L49" t="n">
+      <c r="L51" t="n">
         <v>4335508.72</v>
       </c>
-      <c r="M49" t="n">
+      <c r="M51" t="n">
         <v>786</v>
       </c>
-      <c r="N49" t="n">
+      <c r="N51" t="n">
         <v>1874787.82</v>
       </c>
-      <c r="O49" t="n">
+      <c r="O51" t="n">
         <v>1500</v>
       </c>
-      <c r="P49" t="n">
+      <c r="P51" t="n">
         <v>5375700.46</v>
       </c>
-      <c r="Q49" t="n">
+      <c r="Q51" t="n">
         <v>578</v>
       </c>
-      <c r="R49" t="n">
+      <c r="R51" t="n">
         <v>2263138.45</v>
       </c>
-      <c r="S49" t="n">
+      <c r="S51" t="n">
         <v>291</v>
       </c>
-      <c r="T49" t="n">
+      <c r="T51" t="n">
         <v>1034616.43</v>
       </c>
-      <c r="U49" t="n">
+      <c r="U51" t="n">
         <v>1265</v>
       </c>
-      <c r="V49" t="n">
+      <c r="V51" t="n">
         <v>26820105.58000001</v>
       </c>
     </row>

--- a/3_分析/2_摩根-好博数据分析/好博体育/平台数据/平台数据.xlsx
+++ b/3_分析/2_摩根-好博数据分析/好博体育/平台数据/平台数据.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V51"/>
+  <dimension ref="A1:V52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1894,19 +1894,19 @@
         <v>10003597.69</v>
       </c>
       <c r="F21" t="n">
-        <v>4778</v>
+        <v>4777</v>
       </c>
       <c r="G21" t="n">
-        <v>51635191.57000001</v>
+        <v>51658702.66</v>
       </c>
       <c r="H21" t="n">
-        <v>1233064</v>
+        <v>1233109</v>
       </c>
       <c r="I21" t="n">
         <v>2451</v>
       </c>
       <c r="J21" t="n">
-        <v>6798352.28</v>
+        <v>6798440.28</v>
       </c>
       <c r="K21" t="n">
         <v>1260</v>
@@ -1915,10 +1915,10 @@
         <v>3785148.91</v>
       </c>
       <c r="M21" t="n">
-        <v>830</v>
+        <v>837</v>
       </c>
       <c r="N21" t="n">
-        <v>2254286.96</v>
+        <v>2279865.44</v>
       </c>
       <c r="O21" t="n">
         <v>1494</v>
@@ -1948,2100 +1948,2170 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" t="n">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="D22" t="n">
-        <v>2967</v>
+        <v>3105</v>
       </c>
       <c r="E22" t="n">
-        <v>8745061.789999999</v>
+        <v>9806277.16</v>
       </c>
       <c r="F22" t="n">
-        <v>4597</v>
+        <v>5053</v>
       </c>
       <c r="G22" t="n">
-        <v>37785041.94</v>
+        <v>44406320.73</v>
       </c>
       <c r="H22" t="n">
-        <v>1455879</v>
+        <v>1353712</v>
       </c>
       <c r="I22" t="n">
-        <v>2370</v>
+        <v>2724</v>
       </c>
       <c r="J22" t="n">
-        <v>5538221.63</v>
+        <v>8625527.810000001</v>
       </c>
       <c r="K22" t="n">
-        <v>1328</v>
+        <v>1344</v>
       </c>
       <c r="L22" t="n">
-        <v>3412998.73</v>
+        <v>4204143.08</v>
       </c>
       <c r="M22" t="n">
-        <v>644</v>
+        <v>919</v>
       </c>
       <c r="N22" t="n">
-        <v>1383137.78</v>
+        <v>2682192.42</v>
       </c>
       <c r="O22" t="n">
-        <v>1679</v>
+        <v>1571</v>
       </c>
       <c r="P22" t="n">
-        <v>4161886.08</v>
+        <v>5246477.88</v>
       </c>
       <c r="Q22" t="n">
-        <v>547</v>
+        <v>612</v>
       </c>
       <c r="R22" t="n">
-        <v>1902132.05</v>
+        <v>1694532.78</v>
       </c>
       <c r="S22" t="n">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="T22" t="n">
-        <v>644964.6</v>
+        <v>734557.45</v>
       </c>
       <c r="U22" t="n">
-        <v>1275</v>
+        <v>1260</v>
       </c>
       <c r="V22" t="n">
-        <v>20088856.17</v>
+        <v>20829568.91</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>453</v>
+        <v>341</v>
       </c>
       <c r="D23" t="n">
-        <v>2979</v>
+        <v>2967</v>
       </c>
       <c r="E23" t="n">
-        <v>8614113.84</v>
+        <v>8745061.789999999</v>
       </c>
       <c r="F23" t="n">
-        <v>4721</v>
+        <v>4597</v>
       </c>
       <c r="G23" t="n">
-        <v>50662133.8</v>
+        <v>37785041.94</v>
       </c>
       <c r="H23" t="n">
-        <v>1434491</v>
+        <v>1455879</v>
       </c>
       <c r="I23" t="n">
-        <v>2639</v>
+        <v>2370</v>
       </c>
       <c r="J23" t="n">
-        <v>8064759.029999999</v>
+        <v>5538221.63</v>
       </c>
       <c r="K23" t="n">
-        <v>1239</v>
+        <v>1328</v>
       </c>
       <c r="L23" t="n">
-        <v>3294313.16</v>
+        <v>3412998.73</v>
       </c>
       <c r="M23" t="n">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="N23" t="n">
-        <v>1311906.3</v>
+        <v>1383137.78</v>
       </c>
       <c r="O23" t="n">
-        <v>1670</v>
+        <v>1679</v>
       </c>
       <c r="P23" t="n">
-        <v>3852527.03</v>
+        <v>4161886.08</v>
       </c>
       <c r="Q23" t="n">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="R23" t="n">
-        <v>1294490.98</v>
+        <v>1902132.05</v>
       </c>
       <c r="S23" t="n">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="T23" t="n">
-        <v>542360.6</v>
+        <v>644964.6</v>
       </c>
       <c r="U23" t="n">
-        <v>1197</v>
+        <v>1275</v>
       </c>
       <c r="V23" t="n">
-        <v>31862106.4</v>
+        <v>20088856.17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>350</v>
+        <v>453</v>
       </c>
       <c r="D24" t="n">
-        <v>2804</v>
+        <v>2979</v>
       </c>
       <c r="E24" t="n">
-        <v>6972978.1</v>
+        <v>8614113.84</v>
       </c>
       <c r="F24" t="n">
-        <v>4581</v>
+        <v>4721</v>
       </c>
       <c r="G24" t="n">
-        <v>48182983.93</v>
+        <v>50662133.8</v>
       </c>
       <c r="H24" t="n">
-        <v>1464026</v>
+        <v>1434491</v>
       </c>
       <c r="I24" t="n">
-        <v>2376</v>
+        <v>2639</v>
       </c>
       <c r="J24" t="n">
-        <v>6208711.97</v>
+        <v>8064759.029999999</v>
       </c>
       <c r="K24" t="n">
-        <v>1267</v>
+        <v>1239</v>
       </c>
       <c r="L24" t="n">
-        <v>3412022.75</v>
+        <v>3294313.16</v>
       </c>
       <c r="M24" t="n">
-        <v>676</v>
+        <v>650</v>
       </c>
       <c r="N24" t="n">
-        <v>1491987.35</v>
+        <v>1311906.3</v>
       </c>
       <c r="O24" t="n">
-        <v>1652</v>
+        <v>1670</v>
       </c>
       <c r="P24" t="n">
-        <v>4984581.39</v>
+        <v>3852527.03</v>
       </c>
       <c r="Q24" t="n">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="R24" t="n">
-        <v>1445159.79</v>
+        <v>1294490.98</v>
       </c>
       <c r="S24" t="n">
-        <v>325</v>
+        <v>288</v>
       </c>
       <c r="T24" t="n">
-        <v>714032.65</v>
+        <v>542360.6</v>
       </c>
       <c r="U24" t="n">
-        <v>1156</v>
+        <v>1197</v>
       </c>
       <c r="V24" t="n">
-        <v>29024400.73</v>
+        <v>31862106.4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D25" t="n">
-        <v>2622</v>
+        <v>2804</v>
       </c>
       <c r="E25" t="n">
-        <v>8003215.4</v>
+        <v>6972978.1</v>
       </c>
       <c r="F25" t="n">
-        <v>4368</v>
+        <v>4581</v>
       </c>
       <c r="G25" t="n">
-        <v>49085188.82</v>
+        <v>48182983.93</v>
       </c>
       <c r="H25" t="n">
-        <v>1302873</v>
+        <v>1464026</v>
       </c>
       <c r="I25" t="n">
-        <v>2189</v>
+        <v>2376</v>
       </c>
       <c r="J25" t="n">
-        <v>5747500.75</v>
+        <v>6208711.97</v>
       </c>
       <c r="K25" t="n">
-        <v>1381</v>
+        <v>1267</v>
       </c>
       <c r="L25" t="n">
-        <v>4657369.89</v>
+        <v>3412022.75</v>
       </c>
       <c r="M25" t="n">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="N25" t="n">
-        <v>1400731.94</v>
+        <v>1491987.35</v>
       </c>
       <c r="O25" t="n">
-        <v>1517</v>
+        <v>1652</v>
       </c>
       <c r="P25" t="n">
-        <v>3839850.69</v>
+        <v>4984581.39</v>
       </c>
       <c r="Q25" t="n">
-        <v>496</v>
+        <v>527</v>
       </c>
       <c r="R25" t="n">
-        <v>1400840.76</v>
+        <v>1445159.79</v>
       </c>
       <c r="S25" t="n">
-        <v>278</v>
+        <v>325</v>
       </c>
       <c r="T25" t="n">
-        <v>553525.36</v>
+        <v>714032.65</v>
       </c>
       <c r="U25" t="n">
-        <v>1106</v>
+        <v>1156</v>
       </c>
       <c r="V25" t="n">
-        <v>28790633.23</v>
+        <v>29024400.73</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>432</v>
+        <v>349</v>
       </c>
       <c r="D26" t="n">
-        <v>3031</v>
+        <v>2622</v>
       </c>
       <c r="E26" t="n">
-        <v>9944754.640000001</v>
+        <v>8003215.4</v>
       </c>
       <c r="F26" t="n">
-        <v>4939</v>
+        <v>4368</v>
       </c>
       <c r="G26" t="n">
-        <v>47055569.84</v>
+        <v>49085188.82</v>
       </c>
       <c r="H26" t="n">
-        <v>1310257</v>
+        <v>1302873</v>
       </c>
       <c r="I26" t="n">
-        <v>3221</v>
+        <v>2189</v>
       </c>
       <c r="J26" t="n">
-        <v>11710552.69</v>
+        <v>5747500.75</v>
       </c>
       <c r="K26" t="n">
-        <v>1421</v>
+        <v>1381</v>
       </c>
       <c r="L26" t="n">
-        <v>4480025.2</v>
+        <v>4657369.89</v>
       </c>
       <c r="M26" t="n">
-        <v>714</v>
+        <v>664</v>
       </c>
       <c r="N26" t="n">
-        <v>2079972.81</v>
+        <v>1400731.94</v>
       </c>
       <c r="O26" t="n">
-        <v>1727</v>
+        <v>1517</v>
       </c>
       <c r="P26" t="n">
-        <v>3810342.77</v>
+        <v>3839850.69</v>
       </c>
       <c r="Q26" t="n">
-        <v>554</v>
+        <v>496</v>
       </c>
       <c r="R26" t="n">
-        <v>1459258.66</v>
+        <v>1400840.76</v>
       </c>
       <c r="S26" t="n">
-        <v>345</v>
+        <v>278</v>
       </c>
       <c r="T26" t="n">
-        <v>523649.86</v>
+        <v>553525.36</v>
       </c>
       <c r="U26" t="n">
-        <v>1307</v>
+        <v>1106</v>
       </c>
       <c r="V26" t="n">
-        <v>21457800.95</v>
+        <v>28790633.23</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27" t="n">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="D27" t="n">
-        <v>2901</v>
+        <v>3031</v>
       </c>
       <c r="E27" t="n">
-        <v>8702542.48</v>
+        <v>9944754.640000001</v>
       </c>
       <c r="F27" t="n">
-        <v>4863</v>
+        <v>4939</v>
       </c>
       <c r="G27" t="n">
-        <v>67999768.01000001</v>
+        <v>47055569.84</v>
       </c>
       <c r="H27" t="n">
-        <v>1273026</v>
+        <v>1310257</v>
       </c>
       <c r="I27" t="n">
-        <v>3028</v>
+        <v>3221</v>
       </c>
       <c r="J27" t="n">
-        <v>12217412.29</v>
+        <v>11710552.69</v>
       </c>
       <c r="K27" t="n">
-        <v>1184</v>
+        <v>1421</v>
       </c>
       <c r="L27" t="n">
-        <v>3980025.48</v>
+        <v>4480025.2</v>
       </c>
       <c r="M27" t="n">
-        <v>772</v>
+        <v>714</v>
       </c>
       <c r="N27" t="n">
-        <v>2273411.53</v>
+        <v>2079972.81</v>
       </c>
       <c r="O27" t="n">
-        <v>1608</v>
+        <v>1727</v>
       </c>
       <c r="P27" t="n">
-        <v>4079216.52</v>
+        <v>3810342.77</v>
       </c>
       <c r="Q27" t="n">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="R27" t="n">
-        <v>1371808.85</v>
+        <v>1459258.66</v>
       </c>
       <c r="S27" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="T27" t="n">
-        <v>448603.43</v>
+        <v>523649.86</v>
       </c>
       <c r="U27" t="n">
-        <v>1239</v>
+        <v>1307</v>
       </c>
       <c r="V27" t="n">
-        <v>42554761.41</v>
+        <v>21457800.95</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C28" t="n">
-        <v>381</v>
+        <v>439</v>
       </c>
       <c r="D28" t="n">
-        <v>2855</v>
+        <v>2901</v>
       </c>
       <c r="E28" t="n">
-        <v>9948340.49</v>
+        <v>8702542.48</v>
       </c>
       <c r="F28" t="n">
-        <v>4754</v>
+        <v>4863</v>
       </c>
       <c r="G28" t="n">
-        <v>40252204.51</v>
+        <v>67999768.01000001</v>
       </c>
       <c r="H28" t="n">
-        <v>1344341</v>
+        <v>1273026</v>
       </c>
       <c r="I28" t="n">
-        <v>2413</v>
+        <v>3028</v>
       </c>
       <c r="J28" t="n">
-        <v>7395276.14</v>
+        <v>12217412.29</v>
       </c>
       <c r="K28" t="n">
-        <v>1313</v>
+        <v>1184</v>
       </c>
       <c r="L28" t="n">
-        <v>3650375.36</v>
+        <v>3980025.48</v>
       </c>
       <c r="M28" t="n">
-        <v>891</v>
+        <v>772</v>
       </c>
       <c r="N28" t="n">
-        <v>2472368.05</v>
+        <v>2273411.53</v>
       </c>
       <c r="O28" t="n">
-        <v>1551</v>
+        <v>1608</v>
       </c>
       <c r="P28" t="n">
-        <v>5086127.66</v>
+        <v>4079216.52</v>
       </c>
       <c r="Q28" t="n">
-        <v>612</v>
+        <v>555</v>
       </c>
       <c r="R28" t="n">
-        <v>1324660.61</v>
+        <v>1371808.85</v>
       </c>
       <c r="S28" t="n">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="T28" t="n">
-        <v>386321.07</v>
+        <v>448603.43</v>
       </c>
       <c r="U28" t="n">
-        <v>1342</v>
+        <v>1239</v>
       </c>
       <c r="V28" t="n">
-        <v>19650527.92</v>
+        <v>42554761.41</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D29" t="n">
-        <v>2853</v>
+        <v>2855</v>
       </c>
       <c r="E29" t="n">
-        <v>8306694.470000001</v>
+        <v>9948340.49</v>
       </c>
       <c r="F29" t="n">
-        <v>4641</v>
+        <v>4754</v>
       </c>
       <c r="G29" t="n">
-        <v>44775426.43</v>
+        <v>40252204.51</v>
       </c>
       <c r="H29" t="n">
-        <v>1371233</v>
+        <v>1344341</v>
       </c>
       <c r="I29" t="n">
-        <v>2441</v>
+        <v>2413</v>
       </c>
       <c r="J29" t="n">
-        <v>7056765.74</v>
+        <v>7395276.14</v>
       </c>
       <c r="K29" t="n">
-        <v>1220</v>
+        <v>1313</v>
       </c>
       <c r="L29" t="n">
-        <v>3209716.69</v>
+        <v>3650375.36</v>
       </c>
       <c r="M29" t="n">
-        <v>821</v>
+        <v>891</v>
       </c>
       <c r="N29" t="n">
-        <v>2200379.07</v>
+        <v>2472368.05</v>
       </c>
       <c r="O29" t="n">
-        <v>1534</v>
+        <v>1551</v>
       </c>
       <c r="P29" t="n">
-        <v>4173764.55</v>
+        <v>5086127.66</v>
       </c>
       <c r="Q29" t="n">
-        <v>591</v>
+        <v>612</v>
       </c>
       <c r="R29" t="n">
-        <v>1257066.18</v>
+        <v>1324660.61</v>
       </c>
       <c r="S29" t="n">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="T29" t="n">
-        <v>551972.4300000001</v>
+        <v>386321.07</v>
       </c>
       <c r="U29" t="n">
-        <v>1281</v>
+        <v>1342</v>
       </c>
       <c r="V29" t="n">
-        <v>26181709.67</v>
+        <v>19650527.92</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>418</v>
+        <v>384</v>
       </c>
       <c r="D30" t="n">
-        <v>2958</v>
+        <v>2853</v>
       </c>
       <c r="E30" t="n">
-        <v>9106641.82</v>
+        <v>8306694.470000001</v>
       </c>
       <c r="F30" t="n">
-        <v>4700</v>
+        <v>4641</v>
       </c>
       <c r="G30" t="n">
-        <v>43788898.11</v>
+        <v>44775426.43</v>
       </c>
       <c r="H30" t="n">
-        <v>1256021</v>
+        <v>1371233</v>
       </c>
       <c r="I30" t="n">
-        <v>2738</v>
+        <v>2441</v>
       </c>
       <c r="J30" t="n">
-        <v>8988132.08</v>
+        <v>7056765.74</v>
       </c>
       <c r="K30" t="n">
-        <v>1273</v>
+        <v>1220</v>
       </c>
       <c r="L30" t="n">
-        <v>3726411.11</v>
+        <v>3209716.69</v>
       </c>
       <c r="M30" t="n">
-        <v>792</v>
+        <v>821</v>
       </c>
       <c r="N30" t="n">
-        <v>2017665.9</v>
+        <v>2200379.07</v>
       </c>
       <c r="O30" t="n">
-        <v>1493</v>
+        <v>1534</v>
       </c>
       <c r="P30" t="n">
-        <v>4405449.14</v>
+        <v>4173764.55</v>
       </c>
       <c r="Q30" t="n">
-        <v>536</v>
+        <v>591</v>
       </c>
       <c r="R30" t="n">
-        <v>1219392.84</v>
+        <v>1257066.18</v>
       </c>
       <c r="S30" t="n">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="T30" t="n">
-        <v>512824.43</v>
+        <v>551972.4300000001</v>
       </c>
       <c r="U30" t="n">
-        <v>1227</v>
+        <v>1281</v>
       </c>
       <c r="V30" t="n">
-        <v>22628313.81</v>
+        <v>26181709.67</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C31" t="n">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="D31" t="n">
-        <v>2918</v>
+        <v>2958</v>
       </c>
       <c r="E31" t="n">
-        <v>7740950.439999999</v>
+        <v>9106641.82</v>
       </c>
       <c r="F31" t="n">
-        <v>4751</v>
+        <v>4700</v>
       </c>
       <c r="G31" t="n">
-        <v>35176842.38</v>
+        <v>43788898.11</v>
       </c>
       <c r="H31" t="n">
-        <v>1439707</v>
+        <v>1256021</v>
       </c>
       <c r="I31" t="n">
-        <v>2485</v>
+        <v>2738</v>
       </c>
       <c r="J31" t="n">
-        <v>7954252.75</v>
+        <v>8988132.08</v>
       </c>
       <c r="K31" t="n">
-        <v>1413</v>
+        <v>1273</v>
       </c>
       <c r="L31" t="n">
-        <v>4099669.29</v>
+        <v>3726411.11</v>
       </c>
       <c r="M31" t="n">
-        <v>871</v>
+        <v>792</v>
       </c>
       <c r="N31" t="n">
-        <v>1994841.02</v>
+        <v>2017665.9</v>
       </c>
       <c r="O31" t="n">
-        <v>1599</v>
+        <v>1493</v>
       </c>
       <c r="P31" t="n">
-        <v>4765252.66</v>
+        <v>4405449.14</v>
       </c>
       <c r="Q31" t="n">
-        <v>564</v>
+        <v>536</v>
       </c>
       <c r="R31" t="n">
-        <v>1354783.86</v>
+        <v>1219392.84</v>
       </c>
       <c r="S31" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="T31" t="n">
-        <v>598896.66</v>
+        <v>512824.43</v>
       </c>
       <c r="U31" t="n">
-        <v>1292</v>
+        <v>1227</v>
       </c>
       <c r="V31" t="n">
-        <v>14255459.14</v>
+        <v>22628313.81</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C32" t="n">
-        <v>426</v>
+        <v>403</v>
       </c>
       <c r="D32" t="n">
-        <v>3036</v>
+        <v>2918</v>
       </c>
       <c r="E32" t="n">
-        <v>8909226.42</v>
+        <v>7740950.439999999</v>
       </c>
       <c r="F32" t="n">
-        <v>4713</v>
+        <v>4751</v>
       </c>
       <c r="G32" t="n">
-        <v>42250635.16</v>
+        <v>35176842.38</v>
       </c>
       <c r="H32" t="n">
-        <v>1456140</v>
+        <v>1439707</v>
       </c>
       <c r="I32" t="n">
-        <v>2627</v>
+        <v>2485</v>
       </c>
       <c r="J32" t="n">
-        <v>8463726.210000001</v>
+        <v>7954252.75</v>
       </c>
       <c r="K32" t="n">
-        <v>1376</v>
+        <v>1413</v>
       </c>
       <c r="L32" t="n">
-        <v>4034655.15</v>
+        <v>4099669.29</v>
       </c>
       <c r="M32" t="n">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="N32" t="n">
-        <v>2437635.22</v>
+        <v>1994841.02</v>
       </c>
       <c r="O32" t="n">
-        <v>1547</v>
+        <v>1599</v>
       </c>
       <c r="P32" t="n">
-        <v>4493126.310000001</v>
+        <v>4765252.66</v>
       </c>
       <c r="Q32" t="n">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="R32" t="n">
-        <v>1250653.53</v>
+        <v>1354783.86</v>
       </c>
       <c r="S32" t="n">
-        <v>268</v>
+        <v>321</v>
       </c>
       <c r="T32" t="n">
-        <v>513404.86</v>
+        <v>598896.66</v>
       </c>
       <c r="U32" t="n">
-        <v>1222</v>
+        <v>1292</v>
       </c>
       <c r="V32" t="n">
-        <v>20868985.18</v>
+        <v>14255459.14</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33" t="n">
-        <v>456</v>
+        <v>426</v>
       </c>
       <c r="D33" t="n">
-        <v>3163</v>
+        <v>3036</v>
       </c>
       <c r="E33" t="n">
-        <v>9096263.450000001</v>
+        <v>8909226.42</v>
       </c>
       <c r="F33" t="n">
-        <v>5174</v>
+        <v>4713</v>
       </c>
       <c r="G33" t="n">
-        <v>42345411.16</v>
+        <v>42250635.16</v>
       </c>
       <c r="H33" t="n">
-        <v>1408519</v>
+        <v>1456140</v>
       </c>
       <c r="I33" t="n">
-        <v>3514</v>
+        <v>2627</v>
       </c>
       <c r="J33" t="n">
-        <v>12940787.25</v>
+        <v>8463726.210000001</v>
       </c>
       <c r="K33" t="n">
-        <v>1443</v>
+        <v>1376</v>
       </c>
       <c r="L33" t="n">
-        <v>4423044.46</v>
+        <v>4034655.15</v>
       </c>
       <c r="M33" t="n">
-        <v>845</v>
+        <v>881</v>
       </c>
       <c r="N33" t="n">
-        <v>2517061.15</v>
+        <v>2437635.22</v>
       </c>
       <c r="O33" t="n">
-        <v>1725</v>
+        <v>1547</v>
       </c>
       <c r="P33" t="n">
-        <v>3795563.26</v>
+        <v>4493126.310000001</v>
       </c>
       <c r="Q33" t="n">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="R33" t="n">
-        <v>1211529.96</v>
+        <v>1250653.53</v>
       </c>
       <c r="S33" t="n">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="T33" t="n">
-        <v>470267.77</v>
+        <v>513404.86</v>
       </c>
       <c r="U33" t="n">
-        <v>1352</v>
+        <v>1222</v>
       </c>
       <c r="V33" t="n">
-        <v>16929838.51</v>
+        <v>20868985.18</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C34" t="n">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="D34" t="n">
-        <v>3117</v>
+        <v>3163</v>
       </c>
       <c r="E34" t="n">
-        <v>9290678.15</v>
+        <v>9096263.450000001</v>
       </c>
       <c r="F34" t="n">
-        <v>4979</v>
+        <v>5174</v>
       </c>
       <c r="G34" t="n">
-        <v>39495074.87</v>
+        <v>42345411.16</v>
       </c>
       <c r="H34" t="n">
-        <v>1296083</v>
+        <v>1408519</v>
       </c>
       <c r="I34" t="n">
-        <v>3096</v>
+        <v>3514</v>
       </c>
       <c r="J34" t="n">
-        <v>10439914.2</v>
+        <v>12940787.25</v>
       </c>
       <c r="K34" t="n">
-        <v>1007</v>
+        <v>1443</v>
       </c>
       <c r="L34" t="n">
-        <v>2773273.78</v>
+        <v>4423044.46</v>
       </c>
       <c r="M34" t="n">
-        <v>794</v>
+        <v>845</v>
       </c>
       <c r="N34" t="n">
-        <v>2617961.23</v>
+        <v>2517061.15</v>
       </c>
       <c r="O34" t="n">
-        <v>1645</v>
+        <v>1725</v>
       </c>
       <c r="P34" t="n">
-        <v>4424816.97</v>
+        <v>3795563.26</v>
       </c>
       <c r="Q34" t="n">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="R34" t="n">
-        <v>1433265.22</v>
+        <v>1211529.96</v>
       </c>
       <c r="S34" t="n">
-        <v>238</v>
+        <v>289</v>
       </c>
       <c r="T34" t="n">
-        <v>429606.96</v>
+        <v>470267.77</v>
       </c>
       <c r="U34" t="n">
-        <v>1162</v>
+        <v>1352</v>
       </c>
       <c r="V34" t="n">
-        <v>16944516.11</v>
+        <v>16929838.51</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C35" t="n">
-        <v>376</v>
+        <v>452</v>
       </c>
       <c r="D35" t="n">
-        <v>2859</v>
+        <v>3117</v>
       </c>
       <c r="E35" t="n">
-        <v>8379346.359999999</v>
+        <v>9290678.15</v>
       </c>
       <c r="F35" t="n">
-        <v>4737</v>
+        <v>4979</v>
       </c>
       <c r="G35" t="n">
-        <v>41538214.86</v>
+        <v>39495074.87</v>
       </c>
       <c r="H35" t="n">
-        <v>1389235</v>
+        <v>1296083</v>
       </c>
       <c r="I35" t="n">
-        <v>2602</v>
+        <v>3096</v>
       </c>
       <c r="J35" t="n">
-        <v>7587476.4</v>
+        <v>10439914.2</v>
       </c>
       <c r="K35" t="n">
-        <v>1246</v>
+        <v>1007</v>
       </c>
       <c r="L35" t="n">
-        <v>3597073.21</v>
+        <v>2773273.78</v>
       </c>
       <c r="M35" t="n">
-        <v>809</v>
+        <v>794</v>
       </c>
       <c r="N35" t="n">
-        <v>2249014.13</v>
+        <v>2617961.23</v>
       </c>
       <c r="O35" t="n">
-        <v>1546</v>
+        <v>1645</v>
       </c>
       <c r="P35" t="n">
-        <v>5921735.439999999</v>
+        <v>4424816.97</v>
       </c>
       <c r="Q35" t="n">
-        <v>520</v>
+        <v>596</v>
       </c>
       <c r="R35" t="n">
-        <v>1855070.54</v>
+        <v>1433265.22</v>
       </c>
       <c r="S35" t="n">
-        <v>300</v>
+        <v>238</v>
       </c>
       <c r="T35" t="n">
-        <v>609520.0600000001</v>
+        <v>429606.96</v>
       </c>
       <c r="U35" t="n">
-        <v>1309</v>
+        <v>1162</v>
       </c>
       <c r="V35" t="n">
-        <v>18898098.28</v>
+        <v>16944516.11</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D36" t="n">
-        <v>2832</v>
+        <v>2859</v>
       </c>
       <c r="E36" t="n">
-        <v>7319298.699999999</v>
+        <v>8379346.359999999</v>
       </c>
       <c r="F36" t="n">
-        <v>4704</v>
+        <v>4737</v>
       </c>
       <c r="G36" t="n">
-        <v>42454169.55</v>
+        <v>41538214.86</v>
       </c>
       <c r="H36" t="n">
-        <v>1296726</v>
+        <v>1389235</v>
       </c>
       <c r="I36" t="n">
-        <v>2642</v>
+        <v>2602</v>
       </c>
       <c r="J36" t="n">
-        <v>7308377.16</v>
+        <v>7587476.4</v>
       </c>
       <c r="K36" t="n">
-        <v>1015</v>
+        <v>1246</v>
       </c>
       <c r="L36" t="n">
-        <v>2703408.52</v>
+        <v>3597073.21</v>
       </c>
       <c r="M36" t="n">
-        <v>778</v>
+        <v>809</v>
       </c>
       <c r="N36" t="n">
-        <v>1615850.74</v>
+        <v>2249014.13</v>
       </c>
       <c r="O36" t="n">
-        <v>1536</v>
+        <v>1546</v>
       </c>
       <c r="P36" t="n">
-        <v>3566320.66</v>
+        <v>5921735.439999999</v>
       </c>
       <c r="Q36" t="n">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="R36" t="n">
-        <v>3003927.74</v>
+        <v>1855070.54</v>
       </c>
       <c r="S36" t="n">
-        <v>251</v>
+        <v>300</v>
       </c>
       <c r="T36" t="n">
-        <v>567425.1899999999</v>
+        <v>609520.0600000001</v>
       </c>
       <c r="U36" t="n">
-        <v>1238</v>
+        <v>1309</v>
       </c>
       <c r="V36" t="n">
-        <v>22967413.64</v>
+        <v>18898098.28</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37" t="n">
-        <v>416</v>
+        <v>379</v>
       </c>
       <c r="D37" t="n">
-        <v>3074</v>
+        <v>2832</v>
       </c>
       <c r="E37" t="n">
-        <v>9934980.559999999</v>
+        <v>7319298.699999999</v>
       </c>
       <c r="F37" t="n">
-        <v>4976</v>
+        <v>4704</v>
       </c>
       <c r="G37" t="n">
-        <v>51688211.24</v>
+        <v>42454169.55</v>
       </c>
       <c r="H37" t="n">
-        <v>1407966</v>
+        <v>1296726</v>
       </c>
       <c r="I37" t="n">
-        <v>2817</v>
+        <v>2642</v>
       </c>
       <c r="J37" t="n">
-        <v>8033459.41</v>
+        <v>7308377.16</v>
       </c>
       <c r="K37" t="n">
-        <v>1468</v>
+        <v>1015</v>
       </c>
       <c r="L37" t="n">
-        <v>4049942.55</v>
+        <v>2703408.52</v>
       </c>
       <c r="M37" t="n">
-        <v>816</v>
+        <v>778</v>
       </c>
       <c r="N37" t="n">
-        <v>2021429.23</v>
+        <v>1615850.74</v>
       </c>
       <c r="O37" t="n">
-        <v>1635</v>
+        <v>1536</v>
       </c>
       <c r="P37" t="n">
-        <v>4675228.27</v>
+        <v>3566320.66</v>
       </c>
       <c r="Q37" t="n">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="R37" t="n">
-        <v>3128824.35</v>
+        <v>3003927.74</v>
       </c>
       <c r="S37" t="n">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="T37" t="n">
-        <v>615731.21</v>
+        <v>567425.1899999999</v>
       </c>
       <c r="U37" t="n">
-        <v>1286</v>
+        <v>1238</v>
       </c>
       <c r="V37" t="n">
-        <v>28256868.32</v>
+        <v>22967413.64</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C38" t="n">
-        <v>374</v>
+        <v>416</v>
       </c>
       <c r="D38" t="n">
-        <v>2962</v>
+        <v>3074</v>
       </c>
       <c r="E38" t="n">
-        <v>8037552.939999999</v>
+        <v>9934980.559999999</v>
       </c>
       <c r="F38" t="n">
-        <v>4865</v>
+        <v>4976</v>
       </c>
       <c r="G38" t="n">
-        <v>47443009.66</v>
+        <v>51688211.24</v>
       </c>
       <c r="H38" t="n">
-        <v>1370631</v>
+        <v>1407966</v>
       </c>
       <c r="I38" t="n">
-        <v>2696</v>
+        <v>2817</v>
       </c>
       <c r="J38" t="n">
-        <v>8495590.439999999</v>
+        <v>8033459.41</v>
       </c>
       <c r="K38" t="n">
-        <v>1333</v>
+        <v>1468</v>
       </c>
       <c r="L38" t="n">
-        <v>3663887.99</v>
+        <v>4049942.55</v>
       </c>
       <c r="M38" t="n">
-        <v>835</v>
+        <v>816</v>
       </c>
       <c r="N38" t="n">
-        <v>2022285.91</v>
+        <v>2021429.23</v>
       </c>
       <c r="O38" t="n">
-        <v>1610</v>
+        <v>1635</v>
       </c>
       <c r="P38" t="n">
-        <v>3987230.38</v>
+        <v>4675228.27</v>
       </c>
       <c r="Q38" t="n">
         <v>534</v>
       </c>
       <c r="R38" t="n">
-        <v>2377786.26</v>
+        <v>3128824.35</v>
       </c>
       <c r="S38" t="n">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="T38" t="n">
-        <v>580577.76</v>
+        <v>615731.21</v>
       </c>
       <c r="U38" t="n">
-        <v>1233</v>
+        <v>1286</v>
       </c>
       <c r="V38" t="n">
-        <v>25124492.22</v>
+        <v>28256868.32</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C39" t="n">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="D39" t="n">
-        <v>3060</v>
+        <v>2962</v>
       </c>
       <c r="E39" t="n">
-        <v>7786716.59</v>
+        <v>8037552.939999999</v>
       </c>
       <c r="F39" t="n">
-        <v>4971</v>
+        <v>4865</v>
       </c>
       <c r="G39" t="n">
-        <v>63104551.11</v>
+        <v>47443009.66</v>
       </c>
       <c r="H39" t="n">
-        <v>1365425</v>
+        <v>1370631</v>
       </c>
       <c r="I39" t="n">
-        <v>2863</v>
+        <v>2696</v>
       </c>
       <c r="J39" t="n">
-        <v>10340536.11</v>
+        <v>8495590.439999999</v>
       </c>
       <c r="K39" t="n">
-        <v>900</v>
+        <v>1333</v>
       </c>
       <c r="L39" t="n">
-        <v>2068150.43</v>
+        <v>3663887.99</v>
       </c>
       <c r="M39" t="n">
-        <v>788</v>
+        <v>835</v>
       </c>
       <c r="N39" t="n">
-        <v>2257059.76</v>
+        <v>2022285.91</v>
       </c>
       <c r="O39" t="n">
-        <v>1574</v>
+        <v>1610</v>
       </c>
       <c r="P39" t="n">
-        <v>6498198.09</v>
+        <v>3987230.38</v>
       </c>
       <c r="Q39" t="n">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="R39" t="n">
-        <v>1835230.92</v>
+        <v>2377786.26</v>
       </c>
       <c r="S39" t="n">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="T39" t="n">
-        <v>572338.59</v>
+        <v>580577.76</v>
       </c>
       <c r="U39" t="n">
-        <v>1311</v>
+        <v>1233</v>
       </c>
       <c r="V39" t="n">
-        <v>39325091.11</v>
+        <v>25124492.22</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C40" t="n">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="D40" t="n">
-        <v>3034</v>
+        <v>3060</v>
       </c>
       <c r="E40" t="n">
-        <v>11834332.58</v>
+        <v>7786716.59</v>
       </c>
       <c r="F40" t="n">
-        <v>5165</v>
+        <v>4971</v>
       </c>
       <c r="G40" t="n">
-        <v>84186793.55</v>
+        <v>63104551.11</v>
       </c>
       <c r="H40" t="n">
-        <v>1327567</v>
+        <v>1365425</v>
       </c>
       <c r="I40" t="n">
-        <v>3514</v>
+        <v>2863</v>
       </c>
       <c r="J40" t="n">
-        <v>13228899.27</v>
+        <v>10340536.11</v>
       </c>
       <c r="K40" t="n">
-        <v>1356</v>
+        <v>900</v>
       </c>
       <c r="L40" t="n">
-        <v>3849636.1</v>
+        <v>2068150.43</v>
       </c>
       <c r="M40" t="n">
-        <v>835</v>
+        <v>788</v>
       </c>
       <c r="N40" t="n">
-        <v>2344933.95</v>
+        <v>2257059.76</v>
       </c>
       <c r="O40" t="n">
-        <v>1681</v>
+        <v>1574</v>
       </c>
       <c r="P40" t="n">
-        <v>6324413.82</v>
+        <v>6498198.09</v>
       </c>
       <c r="Q40" t="n">
-        <v>572</v>
+        <v>530</v>
       </c>
       <c r="R40" t="n">
-        <v>1860081.16</v>
+        <v>1835230.92</v>
       </c>
       <c r="S40" t="n">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="T40" t="n">
-        <v>506666.89</v>
+        <v>572338.59</v>
       </c>
       <c r="U40" t="n">
-        <v>1390</v>
+        <v>1311</v>
       </c>
       <c r="V40" t="n">
-        <v>55709296.36</v>
+        <v>39325091.11</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C41" t="n">
-        <v>468</v>
+        <v>405</v>
       </c>
       <c r="D41" t="n">
-        <v>3180</v>
+        <v>3034</v>
       </c>
       <c r="E41" t="n">
-        <v>10011995.57</v>
+        <v>11834332.58</v>
       </c>
       <c r="F41" t="n">
-        <v>5204</v>
+        <v>5165</v>
       </c>
       <c r="G41" t="n">
-        <v>67075896.16999999</v>
+        <v>84186793.55</v>
       </c>
       <c r="H41" t="n">
-        <v>1320064</v>
+        <v>1327567</v>
       </c>
       <c r="I41" t="n">
-        <v>3249</v>
+        <v>3514</v>
       </c>
       <c r="J41" t="n">
-        <v>12547112.6</v>
+        <v>13228899.27</v>
       </c>
       <c r="K41" t="n">
-        <v>1484</v>
+        <v>1356</v>
       </c>
       <c r="L41" t="n">
-        <v>4746614.72</v>
+        <v>3849636.1</v>
       </c>
       <c r="M41" t="n">
-        <v>854</v>
+        <v>835</v>
       </c>
       <c r="N41" t="n">
-        <v>2507676.87</v>
+        <v>2344933.95</v>
       </c>
       <c r="O41" t="n">
-        <v>1635</v>
+        <v>1681</v>
       </c>
       <c r="P41" t="n">
-        <v>4521265.82</v>
+        <v>6324413.82</v>
       </c>
       <c r="Q41" t="n">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="R41" t="n">
-        <v>2755636.68</v>
+        <v>1860081.16</v>
       </c>
       <c r="S41" t="n">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="T41" t="n">
-        <v>564973.9299999999</v>
+        <v>506666.89</v>
       </c>
       <c r="U41" t="n">
-        <v>1264</v>
+        <v>1390</v>
       </c>
       <c r="V41" t="n">
-        <v>38241335.65</v>
+        <v>55709296.36</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C42" t="n">
-        <v>373</v>
+        <v>468</v>
       </c>
       <c r="D42" t="n">
-        <v>3037</v>
+        <v>3180</v>
       </c>
       <c r="E42" t="n">
-        <v>9666580.58</v>
+        <v>10011995.57</v>
       </c>
       <c r="F42" t="n">
-        <v>5027</v>
+        <v>5204</v>
       </c>
       <c r="G42" t="n">
-        <v>63773024.59999999</v>
+        <v>67075896.16999999</v>
       </c>
       <c r="H42" t="n">
-        <v>1258823</v>
+        <v>1320064</v>
       </c>
       <c r="I42" t="n">
-        <v>2875</v>
+        <v>3249</v>
       </c>
       <c r="J42" t="n">
-        <v>6920266.189999999</v>
+        <v>12547112.6</v>
       </c>
       <c r="K42" t="n">
-        <v>1542</v>
+        <v>1484</v>
       </c>
       <c r="L42" t="n">
-        <v>3696443.29</v>
+        <v>4746614.72</v>
       </c>
       <c r="M42" t="n">
-        <v>933</v>
+        <v>854</v>
       </c>
       <c r="N42" t="n">
-        <v>2690307.8</v>
+        <v>2507676.87</v>
       </c>
       <c r="O42" t="n">
-        <v>1515</v>
+        <v>1635</v>
       </c>
       <c r="P42" t="n">
-        <v>4582515.05</v>
+        <v>4521265.82</v>
       </c>
       <c r="Q42" t="n">
-        <v>564</v>
+        <v>585</v>
       </c>
       <c r="R42" t="n">
-        <v>1797997.75</v>
+        <v>2755636.68</v>
       </c>
       <c r="S42" t="n">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="T42" t="n">
-        <v>528334.64</v>
+        <v>564973.9299999999</v>
       </c>
       <c r="U42" t="n">
-        <v>1381</v>
+        <v>1264</v>
       </c>
       <c r="V42" t="n">
-        <v>43178121.18</v>
+        <v>38241335.65</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>436</v>
+        <v>373</v>
       </c>
       <c r="D43" t="n">
-        <v>3078</v>
+        <v>3037</v>
       </c>
       <c r="E43" t="n">
-        <v>7868649.09</v>
+        <v>9666580.58</v>
       </c>
       <c r="F43" t="n">
-        <v>4915</v>
+        <v>5027</v>
       </c>
       <c r="G43" t="n">
-        <v>58020559.12</v>
+        <v>63773024.59999999</v>
       </c>
       <c r="H43" t="n">
-        <v>1314541</v>
+        <v>1258823</v>
       </c>
       <c r="I43" t="n">
-        <v>2689</v>
+        <v>2875</v>
       </c>
       <c r="J43" t="n">
-        <v>6449122.89</v>
+        <v>6920266.189999999</v>
       </c>
       <c r="K43" t="n">
-        <v>1359</v>
+        <v>1542</v>
       </c>
       <c r="L43" t="n">
-        <v>2945070.06</v>
+        <v>3696443.29</v>
       </c>
       <c r="M43" t="n">
-        <v>905</v>
+        <v>933</v>
       </c>
       <c r="N43" t="n">
-        <v>2115821.36</v>
+        <v>2690307.8</v>
       </c>
       <c r="O43" t="n">
-        <v>1599</v>
+        <v>1515</v>
       </c>
       <c r="P43" t="n">
-        <v>5060796.92</v>
+        <v>4582515.05</v>
       </c>
       <c r="Q43" t="n">
-        <v>613</v>
+        <v>564</v>
       </c>
       <c r="R43" t="n">
-        <v>2296501.35</v>
+        <v>1797997.75</v>
       </c>
       <c r="S43" t="n">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="T43" t="n">
-        <v>691604.65</v>
+        <v>528334.64</v>
       </c>
       <c r="U43" t="n">
-        <v>1373</v>
+        <v>1381</v>
       </c>
       <c r="V43" t="n">
-        <v>37118843.69</v>
+        <v>43178121.18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C44" t="n">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="D44" t="n">
-        <v>3260</v>
+        <v>3078</v>
       </c>
       <c r="E44" t="n">
-        <v>8684887.08</v>
+        <v>7868649.09</v>
       </c>
       <c r="F44" t="n">
-        <v>5079</v>
+        <v>4915</v>
       </c>
       <c r="G44" t="n">
-        <v>60706390.65</v>
+        <v>58020559.12</v>
       </c>
       <c r="H44" t="n">
-        <v>1374941</v>
+        <v>1314541</v>
       </c>
       <c r="I44" t="n">
-        <v>2762</v>
+        <v>2689</v>
       </c>
       <c r="J44" t="n">
-        <v>6005497.56</v>
+        <v>6449122.89</v>
       </c>
       <c r="K44" t="n">
-        <v>1567</v>
+        <v>1359</v>
       </c>
       <c r="L44" t="n">
-        <v>4041871.38</v>
+        <v>2945070.06</v>
       </c>
       <c r="M44" t="n">
-        <v>825</v>
+        <v>905</v>
       </c>
       <c r="N44" t="n">
-        <v>1933829.4</v>
+        <v>2115821.36</v>
       </c>
       <c r="O44" t="n">
-        <v>1591</v>
+        <v>1599</v>
       </c>
       <c r="P44" t="n">
-        <v>4499424.26</v>
+        <v>5060796.92</v>
       </c>
       <c r="Q44" t="n">
-        <v>578</v>
+        <v>613</v>
       </c>
       <c r="R44" t="n">
-        <v>2019173</v>
+        <v>2296501.35</v>
       </c>
       <c r="S44" t="n">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="T44" t="n">
-        <v>633415.98</v>
+        <v>691604.65</v>
       </c>
       <c r="U44" t="n">
-        <v>1352</v>
+        <v>1373</v>
       </c>
       <c r="V44" t="n">
-        <v>40733408.17</v>
+        <v>37118843.69</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C45" t="n">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="D45" t="n">
-        <v>3127</v>
+        <v>3260</v>
       </c>
       <c r="E45" t="n">
-        <v>8272329.27</v>
+        <v>8684887.08</v>
       </c>
       <c r="F45" t="n">
-        <v>5013</v>
+        <v>5079</v>
       </c>
       <c r="G45" t="n">
-        <v>48808909.8</v>
+        <v>60706390.65</v>
       </c>
       <c r="H45" t="n">
-        <v>1450129</v>
+        <v>1374941</v>
       </c>
       <c r="I45" t="n">
-        <v>2633</v>
+        <v>2762</v>
       </c>
       <c r="J45" t="n">
-        <v>6394646.83</v>
+        <v>6005497.56</v>
       </c>
       <c r="K45" t="n">
-        <v>1446</v>
+        <v>1567</v>
       </c>
       <c r="L45" t="n">
-        <v>3879082.44</v>
+        <v>4041871.38</v>
       </c>
       <c r="M45" t="n">
-        <v>840</v>
+        <v>825</v>
       </c>
       <c r="N45" t="n">
-        <v>2102847.62</v>
+        <v>1933829.4</v>
       </c>
       <c r="O45" t="n">
-        <v>1529</v>
+        <v>1591</v>
       </c>
       <c r="P45" t="n">
-        <v>4369770.680000001</v>
+        <v>4499424.26</v>
       </c>
       <c r="Q45" t="n">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="R45" t="n">
-        <v>1973424.36</v>
+        <v>2019173</v>
       </c>
       <c r="S45" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="T45" t="n">
-        <v>555135.74</v>
+        <v>633415.98</v>
       </c>
       <c r="U45" t="n">
-        <v>1382</v>
+        <v>1352</v>
       </c>
       <c r="V45" t="n">
-        <v>27975234.63</v>
+        <v>40733408.17</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C46" t="n">
-        <v>437</v>
+        <v>406</v>
       </c>
       <c r="D46" t="n">
-        <v>3232</v>
+        <v>3127</v>
       </c>
       <c r="E46" t="n">
-        <v>9037888.720000001</v>
+        <v>8272329.27</v>
       </c>
       <c r="F46" t="n">
-        <v>5190</v>
+        <v>5013</v>
       </c>
       <c r="G46" t="n">
-        <v>108233776.14</v>
+        <v>48808909.8</v>
       </c>
       <c r="H46" t="n">
-        <v>1351029</v>
+        <v>1450129</v>
       </c>
       <c r="I46" t="n">
-        <v>2978</v>
+        <v>2633</v>
       </c>
       <c r="J46" t="n">
-        <v>7332714.75</v>
+        <v>6394646.83</v>
       </c>
       <c r="K46" t="n">
-        <v>1434</v>
+        <v>1446</v>
       </c>
       <c r="L46" t="n">
-        <v>3953901.8</v>
+        <v>3879082.44</v>
       </c>
       <c r="M46" t="n">
-        <v>864</v>
+        <v>840</v>
       </c>
       <c r="N46" t="n">
-        <v>2534806.82</v>
+        <v>2102847.62</v>
       </c>
       <c r="O46" t="n">
-        <v>1558</v>
+        <v>1529</v>
       </c>
       <c r="P46" t="n">
-        <v>5474438.59</v>
+        <v>4369770.680000001</v>
       </c>
       <c r="Q46" t="n">
-        <v>622</v>
+        <v>593</v>
       </c>
       <c r="R46" t="n">
-        <v>2458061.04</v>
+        <v>1973424.36</v>
       </c>
       <c r="S46" t="n">
-        <v>223</v>
+        <v>268</v>
       </c>
       <c r="T46" t="n">
-        <v>582592.58</v>
+        <v>555135.74</v>
       </c>
       <c r="U46" t="n">
-        <v>1319</v>
+        <v>1382</v>
       </c>
       <c r="V46" t="n">
-        <v>85037260.66</v>
+        <v>27975234.63</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-04-26</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C47" t="n">
-        <v>401</v>
+        <v>437</v>
       </c>
       <c r="D47" t="n">
-        <v>3360</v>
+        <v>3232</v>
       </c>
       <c r="E47" t="n">
-        <v>8342993.950000001</v>
+        <v>9037888.720000001</v>
       </c>
       <c r="F47" t="n">
-        <v>5550</v>
+        <v>5190</v>
       </c>
       <c r="G47" t="n">
-        <v>46785359.01</v>
+        <v>108233776.14</v>
       </c>
       <c r="H47" t="n">
-        <v>1285830</v>
+        <v>1351029</v>
       </c>
       <c r="I47" t="n">
-        <v>3600</v>
+        <v>2978</v>
       </c>
       <c r="J47" t="n">
-        <v>8368247.07</v>
+        <v>7332714.75</v>
       </c>
       <c r="K47" t="n">
-        <v>1704</v>
+        <v>1434</v>
       </c>
       <c r="L47" t="n">
-        <v>4624330.84</v>
+        <v>3953901.8</v>
       </c>
       <c r="M47" t="n">
-        <v>841</v>
+        <v>864</v>
       </c>
       <c r="N47" t="n">
-        <v>2320333.67</v>
+        <v>2534806.82</v>
       </c>
       <c r="O47" t="n">
-        <v>1709</v>
+        <v>1558</v>
       </c>
       <c r="P47" t="n">
-        <v>5902476.35</v>
+        <v>5474438.59</v>
       </c>
       <c r="Q47" t="n">
-        <v>662</v>
+        <v>622</v>
       </c>
       <c r="R47" t="n">
-        <v>1961320.11</v>
+        <v>2458061.04</v>
       </c>
       <c r="S47" t="n">
-        <v>260</v>
+        <v>223</v>
       </c>
       <c r="T47" t="n">
-        <v>695415.38</v>
+        <v>582592.58</v>
       </c>
       <c r="U47" t="n">
-        <v>1517</v>
+        <v>1319</v>
       </c>
       <c r="V47" t="n">
-        <v>22219205.19</v>
+        <v>85037260.66</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C48" t="n">
-        <v>444</v>
+        <v>401</v>
       </c>
       <c r="D48" t="n">
-        <v>3295</v>
+        <v>3360</v>
       </c>
       <c r="E48" t="n">
-        <v>9816691.710000001</v>
+        <v>8342993.950000001</v>
       </c>
       <c r="F48" t="n">
-        <v>5409</v>
+        <v>5550</v>
       </c>
       <c r="G48" t="n">
-        <v>75055378.37</v>
+        <v>46785359.01</v>
       </c>
       <c r="H48" t="n">
-        <v>1290998</v>
+        <v>1285830</v>
       </c>
       <c r="I48" t="n">
-        <v>3375</v>
+        <v>3600</v>
       </c>
       <c r="J48" t="n">
-        <v>9659510.379999999</v>
+        <v>8368247.07</v>
       </c>
       <c r="K48" t="n">
-        <v>1606</v>
+        <v>1704</v>
       </c>
       <c r="L48" t="n">
-        <v>5032134.04</v>
+        <v>4624330.84</v>
       </c>
       <c r="M48" t="n">
-        <v>852</v>
+        <v>841</v>
       </c>
       <c r="N48" t="n">
-        <v>2800597.96</v>
+        <v>2320333.67</v>
       </c>
       <c r="O48" t="n">
-        <v>1546</v>
+        <v>1709</v>
       </c>
       <c r="P48" t="n">
-        <v>6066965.5</v>
+        <v>5902476.35</v>
       </c>
       <c r="Q48" t="n">
-        <v>595</v>
+        <v>662</v>
       </c>
       <c r="R48" t="n">
-        <v>1714927.12</v>
+        <v>1961320.11</v>
       </c>
       <c r="S48" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="T48" t="n">
-        <v>901043.52</v>
+        <v>695415.38</v>
       </c>
       <c r="U48" t="n">
-        <v>1367</v>
+        <v>1517</v>
       </c>
       <c r="V48" t="n">
-        <v>48442996.15000001</v>
+        <v>22219205.19</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C49" t="n">
-        <v>322</v>
+        <v>444</v>
       </c>
       <c r="D49" t="n">
-        <v>3145</v>
+        <v>3295</v>
       </c>
       <c r="E49" t="n">
-        <v>9112789.050000001</v>
+        <v>9816691.710000001</v>
       </c>
       <c r="F49" t="n">
-        <v>5052</v>
+        <v>5409</v>
       </c>
       <c r="G49" t="n">
-        <v>63121962.7</v>
+        <v>75055378.37</v>
       </c>
       <c r="H49" t="n">
-        <v>1197709</v>
+        <v>1290998</v>
       </c>
       <c r="I49" t="n">
-        <v>2689</v>
+        <v>3375</v>
       </c>
       <c r="J49" t="n">
-        <v>7180364.5</v>
+        <v>9659510.379999999</v>
       </c>
       <c r="K49" t="n">
-        <v>1577</v>
+        <v>1606</v>
       </c>
       <c r="L49" t="n">
-        <v>4655541.19</v>
+        <v>5032134.04</v>
       </c>
       <c r="M49" t="n">
-        <v>827</v>
+        <v>852</v>
       </c>
       <c r="N49" t="n">
-        <v>1862349.81</v>
+        <v>2800597.96</v>
       </c>
       <c r="O49" t="n">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="P49" t="n">
-        <v>4004480.01</v>
+        <v>6066965.5</v>
       </c>
       <c r="Q49" t="n">
-        <v>574</v>
+        <v>595</v>
       </c>
       <c r="R49" t="n">
-        <v>2679082.91</v>
+        <v>1714927.12</v>
       </c>
       <c r="S49" t="n">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="T49" t="n">
-        <v>926680.67</v>
+        <v>901043.52</v>
       </c>
       <c r="U49" t="n">
-        <v>1425</v>
+        <v>1367</v>
       </c>
       <c r="V49" t="n">
-        <v>40845720.43</v>
+        <v>48442996.15000001</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="D50" t="n">
-        <v>3069</v>
+        <v>3145</v>
       </c>
       <c r="E50" t="n">
-        <v>8691423.280000001</v>
+        <v>9112789.050000001</v>
       </c>
       <c r="F50" t="n">
-        <v>4971</v>
+        <v>5052</v>
       </c>
       <c r="G50" t="n">
-        <v>63268853.19</v>
+        <v>63121962.7</v>
       </c>
       <c r="H50" t="n">
-        <v>1237451</v>
+        <v>1197709</v>
       </c>
       <c r="I50" t="n">
-        <v>2683</v>
+        <v>2689</v>
       </c>
       <c r="J50" t="n">
-        <v>6062109.31</v>
+        <v>7180364.5</v>
       </c>
       <c r="K50" t="n">
-        <v>1610</v>
+        <v>1577</v>
       </c>
       <c r="L50" t="n">
-        <v>4189778.45</v>
+        <v>4655541.19</v>
       </c>
       <c r="M50" t="n">
-        <v>788</v>
+        <v>827</v>
       </c>
       <c r="N50" t="n">
-        <v>1749048.36</v>
+        <v>1862349.81</v>
       </c>
       <c r="O50" t="n">
-        <v>1464</v>
+        <v>1545</v>
       </c>
       <c r="P50" t="n">
-        <v>4254741.33</v>
+        <v>4004480.01</v>
       </c>
       <c r="Q50" t="n">
-        <v>591</v>
+        <v>574</v>
       </c>
       <c r="R50" t="n">
-        <v>2597890.23</v>
+        <v>2679082.91</v>
       </c>
       <c r="S50" t="n">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="T50" t="n">
-        <v>694063.73</v>
+        <v>926680.67</v>
       </c>
       <c r="U50" t="n">
-        <v>1307</v>
+        <v>1425</v>
       </c>
       <c r="V50" t="n">
-        <v>43369193.88</v>
+        <v>40845720.43</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
+          <t>2025-04-29</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>2</v>
+      </c>
+      <c r="C51" t="n">
+        <v>352</v>
+      </c>
+      <c r="D51" t="n">
+        <v>3069</v>
+      </c>
+      <c r="E51" t="n">
+        <v>8691423.280000001</v>
+      </c>
+      <c r="F51" t="n">
+        <v>4971</v>
+      </c>
+      <c r="G51" t="n">
+        <v>63268853.19</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1237451</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2683</v>
+      </c>
+      <c r="J51" t="n">
+        <v>6062109.31</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1610</v>
+      </c>
+      <c r="L51" t="n">
+        <v>4189778.45</v>
+      </c>
+      <c r="M51" t="n">
+        <v>788</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1749048.36</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1464</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4254741.33</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>591</v>
+      </c>
+      <c r="R51" t="n">
+        <v>2597890.23</v>
+      </c>
+      <c r="S51" t="n">
+        <v>249</v>
+      </c>
+      <c r="T51" t="n">
+        <v>694063.73</v>
+      </c>
+      <c r="U51" t="n">
+        <v>1307</v>
+      </c>
+      <c r="V51" t="n">
+        <v>43369193.88</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
           <t>2025-04-30</t>
         </is>
       </c>
-      <c r="B51" t="n">
+      <c r="B52" t="n">
         <v>3</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C52" t="n">
         <v>294</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D52" t="n">
         <v>2880</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E52" t="n">
         <v>7064509.43</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F52" t="n">
         <v>4880</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G52" t="n">
         <v>47410985.92</v>
       </c>
-      <c r="H51" t="n">
+      <c r="H52" t="n">
         <v>1265717</v>
       </c>
-      <c r="I51" t="n">
+      <c r="I52" t="n">
         <v>2664</v>
       </c>
-      <c r="J51" t="n">
+      <c r="J52" t="n">
         <v>5331646.86</v>
       </c>
-      <c r="K51" t="n">
+      <c r="K52" t="n">
         <v>1516</v>
       </c>
-      <c r="L51" t="n">
+      <c r="L52" t="n">
         <v>4335508.72</v>
       </c>
-      <c r="M51" t="n">
+      <c r="M52" t="n">
         <v>786</v>
       </c>
-      <c r="N51" t="n">
+      <c r="N52" t="n">
         <v>1874787.82</v>
       </c>
-      <c r="O51" t="n">
+      <c r="O52" t="n">
         <v>1500</v>
       </c>
-      <c r="P51" t="n">
+      <c r="P52" t="n">
         <v>5375700.46</v>
       </c>
-      <c r="Q51" t="n">
+      <c r="Q52" t="n">
         <v>578</v>
       </c>
-      <c r="R51" t="n">
+      <c r="R52" t="n">
         <v>2263138.45</v>
       </c>
-      <c r="S51" t="n">
+      <c r="S52" t="n">
         <v>291</v>
       </c>
-      <c r="T51" t="n">
+      <c r="T52" t="n">
         <v>1034616.43</v>
       </c>
-      <c r="U51" t="n">
+      <c r="U52" t="n">
         <v>1265</v>
       </c>
-      <c r="V51" t="n">
+      <c r="V52" t="n">
         <v>26820105.58000001</v>
       </c>
     </row>

--- a/3_分析/2_摩根-好博数据分析/好博体育/平台数据/平台数据.xlsx
+++ b/3_分析/2_摩根-好博数据分析/好博体育/平台数据/平台数据.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V52"/>
+  <dimension ref="A1:V53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1964,31 +1964,31 @@
         <v>9806277.16</v>
       </c>
       <c r="F22" t="n">
-        <v>5053</v>
+        <v>5050</v>
       </c>
       <c r="G22" t="n">
-        <v>44406320.73</v>
+        <v>44430746.37</v>
       </c>
       <c r="H22" t="n">
-        <v>1353712</v>
+        <v>1353907</v>
       </c>
       <c r="I22" t="n">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="J22" t="n">
-        <v>8625527.810000001</v>
+        <v>8628039.810000001</v>
       </c>
       <c r="K22" t="n">
         <v>1344</v>
       </c>
       <c r="L22" t="n">
-        <v>4204143.08</v>
+        <v>4207118.08</v>
       </c>
       <c r="M22" t="n">
-        <v>919</v>
+        <v>929</v>
       </c>
       <c r="N22" t="n">
-        <v>2682192.42</v>
+        <v>2737532.85</v>
       </c>
       <c r="O22" t="n">
         <v>1571</v>
@@ -2018,2100 +2018,2170 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="D23" t="n">
-        <v>2967</v>
+        <v>2985</v>
       </c>
       <c r="E23" t="n">
-        <v>8745061.789999999</v>
+        <v>9061390.48</v>
       </c>
       <c r="F23" t="n">
-        <v>4597</v>
+        <v>4826</v>
       </c>
       <c r="G23" t="n">
-        <v>37785041.94</v>
+        <v>65817145.18000001</v>
       </c>
       <c r="H23" t="n">
-        <v>1455879</v>
+        <v>1241010</v>
       </c>
       <c r="I23" t="n">
-        <v>2370</v>
+        <v>2476</v>
       </c>
       <c r="J23" t="n">
-        <v>5538221.63</v>
+        <v>7307803.72</v>
       </c>
       <c r="K23" t="n">
-        <v>1328</v>
+        <v>1374</v>
       </c>
       <c r="L23" t="n">
-        <v>3412998.73</v>
+        <v>4640383.82</v>
       </c>
       <c r="M23" t="n">
-        <v>644</v>
+        <v>951</v>
       </c>
       <c r="N23" t="n">
-        <v>1383137.78</v>
+        <v>2687346.82</v>
       </c>
       <c r="O23" t="n">
-        <v>1679</v>
+        <v>1520</v>
       </c>
       <c r="P23" t="n">
-        <v>4161886.08</v>
+        <v>4291604.77</v>
       </c>
       <c r="Q23" t="n">
-        <v>547</v>
+        <v>591</v>
       </c>
       <c r="R23" t="n">
-        <v>1902132.05</v>
+        <v>1937195.4</v>
       </c>
       <c r="S23" t="n">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="T23" t="n">
-        <v>644964.6</v>
+        <v>745100.45</v>
       </c>
       <c r="U23" t="n">
-        <v>1275</v>
+        <v>1292</v>
       </c>
       <c r="V23" t="n">
-        <v>20088856.17</v>
+        <v>43931848.48999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>453</v>
+        <v>341</v>
       </c>
       <c r="D24" t="n">
-        <v>2979</v>
+        <v>2967</v>
       </c>
       <c r="E24" t="n">
-        <v>8614113.84</v>
+        <v>8745061.789999999</v>
       </c>
       <c r="F24" t="n">
-        <v>4721</v>
+        <v>4597</v>
       </c>
       <c r="G24" t="n">
-        <v>50662133.8</v>
+        <v>37785041.94</v>
       </c>
       <c r="H24" t="n">
-        <v>1434491</v>
+        <v>1455879</v>
       </c>
       <c r="I24" t="n">
-        <v>2639</v>
+        <v>2370</v>
       </c>
       <c r="J24" t="n">
-        <v>8064759.029999999</v>
+        <v>5538221.63</v>
       </c>
       <c r="K24" t="n">
-        <v>1239</v>
+        <v>1328</v>
       </c>
       <c r="L24" t="n">
-        <v>3294313.16</v>
+        <v>3412998.73</v>
       </c>
       <c r="M24" t="n">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="N24" t="n">
-        <v>1311906.3</v>
+        <v>1383137.78</v>
       </c>
       <c r="O24" t="n">
-        <v>1670</v>
+        <v>1679</v>
       </c>
       <c r="P24" t="n">
-        <v>3852527.03</v>
+        <v>4161886.08</v>
       </c>
       <c r="Q24" t="n">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="R24" t="n">
-        <v>1294490.98</v>
+        <v>1902132.05</v>
       </c>
       <c r="S24" t="n">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="T24" t="n">
-        <v>542360.6</v>
+        <v>644964.6</v>
       </c>
       <c r="U24" t="n">
-        <v>1197</v>
+        <v>1275</v>
       </c>
       <c r="V24" t="n">
-        <v>31862106.4</v>
+        <v>20088856.17</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" t="n">
-        <v>350</v>
+        <v>453</v>
       </c>
       <c r="D25" t="n">
-        <v>2804</v>
+        <v>2979</v>
       </c>
       <c r="E25" t="n">
-        <v>6972978.1</v>
+        <v>8614113.84</v>
       </c>
       <c r="F25" t="n">
-        <v>4581</v>
+        <v>4721</v>
       </c>
       <c r="G25" t="n">
-        <v>48182983.93</v>
+        <v>50662133.8</v>
       </c>
       <c r="H25" t="n">
-        <v>1464026</v>
+        <v>1434491</v>
       </c>
       <c r="I25" t="n">
-        <v>2376</v>
+        <v>2639</v>
       </c>
       <c r="J25" t="n">
-        <v>6208711.97</v>
+        <v>8064759.029999999</v>
       </c>
       <c r="K25" t="n">
-        <v>1267</v>
+        <v>1239</v>
       </c>
       <c r="L25" t="n">
-        <v>3412022.75</v>
+        <v>3294313.16</v>
       </c>
       <c r="M25" t="n">
-        <v>676</v>
+        <v>650</v>
       </c>
       <c r="N25" t="n">
-        <v>1491987.35</v>
+        <v>1311906.3</v>
       </c>
       <c r="O25" t="n">
-        <v>1652</v>
+        <v>1670</v>
       </c>
       <c r="P25" t="n">
-        <v>4984581.39</v>
+        <v>3852527.03</v>
       </c>
       <c r="Q25" t="n">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="R25" t="n">
-        <v>1445159.79</v>
+        <v>1294490.98</v>
       </c>
       <c r="S25" t="n">
-        <v>325</v>
+        <v>288</v>
       </c>
       <c r="T25" t="n">
-        <v>714032.65</v>
+        <v>542360.6</v>
       </c>
       <c r="U25" t="n">
-        <v>1156</v>
+        <v>1197</v>
       </c>
       <c r="V25" t="n">
-        <v>29024400.73</v>
+        <v>31862106.4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D26" t="n">
-        <v>2622</v>
+        <v>2804</v>
       </c>
       <c r="E26" t="n">
-        <v>8003215.4</v>
+        <v>6972978.1</v>
       </c>
       <c r="F26" t="n">
-        <v>4368</v>
+        <v>4581</v>
       </c>
       <c r="G26" t="n">
-        <v>49085188.82</v>
+        <v>48182983.93</v>
       </c>
       <c r="H26" t="n">
-        <v>1302873</v>
+        <v>1464026</v>
       </c>
       <c r="I26" t="n">
-        <v>2189</v>
+        <v>2376</v>
       </c>
       <c r="J26" t="n">
-        <v>5747500.75</v>
+        <v>6208711.97</v>
       </c>
       <c r="K26" t="n">
-        <v>1381</v>
+        <v>1267</v>
       </c>
       <c r="L26" t="n">
-        <v>4657369.89</v>
+        <v>3412022.75</v>
       </c>
       <c r="M26" t="n">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="N26" t="n">
-        <v>1400731.94</v>
+        <v>1491987.35</v>
       </c>
       <c r="O26" t="n">
-        <v>1517</v>
+        <v>1652</v>
       </c>
       <c r="P26" t="n">
-        <v>3839850.69</v>
+        <v>4984581.39</v>
       </c>
       <c r="Q26" t="n">
-        <v>496</v>
+        <v>527</v>
       </c>
       <c r="R26" t="n">
-        <v>1400840.76</v>
+        <v>1445159.79</v>
       </c>
       <c r="S26" t="n">
-        <v>278</v>
+        <v>325</v>
       </c>
       <c r="T26" t="n">
-        <v>553525.36</v>
+        <v>714032.65</v>
       </c>
       <c r="U26" t="n">
-        <v>1106</v>
+        <v>1156</v>
       </c>
       <c r="V26" t="n">
-        <v>28790633.23</v>
+        <v>29024400.73</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>432</v>
+        <v>349</v>
       </c>
       <c r="D27" t="n">
-        <v>3031</v>
+        <v>2622</v>
       </c>
       <c r="E27" t="n">
-        <v>9944754.640000001</v>
+        <v>8003215.4</v>
       </c>
       <c r="F27" t="n">
-        <v>4939</v>
+        <v>4368</v>
       </c>
       <c r="G27" t="n">
-        <v>47055569.84</v>
+        <v>49085188.82</v>
       </c>
       <c r="H27" t="n">
-        <v>1310257</v>
+        <v>1302873</v>
       </c>
       <c r="I27" t="n">
-        <v>3221</v>
+        <v>2189</v>
       </c>
       <c r="J27" t="n">
-        <v>11710552.69</v>
+        <v>5747500.75</v>
       </c>
       <c r="K27" t="n">
-        <v>1421</v>
+        <v>1381</v>
       </c>
       <c r="L27" t="n">
-        <v>4480025.2</v>
+        <v>4657369.89</v>
       </c>
       <c r="M27" t="n">
-        <v>714</v>
+        <v>664</v>
       </c>
       <c r="N27" t="n">
-        <v>2079972.81</v>
+        <v>1400731.94</v>
       </c>
       <c r="O27" t="n">
-        <v>1727</v>
+        <v>1517</v>
       </c>
       <c r="P27" t="n">
-        <v>3810342.77</v>
+        <v>3839850.69</v>
       </c>
       <c r="Q27" t="n">
-        <v>554</v>
+        <v>496</v>
       </c>
       <c r="R27" t="n">
-        <v>1459258.66</v>
+        <v>1400840.76</v>
       </c>
       <c r="S27" t="n">
-        <v>345</v>
+        <v>278</v>
       </c>
       <c r="T27" t="n">
-        <v>523649.86</v>
+        <v>553525.36</v>
       </c>
       <c r="U27" t="n">
-        <v>1307</v>
+        <v>1106</v>
       </c>
       <c r="V27" t="n">
-        <v>21457800.95</v>
+        <v>28790633.23</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" t="n">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="D28" t="n">
-        <v>2901</v>
+        <v>3031</v>
       </c>
       <c r="E28" t="n">
-        <v>8702542.48</v>
+        <v>9944754.640000001</v>
       </c>
       <c r="F28" t="n">
-        <v>4863</v>
+        <v>4939</v>
       </c>
       <c r="G28" t="n">
-        <v>67999768.01000001</v>
+        <v>47055569.84</v>
       </c>
       <c r="H28" t="n">
-        <v>1273026</v>
+        <v>1310257</v>
       </c>
       <c r="I28" t="n">
-        <v>3028</v>
+        <v>3221</v>
       </c>
       <c r="J28" t="n">
-        <v>12217412.29</v>
+        <v>11710552.69</v>
       </c>
       <c r="K28" t="n">
-        <v>1184</v>
+        <v>1421</v>
       </c>
       <c r="L28" t="n">
-        <v>3980025.48</v>
+        <v>4480025.2</v>
       </c>
       <c r="M28" t="n">
-        <v>772</v>
+        <v>714</v>
       </c>
       <c r="N28" t="n">
-        <v>2273411.53</v>
+        <v>2079972.81</v>
       </c>
       <c r="O28" t="n">
-        <v>1608</v>
+        <v>1727</v>
       </c>
       <c r="P28" t="n">
-        <v>4079216.52</v>
+        <v>3810342.77</v>
       </c>
       <c r="Q28" t="n">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="R28" t="n">
-        <v>1371808.85</v>
+        <v>1459258.66</v>
       </c>
       <c r="S28" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="T28" t="n">
-        <v>448603.43</v>
+        <v>523649.86</v>
       </c>
       <c r="U28" t="n">
-        <v>1239</v>
+        <v>1307</v>
       </c>
       <c r="V28" t="n">
-        <v>42554761.41</v>
+        <v>21457800.95</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C29" t="n">
-        <v>381</v>
+        <v>439</v>
       </c>
       <c r="D29" t="n">
-        <v>2855</v>
+        <v>2901</v>
       </c>
       <c r="E29" t="n">
-        <v>9948340.49</v>
+        <v>8702542.48</v>
       </c>
       <c r="F29" t="n">
-        <v>4754</v>
+        <v>4863</v>
       </c>
       <c r="G29" t="n">
-        <v>40252204.51</v>
+        <v>67999768.01000001</v>
       </c>
       <c r="H29" t="n">
-        <v>1344341</v>
+        <v>1273026</v>
       </c>
       <c r="I29" t="n">
-        <v>2413</v>
+        <v>3028</v>
       </c>
       <c r="J29" t="n">
-        <v>7395276.14</v>
+        <v>12217412.29</v>
       </c>
       <c r="K29" t="n">
-        <v>1313</v>
+        <v>1184</v>
       </c>
       <c r="L29" t="n">
-        <v>3650375.36</v>
+        <v>3980025.48</v>
       </c>
       <c r="M29" t="n">
-        <v>891</v>
+        <v>772</v>
       </c>
       <c r="N29" t="n">
-        <v>2472368.05</v>
+        <v>2273411.53</v>
       </c>
       <c r="O29" t="n">
-        <v>1551</v>
+        <v>1608</v>
       </c>
       <c r="P29" t="n">
-        <v>5086127.66</v>
+        <v>4079216.52</v>
       </c>
       <c r="Q29" t="n">
-        <v>612</v>
+        <v>555</v>
       </c>
       <c r="R29" t="n">
-        <v>1324660.61</v>
+        <v>1371808.85</v>
       </c>
       <c r="S29" t="n">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="T29" t="n">
-        <v>386321.07</v>
+        <v>448603.43</v>
       </c>
       <c r="U29" t="n">
-        <v>1342</v>
+        <v>1239</v>
       </c>
       <c r="V29" t="n">
-        <v>19650527.92</v>
+        <v>42554761.41</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D30" t="n">
-        <v>2853</v>
+        <v>2855</v>
       </c>
       <c r="E30" t="n">
-        <v>8306694.470000001</v>
+        <v>9948340.49</v>
       </c>
       <c r="F30" t="n">
-        <v>4641</v>
+        <v>4754</v>
       </c>
       <c r="G30" t="n">
-        <v>44775426.43</v>
+        <v>40252204.51</v>
       </c>
       <c r="H30" t="n">
-        <v>1371233</v>
+        <v>1344341</v>
       </c>
       <c r="I30" t="n">
-        <v>2441</v>
+        <v>2413</v>
       </c>
       <c r="J30" t="n">
-        <v>7056765.74</v>
+        <v>7395276.14</v>
       </c>
       <c r="K30" t="n">
-        <v>1220</v>
+        <v>1313</v>
       </c>
       <c r="L30" t="n">
-        <v>3209716.69</v>
+        <v>3650375.36</v>
       </c>
       <c r="M30" t="n">
-        <v>821</v>
+        <v>891</v>
       </c>
       <c r="N30" t="n">
-        <v>2200379.07</v>
+        <v>2472368.05</v>
       </c>
       <c r="O30" t="n">
-        <v>1534</v>
+        <v>1551</v>
       </c>
       <c r="P30" t="n">
-        <v>4173764.55</v>
+        <v>5086127.66</v>
       </c>
       <c r="Q30" t="n">
-        <v>591</v>
+        <v>612</v>
       </c>
       <c r="R30" t="n">
-        <v>1257066.18</v>
+        <v>1324660.61</v>
       </c>
       <c r="S30" t="n">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="T30" t="n">
-        <v>551972.4300000001</v>
+        <v>386321.07</v>
       </c>
       <c r="U30" t="n">
-        <v>1281</v>
+        <v>1342</v>
       </c>
       <c r="V30" t="n">
-        <v>26181709.67</v>
+        <v>19650527.92</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>418</v>
+        <v>384</v>
       </c>
       <c r="D31" t="n">
-        <v>2958</v>
+        <v>2853</v>
       </c>
       <c r="E31" t="n">
-        <v>9106641.82</v>
+        <v>8306694.470000001</v>
       </c>
       <c r="F31" t="n">
-        <v>4700</v>
+        <v>4641</v>
       </c>
       <c r="G31" t="n">
-        <v>43788898.11</v>
+        <v>44775426.43</v>
       </c>
       <c r="H31" t="n">
-        <v>1256021</v>
+        <v>1371233</v>
       </c>
       <c r="I31" t="n">
-        <v>2738</v>
+        <v>2441</v>
       </c>
       <c r="J31" t="n">
-        <v>8988132.08</v>
+        <v>7056765.74</v>
       </c>
       <c r="K31" t="n">
-        <v>1273</v>
+        <v>1220</v>
       </c>
       <c r="L31" t="n">
-        <v>3726411.11</v>
+        <v>3209716.69</v>
       </c>
       <c r="M31" t="n">
-        <v>792</v>
+        <v>821</v>
       </c>
       <c r="N31" t="n">
-        <v>2017665.9</v>
+        <v>2200379.07</v>
       </c>
       <c r="O31" t="n">
-        <v>1493</v>
+        <v>1534</v>
       </c>
       <c r="P31" t="n">
-        <v>4405449.14</v>
+        <v>4173764.55</v>
       </c>
       <c r="Q31" t="n">
-        <v>536</v>
+        <v>591</v>
       </c>
       <c r="R31" t="n">
-        <v>1219392.84</v>
+        <v>1257066.18</v>
       </c>
       <c r="S31" t="n">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="T31" t="n">
-        <v>512824.43</v>
+        <v>551972.4300000001</v>
       </c>
       <c r="U31" t="n">
-        <v>1227</v>
+        <v>1281</v>
       </c>
       <c r="V31" t="n">
-        <v>22628313.81</v>
+        <v>26181709.67</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32" t="n">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="D32" t="n">
-        <v>2918</v>
+        <v>2958</v>
       </c>
       <c r="E32" t="n">
-        <v>7740950.439999999</v>
+        <v>9106641.82</v>
       </c>
       <c r="F32" t="n">
-        <v>4751</v>
+        <v>4700</v>
       </c>
       <c r="G32" t="n">
-        <v>35176842.38</v>
+        <v>43788898.11</v>
       </c>
       <c r="H32" t="n">
-        <v>1439707</v>
+        <v>1256021</v>
       </c>
       <c r="I32" t="n">
-        <v>2485</v>
+        <v>2738</v>
       </c>
       <c r="J32" t="n">
-        <v>7954252.75</v>
+        <v>8988132.08</v>
       </c>
       <c r="K32" t="n">
-        <v>1413</v>
+        <v>1273</v>
       </c>
       <c r="L32" t="n">
-        <v>4099669.29</v>
+        <v>3726411.11</v>
       </c>
       <c r="M32" t="n">
-        <v>871</v>
+        <v>792</v>
       </c>
       <c r="N32" t="n">
-        <v>1994841.02</v>
+        <v>2017665.9</v>
       </c>
       <c r="O32" t="n">
-        <v>1599</v>
+        <v>1493</v>
       </c>
       <c r="P32" t="n">
-        <v>4765252.66</v>
+        <v>4405449.14</v>
       </c>
       <c r="Q32" t="n">
-        <v>564</v>
+        <v>536</v>
       </c>
       <c r="R32" t="n">
-        <v>1354783.86</v>
+        <v>1219392.84</v>
       </c>
       <c r="S32" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="T32" t="n">
-        <v>598896.66</v>
+        <v>512824.43</v>
       </c>
       <c r="U32" t="n">
-        <v>1292</v>
+        <v>1227</v>
       </c>
       <c r="V32" t="n">
-        <v>14255459.14</v>
+        <v>22628313.81</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>403</v>
       </c>
       <c r="D33" t="n">
-        <v>3036</v>
+        <v>2918</v>
       </c>
       <c r="E33" t="n">
-        <v>8909226.42</v>
+        <v>7740950.439999999</v>
       </c>
       <c r="F33" t="n">
-        <v>4713</v>
+        <v>4751</v>
       </c>
       <c r="G33" t="n">
-        <v>42250635.16</v>
+        <v>35176842.38</v>
       </c>
       <c r="H33" t="n">
-        <v>1456140</v>
+        <v>1439707</v>
       </c>
       <c r="I33" t="n">
-        <v>2627</v>
+        <v>2485</v>
       </c>
       <c r="J33" t="n">
-        <v>8463726.210000001</v>
+        <v>7954252.75</v>
       </c>
       <c r="K33" t="n">
-        <v>1376</v>
+        <v>1413</v>
       </c>
       <c r="L33" t="n">
-        <v>4034655.15</v>
+        <v>4099669.29</v>
       </c>
       <c r="M33" t="n">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="N33" t="n">
-        <v>2437635.22</v>
+        <v>1994841.02</v>
       </c>
       <c r="O33" t="n">
-        <v>1547</v>
+        <v>1599</v>
       </c>
       <c r="P33" t="n">
-        <v>4493126.310000001</v>
+        <v>4765252.66</v>
       </c>
       <c r="Q33" t="n">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="R33" t="n">
-        <v>1250653.53</v>
+        <v>1354783.86</v>
       </c>
       <c r="S33" t="n">
-        <v>268</v>
+        <v>321</v>
       </c>
       <c r="T33" t="n">
-        <v>513404.86</v>
+        <v>598896.66</v>
       </c>
       <c r="U33" t="n">
-        <v>1222</v>
+        <v>1292</v>
       </c>
       <c r="V33" t="n">
-        <v>20868985.18</v>
+        <v>14255459.14</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C34" t="n">
-        <v>456</v>
+        <v>426</v>
       </c>
       <c r="D34" t="n">
-        <v>3163</v>
+        <v>3036</v>
       </c>
       <c r="E34" t="n">
-        <v>9096263.450000001</v>
+        <v>8909226.42</v>
       </c>
       <c r="F34" t="n">
-        <v>5174</v>
+        <v>4713</v>
       </c>
       <c r="G34" t="n">
-        <v>42345411.16</v>
+        <v>42250635.16</v>
       </c>
       <c r="H34" t="n">
-        <v>1408519</v>
+        <v>1456140</v>
       </c>
       <c r="I34" t="n">
-        <v>3514</v>
+        <v>2627</v>
       </c>
       <c r="J34" t="n">
-        <v>12940787.25</v>
+        <v>8463726.210000001</v>
       </c>
       <c r="K34" t="n">
-        <v>1443</v>
+        <v>1376</v>
       </c>
       <c r="L34" t="n">
-        <v>4423044.46</v>
+        <v>4034655.15</v>
       </c>
       <c r="M34" t="n">
-        <v>845</v>
+        <v>881</v>
       </c>
       <c r="N34" t="n">
-        <v>2517061.15</v>
+        <v>2437635.22</v>
       </c>
       <c r="O34" t="n">
-        <v>1725</v>
+        <v>1547</v>
       </c>
       <c r="P34" t="n">
-        <v>3795563.26</v>
+        <v>4493126.310000001</v>
       </c>
       <c r="Q34" t="n">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="R34" t="n">
-        <v>1211529.96</v>
+        <v>1250653.53</v>
       </c>
       <c r="S34" t="n">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="T34" t="n">
-        <v>470267.77</v>
+        <v>513404.86</v>
       </c>
       <c r="U34" t="n">
-        <v>1352</v>
+        <v>1222</v>
       </c>
       <c r="V34" t="n">
-        <v>16929838.51</v>
+        <v>20868985.18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C35" t="n">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="D35" t="n">
-        <v>3117</v>
+        <v>3163</v>
       </c>
       <c r="E35" t="n">
-        <v>9290678.15</v>
+        <v>9096263.450000001</v>
       </c>
       <c r="F35" t="n">
-        <v>4979</v>
+        <v>5174</v>
       </c>
       <c r="G35" t="n">
-        <v>39495074.87</v>
+        <v>42345411.16</v>
       </c>
       <c r="H35" t="n">
-        <v>1296083</v>
+        <v>1408519</v>
       </c>
       <c r="I35" t="n">
-        <v>3096</v>
+        <v>3514</v>
       </c>
       <c r="J35" t="n">
-        <v>10439914.2</v>
+        <v>12940787.25</v>
       </c>
       <c r="K35" t="n">
-        <v>1007</v>
+        <v>1443</v>
       </c>
       <c r="L35" t="n">
-        <v>2773273.78</v>
+        <v>4423044.46</v>
       </c>
       <c r="M35" t="n">
-        <v>794</v>
+        <v>845</v>
       </c>
       <c r="N35" t="n">
-        <v>2617961.23</v>
+        <v>2517061.15</v>
       </c>
       <c r="O35" t="n">
-        <v>1645</v>
+        <v>1725</v>
       </c>
       <c r="P35" t="n">
-        <v>4424816.97</v>
+        <v>3795563.26</v>
       </c>
       <c r="Q35" t="n">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="R35" t="n">
-        <v>1433265.22</v>
+        <v>1211529.96</v>
       </c>
       <c r="S35" t="n">
-        <v>238</v>
+        <v>289</v>
       </c>
       <c r="T35" t="n">
-        <v>429606.96</v>
+        <v>470267.77</v>
       </c>
       <c r="U35" t="n">
-        <v>1162</v>
+        <v>1352</v>
       </c>
       <c r="V35" t="n">
-        <v>16944516.11</v>
+        <v>16929838.51</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C36" t="n">
-        <v>376</v>
+        <v>452</v>
       </c>
       <c r="D36" t="n">
-        <v>2859</v>
+        <v>3117</v>
       </c>
       <c r="E36" t="n">
-        <v>8379346.359999999</v>
+        <v>9290678.15</v>
       </c>
       <c r="F36" t="n">
-        <v>4737</v>
+        <v>4979</v>
       </c>
       <c r="G36" t="n">
-        <v>41538214.86</v>
+        <v>39495074.87</v>
       </c>
       <c r="H36" t="n">
-        <v>1389235</v>
+        <v>1296083</v>
       </c>
       <c r="I36" t="n">
-        <v>2602</v>
+        <v>3096</v>
       </c>
       <c r="J36" t="n">
-        <v>7587476.4</v>
+        <v>10439914.2</v>
       </c>
       <c r="K36" t="n">
-        <v>1246</v>
+        <v>1007</v>
       </c>
       <c r="L36" t="n">
-        <v>3597073.21</v>
+        <v>2773273.78</v>
       </c>
       <c r="M36" t="n">
-        <v>809</v>
+        <v>794</v>
       </c>
       <c r="N36" t="n">
-        <v>2249014.13</v>
+        <v>2617961.23</v>
       </c>
       <c r="O36" t="n">
-        <v>1546</v>
+        <v>1645</v>
       </c>
       <c r="P36" t="n">
-        <v>5921735.439999999</v>
+        <v>4424816.97</v>
       </c>
       <c r="Q36" t="n">
-        <v>520</v>
+        <v>596</v>
       </c>
       <c r="R36" t="n">
-        <v>1855070.54</v>
+        <v>1433265.22</v>
       </c>
       <c r="S36" t="n">
-        <v>300</v>
+        <v>238</v>
       </c>
       <c r="T36" t="n">
-        <v>609520.0600000001</v>
+        <v>429606.96</v>
       </c>
       <c r="U36" t="n">
-        <v>1309</v>
+        <v>1162</v>
       </c>
       <c r="V36" t="n">
-        <v>18898098.28</v>
+        <v>16944516.11</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D37" t="n">
-        <v>2832</v>
+        <v>2859</v>
       </c>
       <c r="E37" t="n">
-        <v>7319298.699999999</v>
+        <v>8379346.359999999</v>
       </c>
       <c r="F37" t="n">
-        <v>4704</v>
+        <v>4737</v>
       </c>
       <c r="G37" t="n">
-        <v>42454169.55</v>
+        <v>41538214.86</v>
       </c>
       <c r="H37" t="n">
-        <v>1296726</v>
+        <v>1389235</v>
       </c>
       <c r="I37" t="n">
-        <v>2642</v>
+        <v>2602</v>
       </c>
       <c r="J37" t="n">
-        <v>7308377.16</v>
+        <v>7587476.4</v>
       </c>
       <c r="K37" t="n">
-        <v>1015</v>
+        <v>1246</v>
       </c>
       <c r="L37" t="n">
-        <v>2703408.52</v>
+        <v>3597073.21</v>
       </c>
       <c r="M37" t="n">
-        <v>778</v>
+        <v>809</v>
       </c>
       <c r="N37" t="n">
-        <v>1615850.74</v>
+        <v>2249014.13</v>
       </c>
       <c r="O37" t="n">
-        <v>1536</v>
+        <v>1546</v>
       </c>
       <c r="P37" t="n">
-        <v>3566320.66</v>
+        <v>5921735.439999999</v>
       </c>
       <c r="Q37" t="n">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="R37" t="n">
-        <v>3003927.74</v>
+        <v>1855070.54</v>
       </c>
       <c r="S37" t="n">
-        <v>251</v>
+        <v>300</v>
       </c>
       <c r="T37" t="n">
-        <v>567425.1899999999</v>
+        <v>609520.0600000001</v>
       </c>
       <c r="U37" t="n">
-        <v>1238</v>
+        <v>1309</v>
       </c>
       <c r="V37" t="n">
-        <v>22967413.64</v>
+        <v>18898098.28</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>416</v>
+        <v>379</v>
       </c>
       <c r="D38" t="n">
-        <v>3074</v>
+        <v>2832</v>
       </c>
       <c r="E38" t="n">
-        <v>9934980.559999999</v>
+        <v>7319298.699999999</v>
       </c>
       <c r="F38" t="n">
-        <v>4976</v>
+        <v>4704</v>
       </c>
       <c r="G38" t="n">
-        <v>51688211.24</v>
+        <v>42454169.55</v>
       </c>
       <c r="H38" t="n">
-        <v>1407966</v>
+        <v>1296726</v>
       </c>
       <c r="I38" t="n">
-        <v>2817</v>
+        <v>2642</v>
       </c>
       <c r="J38" t="n">
-        <v>8033459.41</v>
+        <v>7308377.16</v>
       </c>
       <c r="K38" t="n">
-        <v>1468</v>
+        <v>1015</v>
       </c>
       <c r="L38" t="n">
-        <v>4049942.55</v>
+        <v>2703408.52</v>
       </c>
       <c r="M38" t="n">
-        <v>816</v>
+        <v>778</v>
       </c>
       <c r="N38" t="n">
-        <v>2021429.23</v>
+        <v>1615850.74</v>
       </c>
       <c r="O38" t="n">
-        <v>1635</v>
+        <v>1536</v>
       </c>
       <c r="P38" t="n">
-        <v>4675228.27</v>
+        <v>3566320.66</v>
       </c>
       <c r="Q38" t="n">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="R38" t="n">
-        <v>3128824.35</v>
+        <v>3003927.74</v>
       </c>
       <c r="S38" t="n">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="T38" t="n">
-        <v>615731.21</v>
+        <v>567425.1899999999</v>
       </c>
       <c r="U38" t="n">
-        <v>1286</v>
+        <v>1238</v>
       </c>
       <c r="V38" t="n">
-        <v>28256868.32</v>
+        <v>22967413.64</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>374</v>
+        <v>416</v>
       </c>
       <c r="D39" t="n">
-        <v>2962</v>
+        <v>3074</v>
       </c>
       <c r="E39" t="n">
-        <v>8037552.939999999</v>
+        <v>9934980.559999999</v>
       </c>
       <c r="F39" t="n">
-        <v>4865</v>
+        <v>4976</v>
       </c>
       <c r="G39" t="n">
-        <v>47443009.66</v>
+        <v>51688211.24</v>
       </c>
       <c r="H39" t="n">
-        <v>1370631</v>
+        <v>1407966</v>
       </c>
       <c r="I39" t="n">
-        <v>2696</v>
+        <v>2817</v>
       </c>
       <c r="J39" t="n">
-        <v>8495590.439999999</v>
+        <v>8033459.41</v>
       </c>
       <c r="K39" t="n">
-        <v>1333</v>
+        <v>1468</v>
       </c>
       <c r="L39" t="n">
-        <v>3663887.99</v>
+        <v>4049942.55</v>
       </c>
       <c r="M39" t="n">
-        <v>835</v>
+        <v>816</v>
       </c>
       <c r="N39" t="n">
-        <v>2022285.91</v>
+        <v>2021429.23</v>
       </c>
       <c r="O39" t="n">
-        <v>1610</v>
+        <v>1635</v>
       </c>
       <c r="P39" t="n">
-        <v>3987230.38</v>
+        <v>4675228.27</v>
       </c>
       <c r="Q39" t="n">
         <v>534</v>
       </c>
       <c r="R39" t="n">
-        <v>2377786.26</v>
+        <v>3128824.35</v>
       </c>
       <c r="S39" t="n">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="T39" t="n">
-        <v>580577.76</v>
+        <v>615731.21</v>
       </c>
       <c r="U39" t="n">
-        <v>1233</v>
+        <v>1286</v>
       </c>
       <c r="V39" t="n">
-        <v>25124492.22</v>
+        <v>28256868.32</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="D40" t="n">
-        <v>3060</v>
+        <v>2962</v>
       </c>
       <c r="E40" t="n">
-        <v>7786716.59</v>
+        <v>8037552.939999999</v>
       </c>
       <c r="F40" t="n">
-        <v>4971</v>
+        <v>4865</v>
       </c>
       <c r="G40" t="n">
-        <v>63104551.11</v>
+        <v>47443009.66</v>
       </c>
       <c r="H40" t="n">
-        <v>1365425</v>
+        <v>1370631</v>
       </c>
       <c r="I40" t="n">
-        <v>2863</v>
+        <v>2696</v>
       </c>
       <c r="J40" t="n">
-        <v>10340536.11</v>
+        <v>8495590.439999999</v>
       </c>
       <c r="K40" t="n">
-        <v>900</v>
+        <v>1333</v>
       </c>
       <c r="L40" t="n">
-        <v>2068150.43</v>
+        <v>3663887.99</v>
       </c>
       <c r="M40" t="n">
-        <v>788</v>
+        <v>835</v>
       </c>
       <c r="N40" t="n">
-        <v>2257059.76</v>
+        <v>2022285.91</v>
       </c>
       <c r="O40" t="n">
-        <v>1574</v>
+        <v>1610</v>
       </c>
       <c r="P40" t="n">
-        <v>6498198.09</v>
+        <v>3987230.38</v>
       </c>
       <c r="Q40" t="n">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="R40" t="n">
-        <v>1835230.92</v>
+        <v>2377786.26</v>
       </c>
       <c r="S40" t="n">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="T40" t="n">
-        <v>572338.59</v>
+        <v>580577.76</v>
       </c>
       <c r="U40" t="n">
-        <v>1311</v>
+        <v>1233</v>
       </c>
       <c r="V40" t="n">
-        <v>39325091.11</v>
+        <v>25124492.22</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="D41" t="n">
-        <v>3034</v>
+        <v>3060</v>
       </c>
       <c r="E41" t="n">
-        <v>11834332.58</v>
+        <v>7786716.59</v>
       </c>
       <c r="F41" t="n">
-        <v>5165</v>
+        <v>4971</v>
       </c>
       <c r="G41" t="n">
-        <v>84186793.55</v>
+        <v>63104551.11</v>
       </c>
       <c r="H41" t="n">
-        <v>1327567</v>
+        <v>1365425</v>
       </c>
       <c r="I41" t="n">
-        <v>3514</v>
+        <v>2863</v>
       </c>
       <c r="J41" t="n">
-        <v>13228899.27</v>
+        <v>10340536.11</v>
       </c>
       <c r="K41" t="n">
-        <v>1356</v>
+        <v>900</v>
       </c>
       <c r="L41" t="n">
-        <v>3849636.1</v>
+        <v>2068150.43</v>
       </c>
       <c r="M41" t="n">
-        <v>835</v>
+        <v>788</v>
       </c>
       <c r="N41" t="n">
-        <v>2344933.95</v>
+        <v>2257059.76</v>
       </c>
       <c r="O41" t="n">
-        <v>1681</v>
+        <v>1574</v>
       </c>
       <c r="P41" t="n">
-        <v>6324413.82</v>
+        <v>6498198.09</v>
       </c>
       <c r="Q41" t="n">
-        <v>572</v>
+        <v>530</v>
       </c>
       <c r="R41" t="n">
-        <v>1860081.16</v>
+        <v>1835230.92</v>
       </c>
       <c r="S41" t="n">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="T41" t="n">
-        <v>506666.89</v>
+        <v>572338.59</v>
       </c>
       <c r="U41" t="n">
-        <v>1390</v>
+        <v>1311</v>
       </c>
       <c r="V41" t="n">
-        <v>55709296.36</v>
+        <v>39325091.11</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C42" t="n">
-        <v>468</v>
+        <v>405</v>
       </c>
       <c r="D42" t="n">
-        <v>3180</v>
+        <v>3034</v>
       </c>
       <c r="E42" t="n">
-        <v>10011995.57</v>
+        <v>11834332.58</v>
       </c>
       <c r="F42" t="n">
-        <v>5204</v>
+        <v>5165</v>
       </c>
       <c r="G42" t="n">
-        <v>67075896.16999999</v>
+        <v>84186793.55</v>
       </c>
       <c r="H42" t="n">
-        <v>1320064</v>
+        <v>1327567</v>
       </c>
       <c r="I42" t="n">
-        <v>3249</v>
+        <v>3514</v>
       </c>
       <c r="J42" t="n">
-        <v>12547112.6</v>
+        <v>13228899.27</v>
       </c>
       <c r="K42" t="n">
-        <v>1484</v>
+        <v>1356</v>
       </c>
       <c r="L42" t="n">
-        <v>4746614.72</v>
+        <v>3849636.1</v>
       </c>
       <c r="M42" t="n">
-        <v>854</v>
+        <v>835</v>
       </c>
       <c r="N42" t="n">
-        <v>2507676.87</v>
+        <v>2344933.95</v>
       </c>
       <c r="O42" t="n">
-        <v>1635</v>
+        <v>1681</v>
       </c>
       <c r="P42" t="n">
-        <v>4521265.82</v>
+        <v>6324413.82</v>
       </c>
       <c r="Q42" t="n">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="R42" t="n">
-        <v>2755636.68</v>
+        <v>1860081.16</v>
       </c>
       <c r="S42" t="n">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="T42" t="n">
-        <v>564973.9299999999</v>
+        <v>506666.89</v>
       </c>
       <c r="U42" t="n">
-        <v>1264</v>
+        <v>1390</v>
       </c>
       <c r="V42" t="n">
-        <v>38241335.65</v>
+        <v>55709296.36</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C43" t="n">
-        <v>373</v>
+        <v>468</v>
       </c>
       <c r="D43" t="n">
-        <v>3037</v>
+        <v>3180</v>
       </c>
       <c r="E43" t="n">
-        <v>9666580.58</v>
+        <v>10011995.57</v>
       </c>
       <c r="F43" t="n">
-        <v>5027</v>
+        <v>5204</v>
       </c>
       <c r="G43" t="n">
-        <v>63773024.59999999</v>
+        <v>67075896.16999999</v>
       </c>
       <c r="H43" t="n">
-        <v>1258823</v>
+        <v>1320064</v>
       </c>
       <c r="I43" t="n">
-        <v>2875</v>
+        <v>3249</v>
       </c>
       <c r="J43" t="n">
-        <v>6920266.189999999</v>
+        <v>12547112.6</v>
       </c>
       <c r="K43" t="n">
-        <v>1542</v>
+        <v>1484</v>
       </c>
       <c r="L43" t="n">
-        <v>3696443.29</v>
+        <v>4746614.72</v>
       </c>
       <c r="M43" t="n">
-        <v>933</v>
+        <v>854</v>
       </c>
       <c r="N43" t="n">
-        <v>2690307.8</v>
+        <v>2507676.87</v>
       </c>
       <c r="O43" t="n">
-        <v>1515</v>
+        <v>1635</v>
       </c>
       <c r="P43" t="n">
-        <v>4582515.05</v>
+        <v>4521265.82</v>
       </c>
       <c r="Q43" t="n">
-        <v>564</v>
+        <v>585</v>
       </c>
       <c r="R43" t="n">
-        <v>1797997.75</v>
+        <v>2755636.68</v>
       </c>
       <c r="S43" t="n">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="T43" t="n">
-        <v>528334.64</v>
+        <v>564973.9299999999</v>
       </c>
       <c r="U43" t="n">
-        <v>1381</v>
+        <v>1264</v>
       </c>
       <c r="V43" t="n">
-        <v>43178121.18</v>
+        <v>38241335.65</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>436</v>
+        <v>373</v>
       </c>
       <c r="D44" t="n">
-        <v>3078</v>
+        <v>3037</v>
       </c>
       <c r="E44" t="n">
-        <v>7868649.09</v>
+        <v>9666580.58</v>
       </c>
       <c r="F44" t="n">
-        <v>4915</v>
+        <v>5027</v>
       </c>
       <c r="G44" t="n">
-        <v>58020559.12</v>
+        <v>63773024.59999999</v>
       </c>
       <c r="H44" t="n">
-        <v>1314541</v>
+        <v>1258823</v>
       </c>
       <c r="I44" t="n">
-        <v>2689</v>
+        <v>2875</v>
       </c>
       <c r="J44" t="n">
-        <v>6449122.89</v>
+        <v>6920266.189999999</v>
       </c>
       <c r="K44" t="n">
-        <v>1359</v>
+        <v>1542</v>
       </c>
       <c r="L44" t="n">
-        <v>2945070.06</v>
+        <v>3696443.29</v>
       </c>
       <c r="M44" t="n">
-        <v>905</v>
+        <v>933</v>
       </c>
       <c r="N44" t="n">
-        <v>2115821.36</v>
+        <v>2690307.8</v>
       </c>
       <c r="O44" t="n">
-        <v>1599</v>
+        <v>1515</v>
       </c>
       <c r="P44" t="n">
-        <v>5060796.92</v>
+        <v>4582515.05</v>
       </c>
       <c r="Q44" t="n">
-        <v>613</v>
+        <v>564</v>
       </c>
       <c r="R44" t="n">
-        <v>2296501.35</v>
+        <v>1797997.75</v>
       </c>
       <c r="S44" t="n">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="T44" t="n">
-        <v>691604.65</v>
+        <v>528334.64</v>
       </c>
       <c r="U44" t="n">
-        <v>1373</v>
+        <v>1381</v>
       </c>
       <c r="V44" t="n">
-        <v>37118843.69</v>
+        <v>43178121.18</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C45" t="n">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="D45" t="n">
-        <v>3260</v>
+        <v>3078</v>
       </c>
       <c r="E45" t="n">
-        <v>8684887.08</v>
+        <v>7868649.09</v>
       </c>
       <c r="F45" t="n">
-        <v>5079</v>
+        <v>4915</v>
       </c>
       <c r="G45" t="n">
-        <v>60706390.65</v>
+        <v>58020559.12</v>
       </c>
       <c r="H45" t="n">
-        <v>1374941</v>
+        <v>1314541</v>
       </c>
       <c r="I45" t="n">
-        <v>2762</v>
+        <v>2689</v>
       </c>
       <c r="J45" t="n">
-        <v>6005497.56</v>
+        <v>6449122.89</v>
       </c>
       <c r="K45" t="n">
-        <v>1567</v>
+        <v>1359</v>
       </c>
       <c r="L45" t="n">
-        <v>4041871.38</v>
+        <v>2945070.06</v>
       </c>
       <c r="M45" t="n">
-        <v>825</v>
+        <v>905</v>
       </c>
       <c r="N45" t="n">
-        <v>1933829.4</v>
+        <v>2115821.36</v>
       </c>
       <c r="O45" t="n">
-        <v>1591</v>
+        <v>1599</v>
       </c>
       <c r="P45" t="n">
-        <v>4499424.26</v>
+        <v>5060796.92</v>
       </c>
       <c r="Q45" t="n">
-        <v>578</v>
+        <v>613</v>
       </c>
       <c r="R45" t="n">
-        <v>2019173</v>
+        <v>2296501.35</v>
       </c>
       <c r="S45" t="n">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="T45" t="n">
-        <v>633415.98</v>
+        <v>691604.65</v>
       </c>
       <c r="U45" t="n">
-        <v>1352</v>
+        <v>1373</v>
       </c>
       <c r="V45" t="n">
-        <v>40733408.17</v>
+        <v>37118843.69</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C46" t="n">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="D46" t="n">
-        <v>3127</v>
+        <v>3260</v>
       </c>
       <c r="E46" t="n">
-        <v>8272329.27</v>
+        <v>8684887.08</v>
       </c>
       <c r="F46" t="n">
-        <v>5013</v>
+        <v>5079</v>
       </c>
       <c r="G46" t="n">
-        <v>48808909.8</v>
+        <v>60706390.65</v>
       </c>
       <c r="H46" t="n">
-        <v>1450129</v>
+        <v>1374941</v>
       </c>
       <c r="I46" t="n">
-        <v>2633</v>
+        <v>2762</v>
       </c>
       <c r="J46" t="n">
-        <v>6394646.83</v>
+        <v>6005497.56</v>
       </c>
       <c r="K46" t="n">
-        <v>1446</v>
+        <v>1567</v>
       </c>
       <c r="L46" t="n">
-        <v>3879082.44</v>
+        <v>4041871.38</v>
       </c>
       <c r="M46" t="n">
-        <v>840</v>
+        <v>825</v>
       </c>
       <c r="N46" t="n">
-        <v>2102847.62</v>
+        <v>1933829.4</v>
       </c>
       <c r="O46" t="n">
-        <v>1529</v>
+        <v>1591</v>
       </c>
       <c r="P46" t="n">
-        <v>4369770.680000001</v>
+        <v>4499424.26</v>
       </c>
       <c r="Q46" t="n">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="R46" t="n">
-        <v>1973424.36</v>
+        <v>2019173</v>
       </c>
       <c r="S46" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="T46" t="n">
-        <v>555135.74</v>
+        <v>633415.98</v>
       </c>
       <c r="U46" t="n">
-        <v>1382</v>
+        <v>1352</v>
       </c>
       <c r="V46" t="n">
-        <v>27975234.63</v>
+        <v>40733408.17</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C47" t="n">
-        <v>437</v>
+        <v>406</v>
       </c>
       <c r="D47" t="n">
-        <v>3232</v>
+        <v>3127</v>
       </c>
       <c r="E47" t="n">
-        <v>9037888.720000001</v>
+        <v>8272329.27</v>
       </c>
       <c r="F47" t="n">
-        <v>5190</v>
+        <v>5013</v>
       </c>
       <c r="G47" t="n">
-        <v>108233776.14</v>
+        <v>48808909.8</v>
       </c>
       <c r="H47" t="n">
-        <v>1351029</v>
+        <v>1450129</v>
       </c>
       <c r="I47" t="n">
-        <v>2978</v>
+        <v>2633</v>
       </c>
       <c r="J47" t="n">
-        <v>7332714.75</v>
+        <v>6394646.83</v>
       </c>
       <c r="K47" t="n">
-        <v>1434</v>
+        <v>1446</v>
       </c>
       <c r="L47" t="n">
-        <v>3953901.8</v>
+        <v>3879082.44</v>
       </c>
       <c r="M47" t="n">
-        <v>864</v>
+        <v>840</v>
       </c>
       <c r="N47" t="n">
-        <v>2534806.82</v>
+        <v>2102847.62</v>
       </c>
       <c r="O47" t="n">
-        <v>1558</v>
+        <v>1529</v>
       </c>
       <c r="P47" t="n">
-        <v>5474438.59</v>
+        <v>4369770.680000001</v>
       </c>
       <c r="Q47" t="n">
-        <v>622</v>
+        <v>593</v>
       </c>
       <c r="R47" t="n">
-        <v>2458061.04</v>
+        <v>1973424.36</v>
       </c>
       <c r="S47" t="n">
-        <v>223</v>
+        <v>268</v>
       </c>
       <c r="T47" t="n">
-        <v>582592.58</v>
+        <v>555135.74</v>
       </c>
       <c r="U47" t="n">
-        <v>1319</v>
+        <v>1382</v>
       </c>
       <c r="V47" t="n">
-        <v>85037260.66</v>
+        <v>27975234.63</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-04-26</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C48" t="n">
-        <v>401</v>
+        <v>437</v>
       </c>
       <c r="D48" t="n">
-        <v>3360</v>
+        <v>3232</v>
       </c>
       <c r="E48" t="n">
-        <v>8342993.950000001</v>
+        <v>9037888.720000001</v>
       </c>
       <c r="F48" t="n">
-        <v>5550</v>
+        <v>5190</v>
       </c>
       <c r="G48" t="n">
-        <v>46785359.01</v>
+        <v>108233776.14</v>
       </c>
       <c r="H48" t="n">
-        <v>1285830</v>
+        <v>1351029</v>
       </c>
       <c r="I48" t="n">
-        <v>3600</v>
+        <v>2978</v>
       </c>
       <c r="J48" t="n">
-        <v>8368247.07</v>
+        <v>7332714.75</v>
       </c>
       <c r="K48" t="n">
-        <v>1704</v>
+        <v>1434</v>
       </c>
       <c r="L48" t="n">
-        <v>4624330.84</v>
+        <v>3953901.8</v>
       </c>
       <c r="M48" t="n">
-        <v>841</v>
+        <v>864</v>
       </c>
       <c r="N48" t="n">
-        <v>2320333.67</v>
+        <v>2534806.82</v>
       </c>
       <c r="O48" t="n">
-        <v>1709</v>
+        <v>1558</v>
       </c>
       <c r="P48" t="n">
-        <v>5902476.35</v>
+        <v>5474438.59</v>
       </c>
       <c r="Q48" t="n">
-        <v>662</v>
+        <v>622</v>
       </c>
       <c r="R48" t="n">
-        <v>1961320.11</v>
+        <v>2458061.04</v>
       </c>
       <c r="S48" t="n">
-        <v>260</v>
+        <v>223</v>
       </c>
       <c r="T48" t="n">
-        <v>695415.38</v>
+        <v>582592.58</v>
       </c>
       <c r="U48" t="n">
-        <v>1517</v>
+        <v>1319</v>
       </c>
       <c r="V48" t="n">
-        <v>22219205.19</v>
+        <v>85037260.66</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C49" t="n">
-        <v>444</v>
+        <v>401</v>
       </c>
       <c r="D49" t="n">
-        <v>3295</v>
+        <v>3360</v>
       </c>
       <c r="E49" t="n">
-        <v>9816691.710000001</v>
+        <v>8342993.950000001</v>
       </c>
       <c r="F49" t="n">
-        <v>5409</v>
+        <v>5550</v>
       </c>
       <c r="G49" t="n">
-        <v>75055378.37</v>
+        <v>46785359.01</v>
       </c>
       <c r="H49" t="n">
-        <v>1290998</v>
+        <v>1285830</v>
       </c>
       <c r="I49" t="n">
-        <v>3375</v>
+        <v>3600</v>
       </c>
       <c r="J49" t="n">
-        <v>9659510.379999999</v>
+        <v>8368247.07</v>
       </c>
       <c r="K49" t="n">
-        <v>1606</v>
+        <v>1704</v>
       </c>
       <c r="L49" t="n">
-        <v>5032134.04</v>
+        <v>4624330.84</v>
       </c>
       <c r="M49" t="n">
-        <v>852</v>
+        <v>841</v>
       </c>
       <c r="N49" t="n">
-        <v>2800597.96</v>
+        <v>2320333.67</v>
       </c>
       <c r="O49" t="n">
-        <v>1546</v>
+        <v>1709</v>
       </c>
       <c r="P49" t="n">
-        <v>6066965.5</v>
+        <v>5902476.35</v>
       </c>
       <c r="Q49" t="n">
-        <v>595</v>
+        <v>662</v>
       </c>
       <c r="R49" t="n">
-        <v>1714927.12</v>
+        <v>1961320.11</v>
       </c>
       <c r="S49" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="T49" t="n">
-        <v>901043.52</v>
+        <v>695415.38</v>
       </c>
       <c r="U49" t="n">
-        <v>1367</v>
+        <v>1517</v>
       </c>
       <c r="V49" t="n">
-        <v>48442996.15000001</v>
+        <v>22219205.19</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C50" t="n">
-        <v>322</v>
+        <v>444</v>
       </c>
       <c r="D50" t="n">
-        <v>3145</v>
+        <v>3295</v>
       </c>
       <c r="E50" t="n">
-        <v>9112789.050000001</v>
+        <v>9816691.710000001</v>
       </c>
       <c r="F50" t="n">
-        <v>5052</v>
+        <v>5409</v>
       </c>
       <c r="G50" t="n">
-        <v>63121962.7</v>
+        <v>75055378.37</v>
       </c>
       <c r="H50" t="n">
-        <v>1197709</v>
+        <v>1290998</v>
       </c>
       <c r="I50" t="n">
-        <v>2689</v>
+        <v>3375</v>
       </c>
       <c r="J50" t="n">
-        <v>7180364.5</v>
+        <v>9659510.379999999</v>
       </c>
       <c r="K50" t="n">
-        <v>1577</v>
+        <v>1606</v>
       </c>
       <c r="L50" t="n">
-        <v>4655541.19</v>
+        <v>5032134.04</v>
       </c>
       <c r="M50" t="n">
-        <v>827</v>
+        <v>852</v>
       </c>
       <c r="N50" t="n">
-        <v>1862349.81</v>
+        <v>2800597.96</v>
       </c>
       <c r="O50" t="n">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="P50" t="n">
-        <v>4004480.01</v>
+        <v>6066965.5</v>
       </c>
       <c r="Q50" t="n">
-        <v>574</v>
+        <v>595</v>
       </c>
       <c r="R50" t="n">
-        <v>2679082.91</v>
+        <v>1714927.12</v>
       </c>
       <c r="S50" t="n">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="T50" t="n">
-        <v>926680.67</v>
+        <v>901043.52</v>
       </c>
       <c r="U50" t="n">
-        <v>1425</v>
+        <v>1367</v>
       </c>
       <c r="V50" t="n">
-        <v>40845720.43</v>
+        <v>48442996.15000001</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="D51" t="n">
-        <v>3069</v>
+        <v>3145</v>
       </c>
       <c r="E51" t="n">
-        <v>8691423.280000001</v>
+        <v>9112789.050000001</v>
       </c>
       <c r="F51" t="n">
-        <v>4971</v>
+        <v>5052</v>
       </c>
       <c r="G51" t="n">
-        <v>63268853.19</v>
+        <v>63121962.7</v>
       </c>
       <c r="H51" t="n">
-        <v>1237451</v>
+        <v>1197709</v>
       </c>
       <c r="I51" t="n">
-        <v>2683</v>
+        <v>2689</v>
       </c>
       <c r="J51" t="n">
-        <v>6062109.31</v>
+        <v>7180364.5</v>
       </c>
       <c r="K51" t="n">
-        <v>1610</v>
+        <v>1577</v>
       </c>
       <c r="L51" t="n">
-        <v>4189778.45</v>
+        <v>4655541.19</v>
       </c>
       <c r="M51" t="n">
-        <v>788</v>
+        <v>827</v>
       </c>
       <c r="N51" t="n">
-        <v>1749048.36</v>
+        <v>1862349.81</v>
       </c>
       <c r="O51" t="n">
-        <v>1464</v>
+        <v>1545</v>
       </c>
       <c r="P51" t="n">
-        <v>4254741.33</v>
+        <v>4004480.01</v>
       </c>
       <c r="Q51" t="n">
-        <v>591</v>
+        <v>574</v>
       </c>
       <c r="R51" t="n">
-        <v>2597890.23</v>
+        <v>2679082.91</v>
       </c>
       <c r="S51" t="n">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="T51" t="n">
-        <v>694063.73</v>
+        <v>926680.67</v>
       </c>
       <c r="U51" t="n">
-        <v>1307</v>
+        <v>1425</v>
       </c>
       <c r="V51" t="n">
-        <v>43369193.88</v>
+        <v>40845720.43</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
+          <t>2025-04-29</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>2</v>
+      </c>
+      <c r="C52" t="n">
+        <v>352</v>
+      </c>
+      <c r="D52" t="n">
+        <v>3069</v>
+      </c>
+      <c r="E52" t="n">
+        <v>8691423.280000001</v>
+      </c>
+      <c r="F52" t="n">
+        <v>4971</v>
+      </c>
+      <c r="G52" t="n">
+        <v>63268853.19</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1237451</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2683</v>
+      </c>
+      <c r="J52" t="n">
+        <v>6062109.31</v>
+      </c>
+      <c r="K52" t="n">
+        <v>1610</v>
+      </c>
+      <c r="L52" t="n">
+        <v>4189778.45</v>
+      </c>
+      <c r="M52" t="n">
+        <v>788</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1749048.36</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1464</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4254741.33</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>591</v>
+      </c>
+      <c r="R52" t="n">
+        <v>2597890.23</v>
+      </c>
+      <c r="S52" t="n">
+        <v>249</v>
+      </c>
+      <c r="T52" t="n">
+        <v>694063.73</v>
+      </c>
+      <c r="U52" t="n">
+        <v>1307</v>
+      </c>
+      <c r="V52" t="n">
+        <v>43369193.88</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
           <t>2025-04-30</t>
         </is>
       </c>
-      <c r="B52" t="n">
+      <c r="B53" t="n">
         <v>3</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C53" t="n">
         <v>294</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D53" t="n">
         <v>2880</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E53" t="n">
         <v>7064509.43</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F53" t="n">
         <v>4880</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G53" t="n">
         <v>47410985.92</v>
       </c>
-      <c r="H52" t="n">
+      <c r="H53" t="n">
         <v>1265717</v>
       </c>
-      <c r="I52" t="n">
+      <c r="I53" t="n">
         <v>2664</v>
       </c>
-      <c r="J52" t="n">
+      <c r="J53" t="n">
         <v>5331646.86</v>
       </c>
-      <c r="K52" t="n">
+      <c r="K53" t="n">
         <v>1516</v>
       </c>
-      <c r="L52" t="n">
+      <c r="L53" t="n">
         <v>4335508.72</v>
       </c>
-      <c r="M52" t="n">
+      <c r="M53" t="n">
         <v>786</v>
       </c>
-      <c r="N52" t="n">
+      <c r="N53" t="n">
         <v>1874787.82</v>
       </c>
-      <c r="O52" t="n">
+      <c r="O53" t="n">
         <v>1500</v>
       </c>
-      <c r="P52" t="n">
+      <c r="P53" t="n">
         <v>5375700.46</v>
       </c>
-      <c r="Q52" t="n">
+      <c r="Q53" t="n">
         <v>578</v>
       </c>
-      <c r="R52" t="n">
+      <c r="R53" t="n">
         <v>2263138.45</v>
       </c>
-      <c r="S52" t="n">
+      <c r="S53" t="n">
         <v>291</v>
       </c>
-      <c r="T52" t="n">
+      <c r="T53" t="n">
         <v>1034616.43</v>
       </c>
-      <c r="U52" t="n">
+      <c r="U53" t="n">
         <v>1265</v>
       </c>
-      <c r="V52" t="n">
+      <c r="V53" t="n">
         <v>26820105.58000001</v>
       </c>
     </row>

--- a/3_分析/2_摩根-好博数据分析/好博体育/平台数据/平台数据.xlsx
+++ b/3_分析/2_摩根-好博数据分析/好博体育/平台数据/平台数据.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V53"/>
+  <dimension ref="A1:V54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2037,28 +2037,28 @@
         <v>4826</v>
       </c>
       <c r="G23" t="n">
-        <v>65817145.18000001</v>
+        <v>65860975.15</v>
       </c>
       <c r="H23" t="n">
-        <v>1241010</v>
+        <v>1241176</v>
       </c>
       <c r="I23" t="n">
         <v>2476</v>
       </c>
       <c r="J23" t="n">
-        <v>7307803.72</v>
+        <v>7308220.99</v>
       </c>
       <c r="K23" t="n">
         <v>1374</v>
       </c>
       <c r="L23" t="n">
-        <v>4640383.82</v>
+        <v>4642263.350000001</v>
       </c>
       <c r="M23" t="n">
-        <v>951</v>
+        <v>963</v>
       </c>
       <c r="N23" t="n">
-        <v>2687346.82</v>
+        <v>2720097.86</v>
       </c>
       <c r="O23" t="n">
         <v>1520</v>
@@ -2088,2100 +2088,2170 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C24" t="n">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="D24" t="n">
-        <v>2967</v>
+        <v>2956</v>
       </c>
       <c r="E24" t="n">
-        <v>8745061.789999999</v>
+        <v>9062695</v>
       </c>
       <c r="F24" t="n">
-        <v>4597</v>
+        <v>4938</v>
       </c>
       <c r="G24" t="n">
-        <v>37785041.94</v>
+        <v>42624608.51</v>
       </c>
       <c r="H24" t="n">
-        <v>1455879</v>
+        <v>1281790</v>
       </c>
       <c r="I24" t="n">
-        <v>2370</v>
+        <v>2599</v>
       </c>
       <c r="J24" t="n">
-        <v>5538221.63</v>
+        <v>7480194.3</v>
       </c>
       <c r="K24" t="n">
-        <v>1328</v>
+        <v>1430</v>
       </c>
       <c r="L24" t="n">
-        <v>3412998.73</v>
+        <v>5219925.95</v>
       </c>
       <c r="M24" t="n">
-        <v>644</v>
+        <v>746</v>
       </c>
       <c r="N24" t="n">
-        <v>1383137.78</v>
+        <v>1697595.15</v>
       </c>
       <c r="O24" t="n">
-        <v>1679</v>
+        <v>1500</v>
       </c>
       <c r="P24" t="n">
-        <v>4161886.08</v>
+        <v>4725978.44</v>
       </c>
       <c r="Q24" t="n">
-        <v>547</v>
+        <v>598</v>
       </c>
       <c r="R24" t="n">
-        <v>1902132.05</v>
+        <v>1990765.3</v>
       </c>
       <c r="S24" t="n">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="T24" t="n">
-        <v>644964.6</v>
+        <v>617971.24</v>
       </c>
       <c r="U24" t="n">
-        <v>1275</v>
+        <v>1294</v>
       </c>
       <c r="V24" t="n">
-        <v>20088856.17</v>
+        <v>20574997.73</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>453</v>
+        <v>341</v>
       </c>
       <c r="D25" t="n">
-        <v>2979</v>
+        <v>2967</v>
       </c>
       <c r="E25" t="n">
-        <v>8614113.84</v>
+        <v>8745061.789999999</v>
       </c>
       <c r="F25" t="n">
-        <v>4721</v>
+        <v>4597</v>
       </c>
       <c r="G25" t="n">
-        <v>50662133.8</v>
+        <v>37785041.94</v>
       </c>
       <c r="H25" t="n">
-        <v>1434491</v>
+        <v>1455879</v>
       </c>
       <c r="I25" t="n">
-        <v>2639</v>
+        <v>2370</v>
       </c>
       <c r="J25" t="n">
-        <v>8064759.029999999</v>
+        <v>5538221.63</v>
       </c>
       <c r="K25" t="n">
-        <v>1239</v>
+        <v>1328</v>
       </c>
       <c r="L25" t="n">
-        <v>3294313.16</v>
+        <v>3412998.73</v>
       </c>
       <c r="M25" t="n">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="N25" t="n">
-        <v>1311906.3</v>
+        <v>1383137.78</v>
       </c>
       <c r="O25" t="n">
-        <v>1670</v>
+        <v>1679</v>
       </c>
       <c r="P25" t="n">
-        <v>3852527.03</v>
+        <v>4161886.08</v>
       </c>
       <c r="Q25" t="n">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="R25" t="n">
-        <v>1294490.98</v>
+        <v>1902132.05</v>
       </c>
       <c r="S25" t="n">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="T25" t="n">
-        <v>542360.6</v>
+        <v>644964.6</v>
       </c>
       <c r="U25" t="n">
-        <v>1197</v>
+        <v>1275</v>
       </c>
       <c r="V25" t="n">
-        <v>31862106.4</v>
+        <v>20088856.17</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26" t="n">
-        <v>350</v>
+        <v>453</v>
       </c>
       <c r="D26" t="n">
-        <v>2804</v>
+        <v>2979</v>
       </c>
       <c r="E26" t="n">
-        <v>6972978.1</v>
+        <v>8614113.84</v>
       </c>
       <c r="F26" t="n">
-        <v>4581</v>
+        <v>4721</v>
       </c>
       <c r="G26" t="n">
-        <v>48182983.93</v>
+        <v>50662133.8</v>
       </c>
       <c r="H26" t="n">
-        <v>1464026</v>
+        <v>1434491</v>
       </c>
       <c r="I26" t="n">
-        <v>2376</v>
+        <v>2639</v>
       </c>
       <c r="J26" t="n">
-        <v>6208711.97</v>
+        <v>8064759.029999999</v>
       </c>
       <c r="K26" t="n">
-        <v>1267</v>
+        <v>1239</v>
       </c>
       <c r="L26" t="n">
-        <v>3412022.75</v>
+        <v>3294313.16</v>
       </c>
       <c r="M26" t="n">
-        <v>676</v>
+        <v>650</v>
       </c>
       <c r="N26" t="n">
-        <v>1491987.35</v>
+        <v>1311906.3</v>
       </c>
       <c r="O26" t="n">
-        <v>1652</v>
+        <v>1670</v>
       </c>
       <c r="P26" t="n">
-        <v>4984581.39</v>
+        <v>3852527.03</v>
       </c>
       <c r="Q26" t="n">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="R26" t="n">
-        <v>1445159.79</v>
+        <v>1294490.98</v>
       </c>
       <c r="S26" t="n">
-        <v>325</v>
+        <v>288</v>
       </c>
       <c r="T26" t="n">
-        <v>714032.65</v>
+        <v>542360.6</v>
       </c>
       <c r="U26" t="n">
-        <v>1156</v>
+        <v>1197</v>
       </c>
       <c r="V26" t="n">
-        <v>29024400.73</v>
+        <v>31862106.4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D27" t="n">
-        <v>2622</v>
+        <v>2804</v>
       </c>
       <c r="E27" t="n">
-        <v>8003215.4</v>
+        <v>6972978.1</v>
       </c>
       <c r="F27" t="n">
-        <v>4368</v>
+        <v>4581</v>
       </c>
       <c r="G27" t="n">
-        <v>49085188.82</v>
+        <v>48182983.93</v>
       </c>
       <c r="H27" t="n">
-        <v>1302873</v>
+        <v>1464026</v>
       </c>
       <c r="I27" t="n">
-        <v>2189</v>
+        <v>2376</v>
       </c>
       <c r="J27" t="n">
-        <v>5747500.75</v>
+        <v>6208711.97</v>
       </c>
       <c r="K27" t="n">
-        <v>1381</v>
+        <v>1267</v>
       </c>
       <c r="L27" t="n">
-        <v>4657369.89</v>
+        <v>3412022.75</v>
       </c>
       <c r="M27" t="n">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="N27" t="n">
-        <v>1400731.94</v>
+        <v>1491987.35</v>
       </c>
       <c r="O27" t="n">
-        <v>1517</v>
+        <v>1652</v>
       </c>
       <c r="P27" t="n">
-        <v>3839850.69</v>
+        <v>4984581.39</v>
       </c>
       <c r="Q27" t="n">
-        <v>496</v>
+        <v>527</v>
       </c>
       <c r="R27" t="n">
-        <v>1400840.76</v>
+        <v>1445159.79</v>
       </c>
       <c r="S27" t="n">
-        <v>278</v>
+        <v>325</v>
       </c>
       <c r="T27" t="n">
-        <v>553525.36</v>
+        <v>714032.65</v>
       </c>
       <c r="U27" t="n">
-        <v>1106</v>
+        <v>1156</v>
       </c>
       <c r="V27" t="n">
-        <v>28790633.23</v>
+        <v>29024400.73</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>432</v>
+        <v>349</v>
       </c>
       <c r="D28" t="n">
-        <v>3031</v>
+        <v>2622</v>
       </c>
       <c r="E28" t="n">
-        <v>9944754.640000001</v>
+        <v>8003215.4</v>
       </c>
       <c r="F28" t="n">
-        <v>4939</v>
+        <v>4368</v>
       </c>
       <c r="G28" t="n">
-        <v>47055569.84</v>
+        <v>49085188.82</v>
       </c>
       <c r="H28" t="n">
-        <v>1310257</v>
+        <v>1302873</v>
       </c>
       <c r="I28" t="n">
-        <v>3221</v>
+        <v>2189</v>
       </c>
       <c r="J28" t="n">
-        <v>11710552.69</v>
+        <v>5747500.75</v>
       </c>
       <c r="K28" t="n">
-        <v>1421</v>
+        <v>1381</v>
       </c>
       <c r="L28" t="n">
-        <v>4480025.2</v>
+        <v>4657369.89</v>
       </c>
       <c r="M28" t="n">
-        <v>714</v>
+        <v>664</v>
       </c>
       <c r="N28" t="n">
-        <v>2079972.81</v>
+        <v>1400731.94</v>
       </c>
       <c r="O28" t="n">
-        <v>1727</v>
+        <v>1517</v>
       </c>
       <c r="P28" t="n">
-        <v>3810342.77</v>
+        <v>3839850.69</v>
       </c>
       <c r="Q28" t="n">
-        <v>554</v>
+        <v>496</v>
       </c>
       <c r="R28" t="n">
-        <v>1459258.66</v>
+        <v>1400840.76</v>
       </c>
       <c r="S28" t="n">
-        <v>345</v>
+        <v>278</v>
       </c>
       <c r="T28" t="n">
-        <v>523649.86</v>
+        <v>553525.36</v>
       </c>
       <c r="U28" t="n">
-        <v>1307</v>
+        <v>1106</v>
       </c>
       <c r="V28" t="n">
-        <v>21457800.95</v>
+        <v>28790633.23</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" t="n">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="D29" t="n">
-        <v>2901</v>
+        <v>3031</v>
       </c>
       <c r="E29" t="n">
-        <v>8702542.48</v>
+        <v>9944754.640000001</v>
       </c>
       <c r="F29" t="n">
-        <v>4863</v>
+        <v>4939</v>
       </c>
       <c r="G29" t="n">
-        <v>67999768.01000001</v>
+        <v>47055569.84</v>
       </c>
       <c r="H29" t="n">
-        <v>1273026</v>
+        <v>1310257</v>
       </c>
       <c r="I29" t="n">
-        <v>3028</v>
+        <v>3221</v>
       </c>
       <c r="J29" t="n">
-        <v>12217412.29</v>
+        <v>11710552.69</v>
       </c>
       <c r="K29" t="n">
-        <v>1184</v>
+        <v>1421</v>
       </c>
       <c r="L29" t="n">
-        <v>3980025.48</v>
+        <v>4480025.2</v>
       </c>
       <c r="M29" t="n">
-        <v>772</v>
+        <v>714</v>
       </c>
       <c r="N29" t="n">
-        <v>2273411.53</v>
+        <v>2079972.81</v>
       </c>
       <c r="O29" t="n">
-        <v>1608</v>
+        <v>1727</v>
       </c>
       <c r="P29" t="n">
-        <v>4079216.52</v>
+        <v>3810342.77</v>
       </c>
       <c r="Q29" t="n">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="R29" t="n">
-        <v>1371808.85</v>
+        <v>1459258.66</v>
       </c>
       <c r="S29" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="T29" t="n">
-        <v>448603.43</v>
+        <v>523649.86</v>
       </c>
       <c r="U29" t="n">
-        <v>1239</v>
+        <v>1307</v>
       </c>
       <c r="V29" t="n">
-        <v>42554761.41</v>
+        <v>21457800.95</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C30" t="n">
-        <v>381</v>
+        <v>439</v>
       </c>
       <c r="D30" t="n">
-        <v>2855</v>
+        <v>2901</v>
       </c>
       <c r="E30" t="n">
-        <v>9948340.49</v>
+        <v>8702542.48</v>
       </c>
       <c r="F30" t="n">
-        <v>4754</v>
+        <v>4863</v>
       </c>
       <c r="G30" t="n">
-        <v>40252204.51</v>
+        <v>67999768.01000001</v>
       </c>
       <c r="H30" t="n">
-        <v>1344341</v>
+        <v>1273026</v>
       </c>
       <c r="I30" t="n">
-        <v>2413</v>
+        <v>3028</v>
       </c>
       <c r="J30" t="n">
-        <v>7395276.14</v>
+        <v>12217412.29</v>
       </c>
       <c r="K30" t="n">
-        <v>1313</v>
+        <v>1184</v>
       </c>
       <c r="L30" t="n">
-        <v>3650375.36</v>
+        <v>3980025.48</v>
       </c>
       <c r="M30" t="n">
-        <v>891</v>
+        <v>772</v>
       </c>
       <c r="N30" t="n">
-        <v>2472368.05</v>
+        <v>2273411.53</v>
       </c>
       <c r="O30" t="n">
-        <v>1551</v>
+        <v>1608</v>
       </c>
       <c r="P30" t="n">
-        <v>5086127.66</v>
+        <v>4079216.52</v>
       </c>
       <c r="Q30" t="n">
-        <v>612</v>
+        <v>555</v>
       </c>
       <c r="R30" t="n">
-        <v>1324660.61</v>
+        <v>1371808.85</v>
       </c>
       <c r="S30" t="n">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="T30" t="n">
-        <v>386321.07</v>
+        <v>448603.43</v>
       </c>
       <c r="U30" t="n">
-        <v>1342</v>
+        <v>1239</v>
       </c>
       <c r="V30" t="n">
-        <v>19650527.92</v>
+        <v>42554761.41</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D31" t="n">
-        <v>2853</v>
+        <v>2855</v>
       </c>
       <c r="E31" t="n">
-        <v>8306694.470000001</v>
+        <v>9948340.49</v>
       </c>
       <c r="F31" t="n">
-        <v>4641</v>
+        <v>4754</v>
       </c>
       <c r="G31" t="n">
-        <v>44775426.43</v>
+        <v>40252204.51</v>
       </c>
       <c r="H31" t="n">
-        <v>1371233</v>
+        <v>1344341</v>
       </c>
       <c r="I31" t="n">
-        <v>2441</v>
+        <v>2413</v>
       </c>
       <c r="J31" t="n">
-        <v>7056765.74</v>
+        <v>7395276.14</v>
       </c>
       <c r="K31" t="n">
-        <v>1220</v>
+        <v>1313</v>
       </c>
       <c r="L31" t="n">
-        <v>3209716.69</v>
+        <v>3650375.36</v>
       </c>
       <c r="M31" t="n">
-        <v>821</v>
+        <v>891</v>
       </c>
       <c r="N31" t="n">
-        <v>2200379.07</v>
+        <v>2472368.05</v>
       </c>
       <c r="O31" t="n">
-        <v>1534</v>
+        <v>1551</v>
       </c>
       <c r="P31" t="n">
-        <v>4173764.55</v>
+        <v>5086127.66</v>
       </c>
       <c r="Q31" t="n">
-        <v>591</v>
+        <v>612</v>
       </c>
       <c r="R31" t="n">
-        <v>1257066.18</v>
+        <v>1324660.61</v>
       </c>
       <c r="S31" t="n">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="T31" t="n">
-        <v>551972.4300000001</v>
+        <v>386321.07</v>
       </c>
       <c r="U31" t="n">
-        <v>1281</v>
+        <v>1342</v>
       </c>
       <c r="V31" t="n">
-        <v>26181709.67</v>
+        <v>19650527.92</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>418</v>
+        <v>384</v>
       </c>
       <c r="D32" t="n">
-        <v>2958</v>
+        <v>2853</v>
       </c>
       <c r="E32" t="n">
-        <v>9106641.82</v>
+        <v>8306694.470000001</v>
       </c>
       <c r="F32" t="n">
-        <v>4700</v>
+        <v>4641</v>
       </c>
       <c r="G32" t="n">
-        <v>43788898.11</v>
+        <v>44775426.43</v>
       </c>
       <c r="H32" t="n">
-        <v>1256021</v>
+        <v>1371233</v>
       </c>
       <c r="I32" t="n">
-        <v>2738</v>
+        <v>2441</v>
       </c>
       <c r="J32" t="n">
-        <v>8988132.08</v>
+        <v>7056765.74</v>
       </c>
       <c r="K32" t="n">
-        <v>1273</v>
+        <v>1220</v>
       </c>
       <c r="L32" t="n">
-        <v>3726411.11</v>
+        <v>3209716.69</v>
       </c>
       <c r="M32" t="n">
-        <v>792</v>
+        <v>821</v>
       </c>
       <c r="N32" t="n">
-        <v>2017665.9</v>
+        <v>2200379.07</v>
       </c>
       <c r="O32" t="n">
-        <v>1493</v>
+        <v>1534</v>
       </c>
       <c r="P32" t="n">
-        <v>4405449.14</v>
+        <v>4173764.55</v>
       </c>
       <c r="Q32" t="n">
-        <v>536</v>
+        <v>591</v>
       </c>
       <c r="R32" t="n">
-        <v>1219392.84</v>
+        <v>1257066.18</v>
       </c>
       <c r="S32" t="n">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="T32" t="n">
-        <v>512824.43</v>
+        <v>551972.4300000001</v>
       </c>
       <c r="U32" t="n">
-        <v>1227</v>
+        <v>1281</v>
       </c>
       <c r="V32" t="n">
-        <v>22628313.81</v>
+        <v>26181709.67</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C33" t="n">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="D33" t="n">
-        <v>2918</v>
+        <v>2958</v>
       </c>
       <c r="E33" t="n">
-        <v>7740950.439999999</v>
+        <v>9106641.82</v>
       </c>
       <c r="F33" t="n">
-        <v>4751</v>
+        <v>4700</v>
       </c>
       <c r="G33" t="n">
-        <v>35176842.38</v>
+        <v>43788898.11</v>
       </c>
       <c r="H33" t="n">
-        <v>1439707</v>
+        <v>1256021</v>
       </c>
       <c r="I33" t="n">
-        <v>2485</v>
+        <v>2738</v>
       </c>
       <c r="J33" t="n">
-        <v>7954252.75</v>
+        <v>8988132.08</v>
       </c>
       <c r="K33" t="n">
-        <v>1413</v>
+        <v>1273</v>
       </c>
       <c r="L33" t="n">
-        <v>4099669.29</v>
+        <v>3726411.11</v>
       </c>
       <c r="M33" t="n">
-        <v>871</v>
+        <v>792</v>
       </c>
       <c r="N33" t="n">
-        <v>1994841.02</v>
+        <v>2017665.9</v>
       </c>
       <c r="O33" t="n">
-        <v>1599</v>
+        <v>1493</v>
       </c>
       <c r="P33" t="n">
-        <v>4765252.66</v>
+        <v>4405449.14</v>
       </c>
       <c r="Q33" t="n">
-        <v>564</v>
+        <v>536</v>
       </c>
       <c r="R33" t="n">
-        <v>1354783.86</v>
+        <v>1219392.84</v>
       </c>
       <c r="S33" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="T33" t="n">
-        <v>598896.66</v>
+        <v>512824.43</v>
       </c>
       <c r="U33" t="n">
-        <v>1292</v>
+        <v>1227</v>
       </c>
       <c r="V33" t="n">
-        <v>14255459.14</v>
+        <v>22628313.81</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C34" t="n">
-        <v>426</v>
+        <v>403</v>
       </c>
       <c r="D34" t="n">
-        <v>3036</v>
+        <v>2918</v>
       </c>
       <c r="E34" t="n">
-        <v>8909226.42</v>
+        <v>7740950.439999999</v>
       </c>
       <c r="F34" t="n">
-        <v>4713</v>
+        <v>4751</v>
       </c>
       <c r="G34" t="n">
-        <v>42250635.16</v>
+        <v>35176842.38</v>
       </c>
       <c r="H34" t="n">
-        <v>1456140</v>
+        <v>1439707</v>
       </c>
       <c r="I34" t="n">
-        <v>2627</v>
+        <v>2485</v>
       </c>
       <c r="J34" t="n">
-        <v>8463726.210000001</v>
+        <v>7954252.75</v>
       </c>
       <c r="K34" t="n">
-        <v>1376</v>
+        <v>1413</v>
       </c>
       <c r="L34" t="n">
-        <v>4034655.15</v>
+        <v>4099669.29</v>
       </c>
       <c r="M34" t="n">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="N34" t="n">
-        <v>2437635.22</v>
+        <v>1994841.02</v>
       </c>
       <c r="O34" t="n">
-        <v>1547</v>
+        <v>1599</v>
       </c>
       <c r="P34" t="n">
-        <v>4493126.310000001</v>
+        <v>4765252.66</v>
       </c>
       <c r="Q34" t="n">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="R34" t="n">
-        <v>1250653.53</v>
+        <v>1354783.86</v>
       </c>
       <c r="S34" t="n">
-        <v>268</v>
+        <v>321</v>
       </c>
       <c r="T34" t="n">
-        <v>513404.86</v>
+        <v>598896.66</v>
       </c>
       <c r="U34" t="n">
-        <v>1222</v>
+        <v>1292</v>
       </c>
       <c r="V34" t="n">
-        <v>20868985.18</v>
+        <v>14255459.14</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C35" t="n">
-        <v>456</v>
+        <v>426</v>
       </c>
       <c r="D35" t="n">
-        <v>3163</v>
+        <v>3036</v>
       </c>
       <c r="E35" t="n">
-        <v>9096263.450000001</v>
+        <v>8909226.42</v>
       </c>
       <c r="F35" t="n">
-        <v>5174</v>
+        <v>4713</v>
       </c>
       <c r="G35" t="n">
-        <v>42345411.16</v>
+        <v>42250635.16</v>
       </c>
       <c r="H35" t="n">
-        <v>1408519</v>
+        <v>1456140</v>
       </c>
       <c r="I35" t="n">
-        <v>3514</v>
+        <v>2627</v>
       </c>
       <c r="J35" t="n">
-        <v>12940787.25</v>
+        <v>8463726.210000001</v>
       </c>
       <c r="K35" t="n">
-        <v>1443</v>
+        <v>1376</v>
       </c>
       <c r="L35" t="n">
-        <v>4423044.46</v>
+        <v>4034655.15</v>
       </c>
       <c r="M35" t="n">
-        <v>845</v>
+        <v>881</v>
       </c>
       <c r="N35" t="n">
-        <v>2517061.15</v>
+        <v>2437635.22</v>
       </c>
       <c r="O35" t="n">
-        <v>1725</v>
+        <v>1547</v>
       </c>
       <c r="P35" t="n">
-        <v>3795563.26</v>
+        <v>4493126.310000001</v>
       </c>
       <c r="Q35" t="n">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="R35" t="n">
-        <v>1211529.96</v>
+        <v>1250653.53</v>
       </c>
       <c r="S35" t="n">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="T35" t="n">
-        <v>470267.77</v>
+        <v>513404.86</v>
       </c>
       <c r="U35" t="n">
-        <v>1352</v>
+        <v>1222</v>
       </c>
       <c r="V35" t="n">
-        <v>16929838.51</v>
+        <v>20868985.18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C36" t="n">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="D36" t="n">
-        <v>3117</v>
+        <v>3163</v>
       </c>
       <c r="E36" t="n">
-        <v>9290678.15</v>
+        <v>9096263.450000001</v>
       </c>
       <c r="F36" t="n">
-        <v>4979</v>
+        <v>5174</v>
       </c>
       <c r="G36" t="n">
-        <v>39495074.87</v>
+        <v>42345411.16</v>
       </c>
       <c r="H36" t="n">
-        <v>1296083</v>
+        <v>1408519</v>
       </c>
       <c r="I36" t="n">
-        <v>3096</v>
+        <v>3514</v>
       </c>
       <c r="J36" t="n">
-        <v>10439914.2</v>
+        <v>12940787.25</v>
       </c>
       <c r="K36" t="n">
-        <v>1007</v>
+        <v>1443</v>
       </c>
       <c r="L36" t="n">
-        <v>2773273.78</v>
+        <v>4423044.46</v>
       </c>
       <c r="M36" t="n">
-        <v>794</v>
+        <v>845</v>
       </c>
       <c r="N36" t="n">
-        <v>2617961.23</v>
+        <v>2517061.15</v>
       </c>
       <c r="O36" t="n">
-        <v>1645</v>
+        <v>1725</v>
       </c>
       <c r="P36" t="n">
-        <v>4424816.97</v>
+        <v>3795563.26</v>
       </c>
       <c r="Q36" t="n">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="R36" t="n">
-        <v>1433265.22</v>
+        <v>1211529.96</v>
       </c>
       <c r="S36" t="n">
-        <v>238</v>
+        <v>289</v>
       </c>
       <c r="T36" t="n">
-        <v>429606.96</v>
+        <v>470267.77</v>
       </c>
       <c r="U36" t="n">
-        <v>1162</v>
+        <v>1352</v>
       </c>
       <c r="V36" t="n">
-        <v>16944516.11</v>
+        <v>16929838.51</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C37" t="n">
-        <v>376</v>
+        <v>452</v>
       </c>
       <c r="D37" t="n">
-        <v>2859</v>
+        <v>3117</v>
       </c>
       <c r="E37" t="n">
-        <v>8379346.359999999</v>
+        <v>9290678.15</v>
       </c>
       <c r="F37" t="n">
-        <v>4737</v>
+        <v>4979</v>
       </c>
       <c r="G37" t="n">
-        <v>41538214.86</v>
+        <v>39495074.87</v>
       </c>
       <c r="H37" t="n">
-        <v>1389235</v>
+        <v>1296083</v>
       </c>
       <c r="I37" t="n">
-        <v>2602</v>
+        <v>3096</v>
       </c>
       <c r="J37" t="n">
-        <v>7587476.4</v>
+        <v>10439914.2</v>
       </c>
       <c r="K37" t="n">
-        <v>1246</v>
+        <v>1007</v>
       </c>
       <c r="L37" t="n">
-        <v>3597073.21</v>
+        <v>2773273.78</v>
       </c>
       <c r="M37" t="n">
-        <v>809</v>
+        <v>794</v>
       </c>
       <c r="N37" t="n">
-        <v>2249014.13</v>
+        <v>2617961.23</v>
       </c>
       <c r="O37" t="n">
-        <v>1546</v>
+        <v>1645</v>
       </c>
       <c r="P37" t="n">
-        <v>5921735.439999999</v>
+        <v>4424816.97</v>
       </c>
       <c r="Q37" t="n">
-        <v>520</v>
+        <v>596</v>
       </c>
       <c r="R37" t="n">
-        <v>1855070.54</v>
+        <v>1433265.22</v>
       </c>
       <c r="S37" t="n">
-        <v>300</v>
+        <v>238</v>
       </c>
       <c r="T37" t="n">
-        <v>609520.0600000001</v>
+        <v>429606.96</v>
       </c>
       <c r="U37" t="n">
-        <v>1309</v>
+        <v>1162</v>
       </c>
       <c r="V37" t="n">
-        <v>18898098.28</v>
+        <v>16944516.11</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D38" t="n">
-        <v>2832</v>
+        <v>2859</v>
       </c>
       <c r="E38" t="n">
-        <v>7319298.699999999</v>
+        <v>8379346.359999999</v>
       </c>
       <c r="F38" t="n">
-        <v>4704</v>
+        <v>4737</v>
       </c>
       <c r="G38" t="n">
-        <v>42454169.55</v>
+        <v>41538214.86</v>
       </c>
       <c r="H38" t="n">
-        <v>1296726</v>
+        <v>1389235</v>
       </c>
       <c r="I38" t="n">
-        <v>2642</v>
+        <v>2602</v>
       </c>
       <c r="J38" t="n">
-        <v>7308377.16</v>
+        <v>7587476.4</v>
       </c>
       <c r="K38" t="n">
-        <v>1015</v>
+        <v>1246</v>
       </c>
       <c r="L38" t="n">
-        <v>2703408.52</v>
+        <v>3597073.21</v>
       </c>
       <c r="M38" t="n">
-        <v>778</v>
+        <v>809</v>
       </c>
       <c r="N38" t="n">
-        <v>1615850.74</v>
+        <v>2249014.13</v>
       </c>
       <c r="O38" t="n">
-        <v>1536</v>
+        <v>1546</v>
       </c>
       <c r="P38" t="n">
-        <v>3566320.66</v>
+        <v>5921735.439999999</v>
       </c>
       <c r="Q38" t="n">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="R38" t="n">
-        <v>3003927.74</v>
+        <v>1855070.54</v>
       </c>
       <c r="S38" t="n">
-        <v>251</v>
+        <v>300</v>
       </c>
       <c r="T38" t="n">
-        <v>567425.1899999999</v>
+        <v>609520.0600000001</v>
       </c>
       <c r="U38" t="n">
-        <v>1238</v>
+        <v>1309</v>
       </c>
       <c r="V38" t="n">
-        <v>22967413.64</v>
+        <v>18898098.28</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C39" t="n">
-        <v>416</v>
+        <v>379</v>
       </c>
       <c r="D39" t="n">
-        <v>3074</v>
+        <v>2832</v>
       </c>
       <c r="E39" t="n">
-        <v>9934980.559999999</v>
+        <v>7319298.699999999</v>
       </c>
       <c r="F39" t="n">
-        <v>4976</v>
+        <v>4704</v>
       </c>
       <c r="G39" t="n">
-        <v>51688211.24</v>
+        <v>42454169.55</v>
       </c>
       <c r="H39" t="n">
-        <v>1407966</v>
+        <v>1296726</v>
       </c>
       <c r="I39" t="n">
-        <v>2817</v>
+        <v>2642</v>
       </c>
       <c r="J39" t="n">
-        <v>8033459.41</v>
+        <v>7308377.16</v>
       </c>
       <c r="K39" t="n">
-        <v>1468</v>
+        <v>1015</v>
       </c>
       <c r="L39" t="n">
-        <v>4049942.55</v>
+        <v>2703408.52</v>
       </c>
       <c r="M39" t="n">
-        <v>816</v>
+        <v>778</v>
       </c>
       <c r="N39" t="n">
-        <v>2021429.23</v>
+        <v>1615850.74</v>
       </c>
       <c r="O39" t="n">
-        <v>1635</v>
+        <v>1536</v>
       </c>
       <c r="P39" t="n">
-        <v>4675228.27</v>
+        <v>3566320.66</v>
       </c>
       <c r="Q39" t="n">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="R39" t="n">
-        <v>3128824.35</v>
+        <v>3003927.74</v>
       </c>
       <c r="S39" t="n">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="T39" t="n">
-        <v>615731.21</v>
+        <v>567425.1899999999</v>
       </c>
       <c r="U39" t="n">
-        <v>1286</v>
+        <v>1238</v>
       </c>
       <c r="V39" t="n">
-        <v>28256868.32</v>
+        <v>22967413.64</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C40" t="n">
-        <v>374</v>
+        <v>416</v>
       </c>
       <c r="D40" t="n">
-        <v>2962</v>
+        <v>3074</v>
       </c>
       <c r="E40" t="n">
-        <v>8037552.939999999</v>
+        <v>9934980.559999999</v>
       </c>
       <c r="F40" t="n">
-        <v>4865</v>
+        <v>4976</v>
       </c>
       <c r="G40" t="n">
-        <v>47443009.66</v>
+        <v>51688211.24</v>
       </c>
       <c r="H40" t="n">
-        <v>1370631</v>
+        <v>1407966</v>
       </c>
       <c r="I40" t="n">
-        <v>2696</v>
+        <v>2817</v>
       </c>
       <c r="J40" t="n">
-        <v>8495590.439999999</v>
+        <v>8033459.41</v>
       </c>
       <c r="K40" t="n">
-        <v>1333</v>
+        <v>1468</v>
       </c>
       <c r="L40" t="n">
-        <v>3663887.99</v>
+        <v>4049942.55</v>
       </c>
       <c r="M40" t="n">
-        <v>835</v>
+        <v>816</v>
       </c>
       <c r="N40" t="n">
-        <v>2022285.91</v>
+        <v>2021429.23</v>
       </c>
       <c r="O40" t="n">
-        <v>1610</v>
+        <v>1635</v>
       </c>
       <c r="P40" t="n">
-        <v>3987230.38</v>
+        <v>4675228.27</v>
       </c>
       <c r="Q40" t="n">
         <v>534</v>
       </c>
       <c r="R40" t="n">
-        <v>2377786.26</v>
+        <v>3128824.35</v>
       </c>
       <c r="S40" t="n">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="T40" t="n">
-        <v>580577.76</v>
+        <v>615731.21</v>
       </c>
       <c r="U40" t="n">
-        <v>1233</v>
+        <v>1286</v>
       </c>
       <c r="V40" t="n">
-        <v>25124492.22</v>
+        <v>28256868.32</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C41" t="n">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="D41" t="n">
-        <v>3060</v>
+        <v>2962</v>
       </c>
       <c r="E41" t="n">
-        <v>7786716.59</v>
+        <v>8037552.939999999</v>
       </c>
       <c r="F41" t="n">
-        <v>4971</v>
+        <v>4865</v>
       </c>
       <c r="G41" t="n">
-        <v>63104551.11</v>
+        <v>47443009.66</v>
       </c>
       <c r="H41" t="n">
-        <v>1365425</v>
+        <v>1370631</v>
       </c>
       <c r="I41" t="n">
-        <v>2863</v>
+        <v>2696</v>
       </c>
       <c r="J41" t="n">
-        <v>10340536.11</v>
+        <v>8495590.439999999</v>
       </c>
       <c r="K41" t="n">
-        <v>900</v>
+        <v>1333</v>
       </c>
       <c r="L41" t="n">
-        <v>2068150.43</v>
+        <v>3663887.99</v>
       </c>
       <c r="M41" t="n">
-        <v>788</v>
+        <v>835</v>
       </c>
       <c r="N41" t="n">
-        <v>2257059.76</v>
+        <v>2022285.91</v>
       </c>
       <c r="O41" t="n">
-        <v>1574</v>
+        <v>1610</v>
       </c>
       <c r="P41" t="n">
-        <v>6498198.09</v>
+        <v>3987230.38</v>
       </c>
       <c r="Q41" t="n">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="R41" t="n">
-        <v>1835230.92</v>
+        <v>2377786.26</v>
       </c>
       <c r="S41" t="n">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="T41" t="n">
-        <v>572338.59</v>
+        <v>580577.76</v>
       </c>
       <c r="U41" t="n">
-        <v>1311</v>
+        <v>1233</v>
       </c>
       <c r="V41" t="n">
-        <v>39325091.11</v>
+        <v>25124492.22</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C42" t="n">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="D42" t="n">
-        <v>3034</v>
+        <v>3060</v>
       </c>
       <c r="E42" t="n">
-        <v>11834332.58</v>
+        <v>7786716.59</v>
       </c>
       <c r="F42" t="n">
-        <v>5165</v>
+        <v>4971</v>
       </c>
       <c r="G42" t="n">
-        <v>84186793.55</v>
+        <v>63104551.11</v>
       </c>
       <c r="H42" t="n">
-        <v>1327567</v>
+        <v>1365425</v>
       </c>
       <c r="I42" t="n">
-        <v>3514</v>
+        <v>2863</v>
       </c>
       <c r="J42" t="n">
-        <v>13228899.27</v>
+        <v>10340536.11</v>
       </c>
       <c r="K42" t="n">
-        <v>1356</v>
+        <v>900</v>
       </c>
       <c r="L42" t="n">
-        <v>3849636.1</v>
+        <v>2068150.43</v>
       </c>
       <c r="M42" t="n">
-        <v>835</v>
+        <v>788</v>
       </c>
       <c r="N42" t="n">
-        <v>2344933.95</v>
+        <v>2257059.76</v>
       </c>
       <c r="O42" t="n">
-        <v>1681</v>
+        <v>1574</v>
       </c>
       <c r="P42" t="n">
-        <v>6324413.82</v>
+        <v>6498198.09</v>
       </c>
       <c r="Q42" t="n">
-        <v>572</v>
+        <v>530</v>
       </c>
       <c r="R42" t="n">
-        <v>1860081.16</v>
+        <v>1835230.92</v>
       </c>
       <c r="S42" t="n">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="T42" t="n">
-        <v>506666.89</v>
+        <v>572338.59</v>
       </c>
       <c r="U42" t="n">
-        <v>1390</v>
+        <v>1311</v>
       </c>
       <c r="V42" t="n">
-        <v>55709296.36</v>
+        <v>39325091.11</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C43" t="n">
-        <v>468</v>
+        <v>405</v>
       </c>
       <c r="D43" t="n">
-        <v>3180</v>
+        <v>3034</v>
       </c>
       <c r="E43" t="n">
-        <v>10011995.57</v>
+        <v>11834332.58</v>
       </c>
       <c r="F43" t="n">
-        <v>5204</v>
+        <v>5165</v>
       </c>
       <c r="G43" t="n">
-        <v>67075896.16999999</v>
+        <v>84186793.55</v>
       </c>
       <c r="H43" t="n">
-        <v>1320064</v>
+        <v>1327567</v>
       </c>
       <c r="I43" t="n">
-        <v>3249</v>
+        <v>3514</v>
       </c>
       <c r="J43" t="n">
-        <v>12547112.6</v>
+        <v>13228899.27</v>
       </c>
       <c r="K43" t="n">
-        <v>1484</v>
+        <v>1356</v>
       </c>
       <c r="L43" t="n">
-        <v>4746614.72</v>
+        <v>3849636.1</v>
       </c>
       <c r="M43" t="n">
-        <v>854</v>
+        <v>835</v>
       </c>
       <c r="N43" t="n">
-        <v>2507676.87</v>
+        <v>2344933.95</v>
       </c>
       <c r="O43" t="n">
-        <v>1635</v>
+        <v>1681</v>
       </c>
       <c r="P43" t="n">
-        <v>4521265.82</v>
+        <v>6324413.82</v>
       </c>
       <c r="Q43" t="n">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="R43" t="n">
-        <v>2755636.68</v>
+        <v>1860081.16</v>
       </c>
       <c r="S43" t="n">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="T43" t="n">
-        <v>564973.9299999999</v>
+        <v>506666.89</v>
       </c>
       <c r="U43" t="n">
-        <v>1264</v>
+        <v>1390</v>
       </c>
       <c r="V43" t="n">
-        <v>38241335.65</v>
+        <v>55709296.36</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C44" t="n">
-        <v>373</v>
+        <v>468</v>
       </c>
       <c r="D44" t="n">
-        <v>3037</v>
+        <v>3180</v>
       </c>
       <c r="E44" t="n">
-        <v>9666580.58</v>
+        <v>10011995.57</v>
       </c>
       <c r="F44" t="n">
-        <v>5027</v>
+        <v>5204</v>
       </c>
       <c r="G44" t="n">
-        <v>63773024.59999999</v>
+        <v>67075896.16999999</v>
       </c>
       <c r="H44" t="n">
-        <v>1258823</v>
+        <v>1320064</v>
       </c>
       <c r="I44" t="n">
-        <v>2875</v>
+        <v>3249</v>
       </c>
       <c r="J44" t="n">
-        <v>6920266.189999999</v>
+        <v>12547112.6</v>
       </c>
       <c r="K44" t="n">
-        <v>1542</v>
+        <v>1484</v>
       </c>
       <c r="L44" t="n">
-        <v>3696443.29</v>
+        <v>4746614.72</v>
       </c>
       <c r="M44" t="n">
-        <v>933</v>
+        <v>854</v>
       </c>
       <c r="N44" t="n">
-        <v>2690307.8</v>
+        <v>2507676.87</v>
       </c>
       <c r="O44" t="n">
-        <v>1515</v>
+        <v>1635</v>
       </c>
       <c r="P44" t="n">
-        <v>4582515.05</v>
+        <v>4521265.82</v>
       </c>
       <c r="Q44" t="n">
-        <v>564</v>
+        <v>585</v>
       </c>
       <c r="R44" t="n">
-        <v>1797997.75</v>
+        <v>2755636.68</v>
       </c>
       <c r="S44" t="n">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="T44" t="n">
-        <v>528334.64</v>
+        <v>564973.9299999999</v>
       </c>
       <c r="U44" t="n">
-        <v>1381</v>
+        <v>1264</v>
       </c>
       <c r="V44" t="n">
-        <v>43178121.18</v>
+        <v>38241335.65</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>436</v>
+        <v>373</v>
       </c>
       <c r="D45" t="n">
-        <v>3078</v>
+        <v>3037</v>
       </c>
       <c r="E45" t="n">
-        <v>7868649.09</v>
+        <v>9666580.58</v>
       </c>
       <c r="F45" t="n">
-        <v>4915</v>
+        <v>5027</v>
       </c>
       <c r="G45" t="n">
-        <v>58020559.12</v>
+        <v>63773024.59999999</v>
       </c>
       <c r="H45" t="n">
-        <v>1314541</v>
+        <v>1258823</v>
       </c>
       <c r="I45" t="n">
-        <v>2689</v>
+        <v>2875</v>
       </c>
       <c r="J45" t="n">
-        <v>6449122.89</v>
+        <v>6920266.189999999</v>
       </c>
       <c r="K45" t="n">
-        <v>1359</v>
+        <v>1542</v>
       </c>
       <c r="L45" t="n">
-        <v>2945070.06</v>
+        <v>3696443.29</v>
       </c>
       <c r="M45" t="n">
-        <v>905</v>
+        <v>933</v>
       </c>
       <c r="N45" t="n">
-        <v>2115821.36</v>
+        <v>2690307.8</v>
       </c>
       <c r="O45" t="n">
-        <v>1599</v>
+        <v>1515</v>
       </c>
       <c r="P45" t="n">
-        <v>5060796.92</v>
+        <v>4582515.05</v>
       </c>
       <c r="Q45" t="n">
-        <v>613</v>
+        <v>564</v>
       </c>
       <c r="R45" t="n">
-        <v>2296501.35</v>
+        <v>1797997.75</v>
       </c>
       <c r="S45" t="n">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="T45" t="n">
-        <v>691604.65</v>
+        <v>528334.64</v>
       </c>
       <c r="U45" t="n">
-        <v>1373</v>
+        <v>1381</v>
       </c>
       <c r="V45" t="n">
-        <v>37118843.69</v>
+        <v>43178121.18</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C46" t="n">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="D46" t="n">
-        <v>3260</v>
+        <v>3078</v>
       </c>
       <c r="E46" t="n">
-        <v>8684887.08</v>
+        <v>7868649.09</v>
       </c>
       <c r="F46" t="n">
-        <v>5079</v>
+        <v>4915</v>
       </c>
       <c r="G46" t="n">
-        <v>60706390.65</v>
+        <v>58020559.12</v>
       </c>
       <c r="H46" t="n">
-        <v>1374941</v>
+        <v>1314541</v>
       </c>
       <c r="I46" t="n">
-        <v>2762</v>
+        <v>2689</v>
       </c>
       <c r="J46" t="n">
-        <v>6005497.56</v>
+        <v>6449122.89</v>
       </c>
       <c r="K46" t="n">
-        <v>1567</v>
+        <v>1359</v>
       </c>
       <c r="L46" t="n">
-        <v>4041871.38</v>
+        <v>2945070.06</v>
       </c>
       <c r="M46" t="n">
-        <v>825</v>
+        <v>905</v>
       </c>
       <c r="N46" t="n">
-        <v>1933829.4</v>
+        <v>2115821.36</v>
       </c>
       <c r="O46" t="n">
-        <v>1591</v>
+        <v>1599</v>
       </c>
       <c r="P46" t="n">
-        <v>4499424.26</v>
+        <v>5060796.92</v>
       </c>
       <c r="Q46" t="n">
-        <v>578</v>
+        <v>613</v>
       </c>
       <c r="R46" t="n">
-        <v>2019173</v>
+        <v>2296501.35</v>
       </c>
       <c r="S46" t="n">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="T46" t="n">
-        <v>633415.98</v>
+        <v>691604.65</v>
       </c>
       <c r="U46" t="n">
-        <v>1352</v>
+        <v>1373</v>
       </c>
       <c r="V46" t="n">
-        <v>40733408.17</v>
+        <v>37118843.69</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C47" t="n">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="D47" t="n">
-        <v>3127</v>
+        <v>3260</v>
       </c>
       <c r="E47" t="n">
-        <v>8272329.27</v>
+        <v>8684887.08</v>
       </c>
       <c r="F47" t="n">
-        <v>5013</v>
+        <v>5079</v>
       </c>
       <c r="G47" t="n">
-        <v>48808909.8</v>
+        <v>60706390.65</v>
       </c>
       <c r="H47" t="n">
-        <v>1450129</v>
+        <v>1374941</v>
       </c>
       <c r="I47" t="n">
-        <v>2633</v>
+        <v>2762</v>
       </c>
       <c r="J47" t="n">
-        <v>6394646.83</v>
+        <v>6005497.56</v>
       </c>
       <c r="K47" t="n">
-        <v>1446</v>
+        <v>1567</v>
       </c>
       <c r="L47" t="n">
-        <v>3879082.44</v>
+        <v>4041871.38</v>
       </c>
       <c r="M47" t="n">
-        <v>840</v>
+        <v>825</v>
       </c>
       <c r="N47" t="n">
-        <v>2102847.62</v>
+        <v>1933829.4</v>
       </c>
       <c r="O47" t="n">
-        <v>1529</v>
+        <v>1591</v>
       </c>
       <c r="P47" t="n">
-        <v>4369770.680000001</v>
+        <v>4499424.26</v>
       </c>
       <c r="Q47" t="n">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="R47" t="n">
-        <v>1973424.36</v>
+        <v>2019173</v>
       </c>
       <c r="S47" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="T47" t="n">
-        <v>555135.74</v>
+        <v>633415.98</v>
       </c>
       <c r="U47" t="n">
-        <v>1382</v>
+        <v>1352</v>
       </c>
       <c r="V47" t="n">
-        <v>27975234.63</v>
+        <v>40733408.17</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C48" t="n">
-        <v>437</v>
+        <v>406</v>
       </c>
       <c r="D48" t="n">
-        <v>3232</v>
+        <v>3127</v>
       </c>
       <c r="E48" t="n">
-        <v>9037888.720000001</v>
+        <v>8272329.27</v>
       </c>
       <c r="F48" t="n">
-        <v>5190</v>
+        <v>5013</v>
       </c>
       <c r="G48" t="n">
-        <v>108233776.14</v>
+        <v>48808909.8</v>
       </c>
       <c r="H48" t="n">
-        <v>1351029</v>
+        <v>1450129</v>
       </c>
       <c r="I48" t="n">
-        <v>2978</v>
+        <v>2633</v>
       </c>
       <c r="J48" t="n">
-        <v>7332714.75</v>
+        <v>6394646.83</v>
       </c>
       <c r="K48" t="n">
-        <v>1434</v>
+        <v>1446</v>
       </c>
       <c r="L48" t="n">
-        <v>3953901.8</v>
+        <v>3879082.44</v>
       </c>
       <c r="M48" t="n">
-        <v>864</v>
+        <v>840</v>
       </c>
       <c r="N48" t="n">
-        <v>2534806.82</v>
+        <v>2102847.62</v>
       </c>
       <c r="O48" t="n">
-        <v>1558</v>
+        <v>1529</v>
       </c>
       <c r="P48" t="n">
-        <v>5474438.59</v>
+        <v>4369770.680000001</v>
       </c>
       <c r="Q48" t="n">
-        <v>622</v>
+        <v>593</v>
       </c>
       <c r="R48" t="n">
-        <v>2458061.04</v>
+        <v>1973424.36</v>
       </c>
       <c r="S48" t="n">
-        <v>223</v>
+        <v>268</v>
       </c>
       <c r="T48" t="n">
-        <v>582592.58</v>
+        <v>555135.74</v>
       </c>
       <c r="U48" t="n">
-        <v>1319</v>
+        <v>1382</v>
       </c>
       <c r="V48" t="n">
-        <v>85037260.66</v>
+        <v>27975234.63</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-04-26</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C49" t="n">
-        <v>401</v>
+        <v>437</v>
       </c>
       <c r="D49" t="n">
-        <v>3360</v>
+        <v>3232</v>
       </c>
       <c r="E49" t="n">
-        <v>8342993.950000001</v>
+        <v>9037888.720000001</v>
       </c>
       <c r="F49" t="n">
-        <v>5550</v>
+        <v>5190</v>
       </c>
       <c r="G49" t="n">
-        <v>46785359.01</v>
+        <v>108233776.14</v>
       </c>
       <c r="H49" t="n">
-        <v>1285830</v>
+        <v>1351029</v>
       </c>
       <c r="I49" t="n">
-        <v>3600</v>
+        <v>2978</v>
       </c>
       <c r="J49" t="n">
-        <v>8368247.07</v>
+        <v>7332714.75</v>
       </c>
       <c r="K49" t="n">
-        <v>1704</v>
+        <v>1434</v>
       </c>
       <c r="L49" t="n">
-        <v>4624330.84</v>
+        <v>3953901.8</v>
       </c>
       <c r="M49" t="n">
-        <v>841</v>
+        <v>864</v>
       </c>
       <c r="N49" t="n">
-        <v>2320333.67</v>
+        <v>2534806.82</v>
       </c>
       <c r="O49" t="n">
-        <v>1709</v>
+        <v>1558</v>
       </c>
       <c r="P49" t="n">
-        <v>5902476.35</v>
+        <v>5474438.59</v>
       </c>
       <c r="Q49" t="n">
-        <v>662</v>
+        <v>622</v>
       </c>
       <c r="R49" t="n">
-        <v>1961320.11</v>
+        <v>2458061.04</v>
       </c>
       <c r="S49" t="n">
-        <v>260</v>
+        <v>223</v>
       </c>
       <c r="T49" t="n">
-        <v>695415.38</v>
+        <v>582592.58</v>
       </c>
       <c r="U49" t="n">
-        <v>1517</v>
+        <v>1319</v>
       </c>
       <c r="V49" t="n">
-        <v>22219205.19</v>
+        <v>85037260.66</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C50" t="n">
-        <v>444</v>
+        <v>401</v>
       </c>
       <c r="D50" t="n">
-        <v>3295</v>
+        <v>3360</v>
       </c>
       <c r="E50" t="n">
-        <v>9816691.710000001</v>
+        <v>8342993.950000001</v>
       </c>
       <c r="F50" t="n">
-        <v>5409</v>
+        <v>5550</v>
       </c>
       <c r="G50" t="n">
-        <v>75055378.37</v>
+        <v>46785359.01</v>
       </c>
       <c r="H50" t="n">
-        <v>1290998</v>
+        <v>1285830</v>
       </c>
       <c r="I50" t="n">
-        <v>3375</v>
+        <v>3600</v>
       </c>
       <c r="J50" t="n">
-        <v>9659510.379999999</v>
+        <v>8368247.07</v>
       </c>
       <c r="K50" t="n">
-        <v>1606</v>
+        <v>1704</v>
       </c>
       <c r="L50" t="n">
-        <v>5032134.04</v>
+        <v>4624330.84</v>
       </c>
       <c r="M50" t="n">
-        <v>852</v>
+        <v>841</v>
       </c>
       <c r="N50" t="n">
-        <v>2800597.96</v>
+        <v>2320333.67</v>
       </c>
       <c r="O50" t="n">
-        <v>1546</v>
+        <v>1709</v>
       </c>
       <c r="P50" t="n">
-        <v>6066965.5</v>
+        <v>5902476.35</v>
       </c>
       <c r="Q50" t="n">
-        <v>595</v>
+        <v>662</v>
       </c>
       <c r="R50" t="n">
-        <v>1714927.12</v>
+        <v>1961320.11</v>
       </c>
       <c r="S50" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="T50" t="n">
-        <v>901043.52</v>
+        <v>695415.38</v>
       </c>
       <c r="U50" t="n">
-        <v>1367</v>
+        <v>1517</v>
       </c>
       <c r="V50" t="n">
-        <v>48442996.15000001</v>
+        <v>22219205.19</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C51" t="n">
-        <v>322</v>
+        <v>444</v>
       </c>
       <c r="D51" t="n">
-        <v>3145</v>
+        <v>3295</v>
       </c>
       <c r="E51" t="n">
-        <v>9112789.050000001</v>
+        <v>9816691.710000001</v>
       </c>
       <c r="F51" t="n">
-        <v>5052</v>
+        <v>5409</v>
       </c>
       <c r="G51" t="n">
-        <v>63121962.7</v>
+        <v>75055378.37</v>
       </c>
       <c r="H51" t="n">
-        <v>1197709</v>
+        <v>1290998</v>
       </c>
       <c r="I51" t="n">
-        <v>2689</v>
+        <v>3375</v>
       </c>
       <c r="J51" t="n">
-        <v>7180364.5</v>
+        <v>9659510.379999999</v>
       </c>
       <c r="K51" t="n">
-        <v>1577</v>
+        <v>1606</v>
       </c>
       <c r="L51" t="n">
-        <v>4655541.19</v>
+        <v>5032134.04</v>
       </c>
       <c r="M51" t="n">
-        <v>827</v>
+        <v>852</v>
       </c>
       <c r="N51" t="n">
-        <v>1862349.81</v>
+        <v>2800597.96</v>
       </c>
       <c r="O51" t="n">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="P51" t="n">
-        <v>4004480.01</v>
+        <v>6066965.5</v>
       </c>
       <c r="Q51" t="n">
-        <v>574</v>
+        <v>595</v>
       </c>
       <c r="R51" t="n">
-        <v>2679082.91</v>
+        <v>1714927.12</v>
       </c>
       <c r="S51" t="n">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="T51" t="n">
-        <v>926680.67</v>
+        <v>901043.52</v>
       </c>
       <c r="U51" t="n">
-        <v>1425</v>
+        <v>1367</v>
       </c>
       <c r="V51" t="n">
-        <v>40845720.43</v>
+        <v>48442996.15000001</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="D52" t="n">
-        <v>3069</v>
+        <v>3145</v>
       </c>
       <c r="E52" t="n">
-        <v>8691423.280000001</v>
+        <v>9112789.050000001</v>
       </c>
       <c r="F52" t="n">
-        <v>4971</v>
+        <v>5052</v>
       </c>
       <c r="G52" t="n">
-        <v>63268853.19</v>
+        <v>63121962.7</v>
       </c>
       <c r="H52" t="n">
-        <v>1237451</v>
+        <v>1197709</v>
       </c>
       <c r="I52" t="n">
-        <v>2683</v>
+        <v>2689</v>
       </c>
       <c r="J52" t="n">
-        <v>6062109.31</v>
+        <v>7180364.5</v>
       </c>
       <c r="K52" t="n">
-        <v>1610</v>
+        <v>1577</v>
       </c>
       <c r="L52" t="n">
-        <v>4189778.45</v>
+        <v>4655541.19</v>
       </c>
       <c r="M52" t="n">
-        <v>788</v>
+        <v>827</v>
       </c>
       <c r="N52" t="n">
-        <v>1749048.36</v>
+        <v>1862349.81</v>
       </c>
       <c r="O52" t="n">
-        <v>1464</v>
+        <v>1545</v>
       </c>
       <c r="P52" t="n">
-        <v>4254741.33</v>
+        <v>4004480.01</v>
       </c>
       <c r="Q52" t="n">
-        <v>591</v>
+        <v>574</v>
       </c>
       <c r="R52" t="n">
-        <v>2597890.23</v>
+        <v>2679082.91</v>
       </c>
       <c r="S52" t="n">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="T52" t="n">
-        <v>694063.73</v>
+        <v>926680.67</v>
       </c>
       <c r="U52" t="n">
-        <v>1307</v>
+        <v>1425</v>
       </c>
       <c r="V52" t="n">
-        <v>43369193.88</v>
+        <v>40845720.43</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
+          <t>2025-04-29</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2</v>
+      </c>
+      <c r="C53" t="n">
+        <v>352</v>
+      </c>
+      <c r="D53" t="n">
+        <v>3069</v>
+      </c>
+      <c r="E53" t="n">
+        <v>8691423.280000001</v>
+      </c>
+      <c r="F53" t="n">
+        <v>4971</v>
+      </c>
+      <c r="G53" t="n">
+        <v>63268853.19</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1237451</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2683</v>
+      </c>
+      <c r="J53" t="n">
+        <v>6062109.31</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1610</v>
+      </c>
+      <c r="L53" t="n">
+        <v>4189778.45</v>
+      </c>
+      <c r="M53" t="n">
+        <v>788</v>
+      </c>
+      <c r="N53" t="n">
+        <v>1749048.36</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1464</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4254741.33</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>591</v>
+      </c>
+      <c r="R53" t="n">
+        <v>2597890.23</v>
+      </c>
+      <c r="S53" t="n">
+        <v>249</v>
+      </c>
+      <c r="T53" t="n">
+        <v>694063.73</v>
+      </c>
+      <c r="U53" t="n">
+        <v>1307</v>
+      </c>
+      <c r="V53" t="n">
+        <v>43369193.88</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
           <t>2025-04-30</t>
         </is>
       </c>
-      <c r="B53" t="n">
+      <c r="B54" t="n">
         <v>3</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C54" t="n">
         <v>294</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D54" t="n">
         <v>2880</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E54" t="n">
         <v>7064509.43</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F54" t="n">
         <v>4880</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G54" t="n">
         <v>47410985.92</v>
       </c>
-      <c r="H53" t="n">
+      <c r="H54" t="n">
         <v>1265717</v>
       </c>
-      <c r="I53" t="n">
+      <c r="I54" t="n">
         <v>2664</v>
       </c>
-      <c r="J53" t="n">
+      <c r="J54" t="n">
         <v>5331646.86</v>
       </c>
-      <c r="K53" t="n">
+      <c r="K54" t="n">
         <v>1516</v>
       </c>
-      <c r="L53" t="n">
+      <c r="L54" t="n">
         <v>4335508.72</v>
       </c>
-      <c r="M53" t="n">
+      <c r="M54" t="n">
         <v>786</v>
       </c>
-      <c r="N53" t="n">
+      <c r="N54" t="n">
         <v>1874787.82</v>
       </c>
-      <c r="O53" t="n">
+      <c r="O54" t="n">
         <v>1500</v>
       </c>
-      <c r="P53" t="n">
+      <c r="P54" t="n">
         <v>5375700.46</v>
       </c>
-      <c r="Q53" t="n">
+      <c r="Q54" t="n">
         <v>578</v>
       </c>
-      <c r="R53" t="n">
+      <c r="R54" t="n">
         <v>2263138.45</v>
       </c>
-      <c r="S53" t="n">
+      <c r="S54" t="n">
         <v>291</v>
       </c>
-      <c r="T53" t="n">
+      <c r="T54" t="n">
         <v>1034616.43</v>
       </c>
-      <c r="U53" t="n">
+      <c r="U54" t="n">
         <v>1265</v>
       </c>
-      <c r="V53" t="n">
+      <c r="V54" t="n">
         <v>26820105.58000001</v>
       </c>
     </row>
